--- a/poolSizing.xlsx
+++ b/poolSizing.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paul.anderson/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paul.anderson/projects/sandbox/tools/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <workbookProtection lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="15340" yWindow="460" windowWidth="38960" windowHeight="27200" tabRatio="500"/>
+    <workbookView xWindow="12600" yWindow="460" windowWidth="40240" windowHeight="27200" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="calculations" sheetId="1" r:id="rId1"/>
@@ -39,8 +39,31 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Paul Anderson</author>
+  </authors>
+  <commentList>
+    <comment ref="F3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>integer-arithmetic may cause upper-bounds in tables to exceed specified values</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
   <si>
     <t>tx/second</t>
   </si>
@@ -111,9 +134,6 @@
   </si>
   <si>
     <t>size of resource pool</t>
-  </si>
-  <si>
-    <t>data-range for table below:</t>
   </si>
   <si>
     <r>
@@ -207,9 +227,6 @@
     <t>milliseconds</t>
   </si>
   <si>
-    <t xml:space="preserve">is                   </t>
-  </si>
-  <si>
     <t>average wait-time (milliseconds)</t>
   </si>
   <si>
@@ -222,17 +239,28 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t xml:space="preserve">  &lt;== this is an input-cell. All others are protected</t>
+    <t>x</t>
+  </si>
+  <si>
+    <t>input cells are outlined in red
+others are calculated and are protected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">is  </t>
+  </si>
+  <si>
+    <t>data-ranges for tables below (not used elsewhere):</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -358,8 +386,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="81"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -384,8 +425,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD5D0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="21">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -446,15 +499,6 @@
       <left style="medium">
         <color auto="1"/>
       </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top/>
       <bottom style="medium">
@@ -585,32 +629,18 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="hair">
-        <color auto="1"/>
+      <left style="thick">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFF0000"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -618,7 +648,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -637,16 +667,87 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="9" fontId="0" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -656,78 +757,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -737,6 +775,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFD5D0"/>
       <color rgb="FF0432FF"/>
     </mruColors>
   </colors>
@@ -1010,11 +1049,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P52"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1028,95 +1067,92 @@
     <col min="17" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
+    <row r="1" spans="1:16" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="28" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="48">
-        <v>11</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="F3" s="14" t="s">
+    <row r="2" spans="1:16" ht="32" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="38" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F3" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="47"/>
+    </row>
+    <row r="4" spans="1:16" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="32">
+        <v>450</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="16"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="32">
-        <v>310</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="42">
+      <c r="G4" s="36">
         <v>200</v>
       </c>
-      <c r="H4" s="42">
-        <v>300</v>
-      </c>
-      <c r="I4" s="44">
-        <f>INT((maxTXRate-minTXRate)/10)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="H4" s="36">
+        <v>400</v>
+      </c>
+      <c r="I4" s="25">
+        <f>ROUNDUP((maxTXRate-minTXRate)/9,0)</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="33">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="17"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="21"/>
-    </row>
-    <row r="6" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="F5" s="43"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="13"/>
+    </row>
+    <row r="6" spans="1:16" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="34">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="18"/>
-      <c r="G6" s="43">
+      <c r="F6" s="44"/>
+      <c r="G6" s="37">
         <v>20</v>
       </c>
-      <c r="H6" s="43">
+      <c r="H6" s="37">
         <v>60</v>
       </c>
-      <c r="I6" s="45">
-        <f>INT((maxPoolsize-minPoolsize)/10)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="I6" s="26">
+        <f>ROUNDUP((maxPoolsize-minPoolsize)/9,0)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="4">
         <f>lambda*(Ts/1000)</f>
-        <v>27.9</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="44" x14ac:dyDescent="0.2">
@@ -1125,1521 +1161,1524 @@
       </c>
       <c r="B8" s="4">
         <f>trafficIntensity/nAgents</f>
-        <v>0.92999999999999994</v>
-      </c>
-      <c r="C8" s="35" t="s">
-        <v>16</v>
+        <v>0.9375</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="49"/>
+      <c r="M8" s="49"/>
+      <c r="N8" s="49"/>
+      <c r="O8" s="49"/>
+      <c r="P8" s="49"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="D9" s="5"/>
+      <c r="F9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="D10" s="5"/>
+      <c r="E10" s="14">
+        <f>B12</f>
+        <v>0.56078036613422588</v>
+      </c>
+      <c r="F10" s="15">
+        <f>minTXRate</f>
+        <v>200</v>
+      </c>
+      <c r="G10" s="15">
+        <f>F10+$I$4</f>
+        <v>223</v>
+      </c>
+      <c r="H10" s="15">
+        <f t="shared" ref="H10:P10" si="0">G10+$I$4</f>
+        <v>246</v>
+      </c>
+      <c r="I10" s="15">
+        <f t="shared" si="0"/>
+        <v>269</v>
+      </c>
+      <c r="J10" s="15">
+        <f t="shared" si="0"/>
+        <v>292</v>
+      </c>
+      <c r="K10" s="15">
+        <f t="shared" si="0"/>
+        <v>315</v>
+      </c>
+      <c r="L10" s="15">
+        <f t="shared" si="0"/>
+        <v>338</v>
+      </c>
+      <c r="M10" s="15">
+        <f t="shared" si="0"/>
+        <v>361</v>
+      </c>
+      <c r="N10" s="15">
+        <f t="shared" si="0"/>
+        <v>384</v>
+      </c>
+      <c r="O10" s="15">
+        <f t="shared" si="0"/>
+        <v>407</v>
+      </c>
+      <c r="P10" s="16">
+        <f t="shared" si="0"/>
+        <v>430</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D11" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
+      <c r="D11" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="17">
+        <f>minPoolsize</f>
+        <v>20</v>
+      </c>
+      <c r="F11" s="19" t="str">
+        <f t="dataTable" ref="F11:P20" dt2D="1" dtr="1" r1="B4" r2="B6"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G11" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H11" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I11" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="J11" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K11" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L11" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="M11" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N11" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="O11" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="P11" s="20" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="13">
+      <c r="B12" s="11">
         <f>IF(agentOccupancy&lt;1,workingData!G3/(workingData!G3+(1-agentOccupancy)*SUM(workingData!B3:B1503)),blankOutput)</f>
-        <v>0.60398340890278712</v>
-      </c>
-      <c r="D12" s="5"/>
-      <c r="F12" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
+        <v>0.56078036613422588</v>
+      </c>
+      <c r="D12" s="41"/>
+      <c r="E12" s="17">
+        <f>E11+$I$6</f>
+        <v>25</v>
+      </c>
+      <c r="F12" s="19">
+        <v>0.20910282659883672</v>
+      </c>
+      <c r="G12" s="19">
+        <v>0.4772644718669079</v>
+      </c>
+      <c r="H12" s="19">
+        <v>0.90742296550872859</v>
+      </c>
+      <c r="I12" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="J12" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K12" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L12" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="M12" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N12" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="O12" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="P12" s="20" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D13" s="5"/>
-      <c r="E13" s="22">
-        <f>B12</f>
-        <v>0.60398340890278712</v>
-      </c>
-      <c r="F13" s="23">
-        <f>minTXRate</f>
-        <v>200</v>
-      </c>
-      <c r="G13" s="23">
-        <f>F13+$I$4</f>
-        <v>210</v>
-      </c>
-      <c r="H13" s="23">
-        <f t="shared" ref="H13:P13" si="0">G13+$I$4</f>
-        <v>220</v>
-      </c>
-      <c r="I13" s="23">
-        <f t="shared" si="0"/>
-        <v>230</v>
-      </c>
-      <c r="J13" s="23">
-        <f t="shared" si="0"/>
-        <v>240</v>
-      </c>
-      <c r="K13" s="23">
-        <f t="shared" si="0"/>
-        <v>250</v>
-      </c>
-      <c r="L13" s="23">
-        <f t="shared" si="0"/>
-        <v>260</v>
-      </c>
-      <c r="M13" s="23">
-        <f t="shared" si="0"/>
-        <v>270</v>
-      </c>
-      <c r="N13" s="23">
-        <f t="shared" si="0"/>
-        <v>280</v>
-      </c>
-      <c r="O13" s="23">
-        <f t="shared" si="0"/>
-        <v>290</v>
-      </c>
-      <c r="P13" s="24">
-        <f t="shared" si="0"/>
-        <v>300</v>
+      <c r="D13" s="41"/>
+      <c r="E13" s="17">
+        <f t="shared" ref="E13:E20" si="1">E12+$I$6</f>
+        <v>30</v>
+      </c>
+      <c r="F13" s="19">
+        <v>2.4950458104571093E-2</v>
+      </c>
+      <c r="G13" s="19">
+        <v>8.3975337705633937E-2</v>
+      </c>
+      <c r="H13" s="19">
+        <v>0.21661839133882579</v>
+      </c>
+      <c r="I13" s="19">
+        <v>0.45799373374160374</v>
+      </c>
+      <c r="J13" s="19">
+        <v>0.83448814316611775</v>
+      </c>
+      <c r="K13" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L13" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="M13" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N13" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="O13" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="P13" s="20" t="str">
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B14" s="4">
         <f>IF(ISNUMBER(B12),B12,"")</f>
-        <v>0.60398340890278712</v>
-      </c>
-      <c r="D14" s="8" t="s">
+        <v>0.56078036613422588</v>
+      </c>
+      <c r="D14" s="41"/>
+      <c r="E14" s="17">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="F14" s="19">
+        <v>1.5990295983770251E-3</v>
+      </c>
+      <c r="G14" s="19">
+        <v>8.5422317702378084E-3</v>
+      </c>
+      <c r="H14" s="19">
+        <v>3.2351842195111447E-2</v>
+      </c>
+      <c r="I14" s="19">
+        <v>9.3680566428440512E-2</v>
+      </c>
+      <c r="J14" s="19">
+        <v>0.22008693306107796</v>
+      </c>
+      <c r="K14" s="19">
+        <v>0.43963314258908348</v>
+      </c>
+      <c r="L14" s="19">
+        <v>0.7745923772506379</v>
+      </c>
+      <c r="M14" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N14" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="O14" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="P14" s="20" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="D15" s="41"/>
+      <c r="E15" s="17">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="F15" s="19">
+        <v>5.555128324509363E-5</v>
+      </c>
+      <c r="G15" s="19">
+        <v>4.8961760393102923E-4</v>
+      </c>
+      <c r="H15" s="19">
+        <v>2.8612565737221036E-3</v>
+      </c>
+      <c r="I15" s="19">
+        <v>1.2026744686616341E-2</v>
+      </c>
+      <c r="J15" s="19">
+        <v>3.875721623660433E-2</v>
+      </c>
+      <c r="K15" s="19">
+        <v>0.1008325068422956</v>
+      </c>
+      <c r="L15" s="19">
+        <v>0.22096076230782069</v>
+      </c>
+      <c r="M15" s="19">
+        <v>0.42228479427927557</v>
+      </c>
+      <c r="N15" s="19">
+        <v>0.72395479172397836</v>
+      </c>
+      <c r="O15" s="19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="P15" s="20" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="30">
+        <f>IF(agentOccupancy&lt;1,B12*Ts/(nAgents*(1-agentOccupancy)),blankOutput)</f>
+        <v>18.692678871140863</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="41"/>
+      <c r="E16" s="17">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="F16" s="19">
+        <v>1.0912413077033546E-6</v>
+      </c>
+      <c r="G16" s="19">
+        <v>1.6155723971700627E-5</v>
+      </c>
+      <c r="H16" s="19">
+        <v>1.493491879880658E-4</v>
+      </c>
+      <c r="I16" s="19">
+        <v>9.4194719610785581E-4</v>
+      </c>
+      <c r="J16" s="19">
+        <v>4.339202576353232E-3</v>
+      </c>
+      <c r="K16" s="19">
+        <v>1.541644379717721E-2</v>
+      </c>
+      <c r="L16" s="19">
+        <v>4.4178550133639569E-2</v>
+      </c>
+      <c r="M16" s="19">
+        <v>0.10604006603894411</v>
+      </c>
+      <c r="N16" s="19">
+        <v>0.22011456912269386</v>
+      </c>
+      <c r="O16" s="19">
+        <v>0.40593920359706021</v>
+      </c>
+      <c r="P16" s="20">
+        <v>0.68021960762490419</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="35">
+        <v>10</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="41"/>
+      <c r="E17" s="17">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="F17" s="19">
+        <v>1.2716980992451662E-8</v>
+      </c>
+      <c r="G17" s="19">
+        <v>3.190741089949053E-7</v>
+      </c>
+      <c r="H17" s="19">
+        <v>4.7225052255523467E-6</v>
+      </c>
+      <c r="I17" s="19">
+        <v>4.5433348287898864E-5</v>
+      </c>
+      <c r="J17" s="19">
+        <v>3.0589203648122314E-4</v>
+      </c>
+      <c r="K17" s="19">
+        <v>1.5273110123875055E-3</v>
+      </c>
+      <c r="L17" s="19">
+        <v>5.9268078870804717E-3</v>
+      </c>
+      <c r="M17" s="19">
+        <v>1.8587020008481885E-2</v>
+      </c>
+      <c r="N17" s="19">
+        <v>4.8704094278205406E-2</v>
+      </c>
+      <c r="O17" s="19">
+        <v>0.10975412141794083</v>
+      </c>
+      <c r="P17" s="20">
+        <v>0.21810320145341128</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="31">
+        <f>IF(agentOccupancy&lt;1,B12*EXP(-(nAgents-trafficIntensity)*B17/Ts),blankOutput)</f>
+        <v>0.41543631303279949</v>
+      </c>
+      <c r="D18" s="41"/>
+      <c r="E18" s="17">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="F18" s="19">
+        <v>9.1912389630591574E-11</v>
+      </c>
+      <c r="G18" s="19">
+        <v>3.9276677874018478E-9</v>
+      </c>
+      <c r="H18" s="19">
+        <v>9.3668815781895671E-8</v>
+      </c>
+      <c r="I18" s="19">
+        <v>1.3862114355230615E-6</v>
+      </c>
+      <c r="J18" s="19">
+        <v>1.379494595310726E-5</v>
+      </c>
+      <c r="K18" s="19">
+        <v>9.8268958812330111E-5</v>
+      </c>
+      <c r="L18" s="19">
+        <v>5.2674119922268149E-4</v>
+      </c>
+      <c r="M18" s="19">
+        <v>2.2131516312042746E-3</v>
+      </c>
+      <c r="N18" s="19">
+        <v>7.5432198171681572E-3</v>
+      </c>
+      <c r="O18" s="19">
+        <v>2.148033677121303E-2</v>
+      </c>
+      <c r="P18" s="20">
+        <v>5.2442583076398271E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="D19" s="41"/>
+      <c r="E19" s="17">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="F19" s="19">
+        <v>4.2837736137740578E-13</v>
+      </c>
+      <c r="G19" s="19">
+        <v>3.127230457507609E-11</v>
+      </c>
+      <c r="H19" s="19">
+        <v>1.2062444005562334E-9</v>
+      </c>
+      <c r="I19" s="19">
+        <v>2.7590758755729037E-8</v>
+      </c>
+      <c r="J19" s="19">
+        <v>4.0831740717818424E-7</v>
+      </c>
+      <c r="K19" s="19">
+        <v>4.1830063766980998E-6</v>
+      </c>
+      <c r="L19" s="19">
+        <v>3.1298466971816891E-5</v>
+      </c>
+      <c r="M19" s="19">
+        <v>1.7863878593497593E-4</v>
+      </c>
+      <c r="N19" s="19">
+        <v>8.0624140063992843E-4</v>
+      </c>
+      <c r="O19" s="19">
+        <v>2.9661424735615725E-3</v>
+      </c>
+      <c r="P19" s="20">
+        <v>9.1317923589707382E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="41"/>
+      <c r="E20" s="18">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="F20" s="21">
+        <v>1.3317744201156071E-15</v>
+      </c>
+      <c r="G20" s="21">
+        <v>1.6641956379001557E-13</v>
+      </c>
+      <c r="H20" s="21">
+        <v>1.0407332848813162E-11</v>
+      </c>
+      <c r="I20" s="21">
+        <v>3.6900713527970059E-10</v>
+      </c>
+      <c r="J20" s="21">
+        <v>8.1505431039483345E-9</v>
+      </c>
+      <c r="K20" s="21">
+        <v>1.2062799537441127E-7</v>
+      </c>
+      <c r="L20" s="21">
+        <v>1.2672448104726033E-6</v>
+      </c>
+      <c r="M20" s="21">
+        <v>9.899708929222402E-6</v>
+      </c>
+      <c r="N20" s="21">
+        <v>5.9747777295797676E-5</v>
+      </c>
+      <c r="O20" s="21">
+        <v>2.8762124766296154E-4</v>
+      </c>
+      <c r="P20" s="22">
+        <v>1.1347832251269658E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="D22" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="50"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="50"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="50"/>
+      <c r="K22" s="50"/>
+      <c r="L22" s="50"/>
+      <c r="M22" s="50"/>
+      <c r="N22" s="50"/>
+      <c r="O22" s="50"/>
+      <c r="P22" s="50"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="F23" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="D24" s="5"/>
+      <c r="E24" s="14">
+        <f>B16</f>
+        <v>18.692678871140863</v>
+      </c>
+      <c r="F24" s="15">
+        <f>minTXRate</f>
+        <v>200</v>
+      </c>
+      <c r="G24" s="15">
+        <f>F24+$I$4</f>
+        <v>223</v>
+      </c>
+      <c r="H24" s="15">
+        <f t="shared" ref="H24:P24" si="2">G24+$I$4</f>
+        <v>246</v>
+      </c>
+      <c r="I24" s="15">
+        <f t="shared" si="2"/>
+        <v>269</v>
+      </c>
+      <c r="J24" s="15">
+        <f t="shared" si="2"/>
+        <v>292</v>
+      </c>
+      <c r="K24" s="15">
+        <f t="shared" si="2"/>
+        <v>315</v>
+      </c>
+      <c r="L24" s="15">
+        <f t="shared" si="2"/>
+        <v>338</v>
+      </c>
+      <c r="M24" s="15">
+        <f t="shared" si="2"/>
+        <v>361</v>
+      </c>
+      <c r="N24" s="15">
+        <f t="shared" si="2"/>
+        <v>384</v>
+      </c>
+      <c r="O24" s="15">
+        <f t="shared" si="2"/>
+        <v>407</v>
+      </c>
+      <c r="P24" s="16">
+        <f t="shared" si="2"/>
+        <v>430</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B25" s="24"/>
+      <c r="D25" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="25">
+      <c r="E25" s="17">
         <f>minPoolsize</f>
         <v>20</v>
       </c>
-      <c r="F14" s="27">
-        <f t="dataTable" ref="F14:P23" dt2D="1" dtr="1" r1="B4" r2="B6"/>
-        <v>0.55076900481611757</v>
-      </c>
-      <c r="G14" s="27">
-        <v>0.73314856264867079</v>
-      </c>
-      <c r="H14" s="27">
-        <v>0.94786677719890489</v>
-      </c>
-      <c r="I14" s="27" t="str">
+      <c r="F25" s="40" t="str">
+        <f t="dataTable" ref="F25:P34" dt2D="1" dtr="1" r1="B4" r2="B6" ca="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="J14" s="27" t="str">
+      <c r="G25" s="40" t="str">
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K14" s="27" t="str">
+      <c r="H25" s="40" t="str">
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L14" s="27" t="str">
+      <c r="I25" s="40" t="str">
         <v xml:space="preserve"> </v>
       </c>
-      <c r="M14" s="27" t="str">
+      <c r="J25" s="40" t="str">
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N14" s="27" t="str">
+      <c r="K25" s="40" t="str">
         <v xml:space="preserve"> </v>
       </c>
-      <c r="O14" s="27" t="str">
+      <c r="L25" s="40" t="str">
         <v xml:space="preserve"> </v>
       </c>
-      <c r="P14" s="28" t="str">
+      <c r="M25" s="40" t="str">
         <v xml:space="preserve"> </v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D15" s="8"/>
-      <c r="E15" s="25">
-        <f>E14+$I$6</f>
-        <v>24</v>
-      </c>
-      <c r="F15" s="27">
-        <v>0.12753650958345253</v>
-      </c>
-      <c r="G15" s="27">
-        <v>0.19172423454543078</v>
-      </c>
-      <c r="H15" s="27">
-        <v>0.27626165799756575</v>
-      </c>
-      <c r="I15" s="27">
-        <v>0.38365368944578371</v>
-      </c>
-      <c r="J15" s="27">
-        <v>0.51592062252821114</v>
-      </c>
-      <c r="K15" s="27">
-        <v>0.67455843252871739</v>
-      </c>
-      <c r="L15" s="27">
-        <v>0.86054652773329954</v>
-      </c>
-      <c r="M15" s="27" t="str">
+      <c r="N25" s="40" t="str">
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N15" s="27" t="str">
+      <c r="O25" s="40" t="str">
         <v xml:space="preserve"> </v>
       </c>
-      <c r="O15" s="27" t="str">
+      <c r="P25" s="40" t="str">
         <v xml:space="preserve"> </v>
       </c>
-      <c r="P15" s="28" t="str">
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="D26" s="41"/>
+      <c r="E26" s="17">
+        <f>E25+$I$6</f>
+        <v>25</v>
+      </c>
+      <c r="F26" s="40">
+        <v>4.1820565319767358</v>
+      </c>
+      <c r="G26" s="40">
+        <v>17.676461920996591</v>
+      </c>
+      <c r="H26" s="40">
+        <v>226.85574137718353</v>
+      </c>
+      <c r="I26" s="40" t="str">
         <v xml:space="preserve"> </v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="37">
-        <f>IF(agentOccupancy&lt;1,B12*Ts/1000/(nAgents*(1-agentOccupancy)),blankOutput)</f>
-        <v>2.5885003238690852E-2</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="25">
-        <f t="shared" ref="E16:E23" si="1">E15+$I$6</f>
-        <v>28</v>
-      </c>
-      <c r="F16" s="27">
-        <v>1.9603572950902426E-2</v>
-      </c>
-      <c r="G16" s="27">
-        <v>3.4248697487889224E-2</v>
-      </c>
-      <c r="H16" s="27">
-        <v>5.6581166885463899E-2</v>
-      </c>
-      <c r="I16" s="27">
-        <v>8.8960975965872477E-2</v>
-      </c>
-      <c r="J16" s="27">
-        <v>0.13387010752697973</v>
-      </c>
-      <c r="K16" s="27">
-        <v>0.19377510893611635</v>
-      </c>
-      <c r="L16" s="27">
-        <v>0.27099841044647621</v>
-      </c>
-      <c r="M16" s="27">
-        <v>0.36761355967389875</v>
-      </c>
-      <c r="N16" s="27">
-        <v>0.4853725440214004</v>
-      </c>
-      <c r="O16" s="27">
-        <v>0.62566663804239675</v>
-      </c>
-      <c r="P16" s="28">
-        <v>0.78951720708809203</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A17" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="40">
-        <v>10</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="25">
-        <f t="shared" si="1"/>
-        <v>32</v>
-      </c>
-      <c r="F17" s="27">
-        <v>1.9507871176524464E-3</v>
-      </c>
-      <c r="G17" s="27">
-        <v>4.0380857843742455E-3</v>
-      </c>
-      <c r="H17" s="27">
-        <v>7.8082184954942494E-3</v>
-      </c>
-      <c r="I17" s="27">
-        <v>1.4202816629285572E-2</v>
-      </c>
-      <c r="J17" s="27">
-        <v>2.4453329804675277E-2</v>
-      </c>
-      <c r="K17" s="27">
-        <v>4.0072893398338701E-2</v>
-      </c>
-      <c r="L17" s="27">
-        <v>6.2816664050550461E-2</v>
-      </c>
-      <c r="M17" s="27">
-        <v>9.4614585247752847E-2</v>
-      </c>
-      <c r="N17" s="27">
-        <v>0.13748560708745236</v>
-      </c>
-      <c r="O17" s="27">
-        <v>0.19344496921186624</v>
-      </c>
-      <c r="P17" s="28">
-        <v>0.2644159575644644</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A18" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="36">
-        <f>IF(agentOccupancy&lt;1,B12*EXP(-(nAgents-trafficIntensity)*B17/Ts),blankOutput)</f>
-        <v>0.4782881597506391</v>
-      </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="25">
-        <f t="shared" si="1"/>
-        <v>36</v>
-      </c>
-      <c r="F18" s="27">
-        <v>1.2676571467269218E-4</v>
-      </c>
-      <c r="G18" s="27">
-        <v>3.142123764871221E-4</v>
-      </c>
-      <c r="H18" s="27">
-        <v>7.1969692391990155E-4</v>
-      </c>
-      <c r="I18" s="27">
-        <v>1.5348531136015822E-3</v>
-      </c>
-      <c r="J18" s="27">
-        <v>3.0681355628392934E-3</v>
-      </c>
-      <c r="K18" s="27">
-        <v>5.7829951633002934E-3</v>
-      </c>
-      <c r="L18" s="27">
-        <v>1.0332717959492657E-2</v>
-      </c>
-      <c r="M18" s="27">
-        <v>1.7585191687036861E-2</v>
-      </c>
-      <c r="N18" s="27">
-        <v>2.8631540461676267E-2</v>
-      </c>
-      <c r="O18" s="27">
-        <v>4.4774830597109544E-2</v>
-      </c>
-      <c r="P18" s="28">
-        <v>6.7498349466263263E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D19" s="8"/>
-      <c r="E19" s="25">
-        <f t="shared" si="1"/>
+      <c r="J26" s="40" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K26" s="40" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L26" s="40" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="M26" s="40" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N26" s="40" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="O26" s="40" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="P26" s="40" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="D27" s="41"/>
+      <c r="E27" s="17">
+        <f t="shared" ref="E27:E34" si="3">E26+$I$6</f>
+        <v>30</v>
+      </c>
+      <c r="F27" s="40">
+        <v>0.24950458104571088</v>
+      </c>
+      <c r="G27" s="40">
+        <v>1.0905888013718696</v>
+      </c>
+      <c r="H27" s="40">
+        <v>4.0114516914597385</v>
+      </c>
+      <c r="I27" s="40">
+        <v>14.773991411019484</v>
+      </c>
+      <c r="J27" s="40">
+        <v>104.31101789576492</v>
+      </c>
+      <c r="K27" s="40" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L27" s="40" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="M27" s="40" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N27" s="40" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="O27" s="40" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="P27" s="40" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="D28" s="41"/>
+      <c r="E28" s="17">
+        <f t="shared" si="3"/>
+        <v>35</v>
+      </c>
+      <c r="F28" s="40">
+        <v>1.0660197322513498E-2</v>
+      </c>
+      <c r="G28" s="40">
+        <v>6.7261667482187454E-2</v>
+      </c>
+      <c r="H28" s="40">
+        <v>0.31107540572222542</v>
+      </c>
+      <c r="I28" s="40">
+        <v>1.1565502028202537</v>
+      </c>
+      <c r="J28" s="40">
+        <v>3.7946022941565194</v>
+      </c>
+      <c r="K28" s="40">
+        <v>12.560946931116675</v>
+      </c>
+      <c r="L28" s="40">
+        <v>64.549364770886768</v>
+      </c>
+      <c r="M28" s="40" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N28" s="40" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="O28" s="40" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="P28" s="40" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="D29" s="41"/>
+      <c r="E29" s="17">
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
-      <c r="F19" s="27">
-        <v>5.515586430424036E-6</v>
-      </c>
-      <c r="G19" s="27">
-        <v>1.6460334837386257E-5</v>
-      </c>
-      <c r="H19" s="27">
-        <v>4.4940677841504152E-5</v>
-      </c>
-      <c r="I19" s="27">
-        <v>1.1318096080331475E-4</v>
-      </c>
-      <c r="J19" s="27">
-        <v>2.6483801419488072E-4</v>
-      </c>
-      <c r="K19" s="27">
-        <v>5.7947795002963917E-4</v>
-      </c>
-      <c r="L19" s="27">
-        <v>1.1923830152676146E-3</v>
-      </c>
-      <c r="M19" s="27">
-        <v>2.3191803228716111E-3</v>
-      </c>
-      <c r="N19" s="27">
-        <v>4.2834671791445109E-3</v>
-      </c>
-      <c r="O19" s="27">
-        <v>7.5442828759104304E-3</v>
-      </c>
-      <c r="P19" s="28">
-        <v>1.2719346066520934E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D20" s="8"/>
-      <c r="E20" s="25">
-        <f t="shared" si="1"/>
-        <v>44</v>
-      </c>
-      <c r="F20" s="27">
-        <v>1.6541295866572804E-7</v>
-      </c>
-      <c r="G20" s="27">
-        <v>5.9611942846107917E-7</v>
-      </c>
-      <c r="H20" s="27">
-        <v>1.9465948397561583E-6</v>
-      </c>
-      <c r="I20" s="27">
-        <v>5.8116138332607066E-6</v>
-      </c>
-      <c r="J20" s="27">
-        <v>1.5988557923900561E-5</v>
-      </c>
-      <c r="K20" s="27">
-        <v>4.0814933152850089E-5</v>
-      </c>
-      <c r="L20" s="27">
-        <v>9.7272708111085948E-5</v>
-      </c>
-      <c r="M20" s="27">
-        <v>2.1762177937085768E-4</v>
-      </c>
-      <c r="N20" s="27">
-        <v>4.5928983733900151E-4</v>
-      </c>
-      <c r="O20" s="27">
-        <v>9.1848259841531674E-4</v>
-      </c>
-      <c r="P20" s="28">
-        <v>1.7474479113990726E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D21" s="8"/>
-      <c r="E21" s="25">
-        <f t="shared" si="1"/>
-        <v>48</v>
-      </c>
-      <c r="F21" s="27">
-        <v>3.5155296507384957E-9</v>
-      </c>
-      <c r="G21" s="27">
-        <v>1.5326406937231859E-8</v>
-      </c>
-      <c r="H21" s="27">
-        <v>5.9976584633688702E-8</v>
-      </c>
-      <c r="I21" s="27">
-        <v>2.1274071104641817E-7</v>
-      </c>
-      <c r="J21" s="27">
-        <v>6.8983902657149657E-7</v>
-      </c>
-      <c r="K21" s="27">
-        <v>2.0602848453154101E-6</v>
-      </c>
-      <c r="L21" s="27">
-        <v>5.7051561776441234E-6</v>
-      </c>
-      <c r="M21" s="27">
-        <v>1.4734285703146659E-5</v>
-      </c>
-      <c r="N21" s="27">
-        <v>3.5678121117478778E-5</v>
-      </c>
-      <c r="O21" s="27">
-        <v>8.1385135698669567E-5</v>
-      </c>
-      <c r="P21" s="28">
-        <v>1.7563819158268924E-4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D22" s="8"/>
-      <c r="E22" s="25">
-        <f t="shared" si="1"/>
-        <v>52</v>
-      </c>
-      <c r="F22" s="27">
-        <v>5.4293223265697192E-11</v>
-      </c>
-      <c r="G22" s="27">
-        <v>2.8666526082099556E-10</v>
-      </c>
-      <c r="H22" s="27">
-        <v>1.3460408235579333E-9</v>
-      </c>
-      <c r="I22" s="27">
-        <v>5.6803199984517484E-9</v>
-      </c>
-      <c r="J22" s="27">
-        <v>2.1742807375425145E-8</v>
-      </c>
-      <c r="K22" s="27">
-        <v>7.6102344022266093E-8</v>
-      </c>
-      <c r="L22" s="27">
-        <v>2.4531416402291921E-7</v>
-      </c>
-      <c r="M22" s="27">
-        <v>7.3290129699224038E-7</v>
-      </c>
-      <c r="N22" s="27">
-        <v>2.0409262269718757E-6</v>
-      </c>
-      <c r="O22" s="27">
-        <v>5.3244593118110356E-6</v>
-      </c>
-      <c r="P22" s="28">
-        <v>1.3073126256796642E-5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D23" s="8"/>
-      <c r="E23" s="26">
-        <f t="shared" si="1"/>
-        <v>56</v>
-      </c>
-      <c r="F23" s="29">
-        <v>6.2301041051317762E-13</v>
-      </c>
-      <c r="G23" s="29">
-        <v>3.9869492265227842E-12</v>
-      </c>
-      <c r="H23" s="29">
-        <v>2.2481776774107726E-11</v>
-      </c>
-      <c r="I23" s="29">
-        <v>1.1297650974660438E-10</v>
-      </c>
-      <c r="J23" s="29">
-        <v>5.1098729442701505E-10</v>
-      </c>
-      <c r="K23" s="29">
-        <v>2.0983100138489564E-9</v>
-      </c>
-      <c r="L23" s="29">
-        <v>7.8831325165046184E-9</v>
-      </c>
-      <c r="M23" s="29">
-        <v>2.7280695470562798E-8</v>
-      </c>
-      <c r="N23" s="29">
-        <v>8.749392736486986E-8</v>
-      </c>
-      <c r="O23" s="29">
-        <v>2.6147521624846472E-7</v>
-      </c>
-      <c r="P23" s="30">
-        <v>7.3171349264060376E-7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D24" s="5"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="19"/>
-      <c r="K24" s="19"/>
-      <c r="L24" s="19"/>
-      <c r="M24" s="19"/>
-      <c r="N24" s="19"/>
-      <c r="O24" s="19"/>
-      <c r="P24" s="19"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B26" s="39"/>
-      <c r="D26" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="10"/>
-      <c r="P26" s="10"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="F27" s="7" t="s">
+      <c r="F29" s="40">
+        <v>2.7775641622546814E-4</v>
+      </c>
+      <c r="G29" s="40">
+        <v>2.7662011521527078E-3</v>
+      </c>
+      <c r="H29" s="40">
+        <v>1.8579588141052619E-2</v>
+      </c>
+      <c r="I29" s="40">
+        <v>9.1807211348216372E-2</v>
+      </c>
+      <c r="J29" s="40">
+        <v>0.35886311330189202</v>
+      </c>
+      <c r="K29" s="40">
+        <v>1.1862647863799483</v>
+      </c>
+      <c r="L29" s="40">
+        <v>3.5638832630293678</v>
+      </c>
+      <c r="M29" s="40">
+        <v>10.827815237930151</v>
+      </c>
+      <c r="N29" s="40">
+        <v>45.247174482748861</v>
+      </c>
+      <c r="O29" s="40" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="P29" s="40" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="D30" s="41"/>
+      <c r="E30" s="17">
+        <f t="shared" si="3"/>
+        <v>45</v>
+      </c>
+      <c r="F30" s="40">
+        <v>4.3649652308134184E-6</v>
+      </c>
+      <c r="G30" s="40">
+        <v>7.117059018370319E-5</v>
+      </c>
+      <c r="H30" s="40">
+        <v>7.3210386268659719E-4</v>
+      </c>
+      <c r="I30" s="40">
+        <v>5.204128155292022E-3</v>
+      </c>
+      <c r="J30" s="40">
+        <v>2.7463307445273626E-2</v>
+      </c>
+      <c r="K30" s="40">
+        <v>0.11419587997909043</v>
+      </c>
+      <c r="L30" s="40">
+        <v>0.39445134047892477</v>
+      </c>
+      <c r="M30" s="40">
+        <v>1.1914614161679118</v>
+      </c>
+      <c r="N30" s="40">
+        <v>3.3350692291317294</v>
+      </c>
+      <c r="O30" s="40">
+        <v>9.4404465952804735</v>
+      </c>
+      <c r="P30" s="40">
+        <v>34.010980381245247</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="D31" s="41"/>
+      <c r="E31" s="17">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="F31" s="40">
+        <v>4.2389936641505542E-8</v>
+      </c>
+      <c r="G31" s="40">
+        <v>1.151892090234315E-6</v>
+      </c>
+      <c r="H31" s="40">
+        <v>1.8592540258080105E-5</v>
+      </c>
+      <c r="I31" s="40">
+        <v>1.9668116141947561E-4</v>
+      </c>
+      <c r="J31" s="40">
+        <v>1.4706347907751116E-3</v>
+      </c>
+      <c r="K31" s="40">
+        <v>8.2557352020946242E-3</v>
+      </c>
+      <c r="L31" s="40">
+        <v>3.6585233870867109E-2</v>
+      </c>
+      <c r="M31" s="40">
+        <v>0.13371956840634447</v>
+      </c>
+      <c r="N31" s="40">
+        <v>0.41986288170866748</v>
+      </c>
+      <c r="O31" s="40">
+        <v>1.1801518432036651</v>
+      </c>
+      <c r="P31" s="40">
+        <v>3.1157600207630178</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="D32" s="41"/>
+      <c r="E32" s="17">
+        <f t="shared" si="3"/>
+        <v>55</v>
+      </c>
+      <c r="F32" s="40">
+        <v>2.6260682751597593E-10</v>
+      </c>
+      <c r="G32" s="40">
+        <v>1.201121647523501E-8</v>
+      </c>
+      <c r="H32" s="40">
+        <v>3.0812110454570946E-7</v>
+      </c>
+      <c r="I32" s="40">
+        <v>4.9331367812208602E-6</v>
+      </c>
+      <c r="J32" s="40">
+        <v>5.3468782763981641E-5</v>
+      </c>
+      <c r="K32" s="40">
+        <v>4.1816578218012809E-4</v>
+      </c>
+      <c r="L32" s="40">
+        <v>2.4846282982201964E-3</v>
+      </c>
+      <c r="M32" s="40">
+        <v>1.1709796990498808E-2</v>
+      </c>
+      <c r="N32" s="40">
+        <v>4.5441083235952764E-2</v>
+      </c>
+      <c r="O32" s="40">
+        <v>0.15021214525323803</v>
+      </c>
+      <c r="P32" s="40">
+        <v>0.43702152563665231</v>
+      </c>
+    </row>
+    <row r="33" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="D33" s="41"/>
+      <c r="E33" s="17">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="F33" s="40">
+        <v>1.0709434034435143E-12</v>
+      </c>
+      <c r="G33" s="40">
+        <v>8.2950410013464445E-11</v>
+      </c>
+      <c r="H33" s="40">
+        <v>3.4074700580684562E-9</v>
+      </c>
+      <c r="I33" s="40">
+        <v>8.335576663362246E-8</v>
+      </c>
+      <c r="J33" s="40">
+        <v>1.3257058674616373E-6</v>
+      </c>
+      <c r="K33" s="40">
+        <v>1.4677215356835438E-5</v>
+      </c>
+      <c r="L33" s="40">
+        <v>1.1945979760235455E-4</v>
+      </c>
+      <c r="M33" s="40">
+        <v>7.4744261897479478E-4</v>
+      </c>
+      <c r="N33" s="40">
+        <v>3.7325990770367069E-3</v>
+      </c>
+      <c r="O33" s="40">
+        <v>1.5368613852650636E-2</v>
+      </c>
+      <c r="P33" s="40">
+        <v>5.3716425641004345E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="D34" s="41"/>
+      <c r="E34" s="18">
+        <f t="shared" si="3"/>
+        <v>65</v>
+      </c>
+      <c r="F34" s="40">
+        <v>2.9594987113680157E-15</v>
+      </c>
+      <c r="G34" s="40">
+        <v>3.8974136718973198E-13</v>
+      </c>
+      <c r="H34" s="40">
+        <v>2.5760724873299901E-11</v>
+      </c>
+      <c r="I34" s="40">
+        <v>9.6852266477611701E-10</v>
+      </c>
+      <c r="J34" s="40">
+        <v>2.2766880178626635E-8</v>
+      </c>
+      <c r="K34" s="40">
+        <v>3.600835682818247E-7</v>
+      </c>
+      <c r="L34" s="40">
+        <v>4.0616820848480877E-6</v>
+      </c>
+      <c r="M34" s="40">
+        <v>3.4255048198001386E-5</v>
+      </c>
+      <c r="N34" s="40">
+        <v>2.2461570411954016E-4</v>
+      </c>
+      <c r="O34" s="40">
+        <v>1.1836265335924345E-3</v>
+      </c>
+      <c r="P34" s="40">
+        <v>5.1581055687589354E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="D36" s="48" t="str">
+        <f>CONCATENATE("probability of waiting more than ",B17," ",C17)</f>
+        <v>probability of waiting more than 10 milliseconds</v>
+      </c>
+      <c r="E36" s="48"/>
+      <c r="F36" s="48"/>
+      <c r="G36" s="48"/>
+      <c r="H36" s="48"/>
+      <c r="I36" s="48"/>
+      <c r="J36" s="48"/>
+      <c r="K36" s="48"/>
+      <c r="L36" s="48"/>
+      <c r="M36" s="48"/>
+      <c r="N36" s="48"/>
+      <c r="O36" s="48"/>
+      <c r="P36" s="48"/>
+    </row>
+    <row r="37" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C37" s="29"/>
+      <c r="F37" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
-      <c r="N27" s="7"/>
-      <c r="O27" s="7"/>
-      <c r="P27" s="7"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D28" s="5"/>
-      <c r="E28" s="22">
-        <f>B16</f>
-        <v>2.5885003238690852E-2</v>
-      </c>
-      <c r="F28" s="23">
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="7"/>
+      <c r="N37" s="7"/>
+      <c r="O37" s="7"/>
+      <c r="P37" s="7"/>
+    </row>
+    <row r="38" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="E38" s="8">
+        <f>B18</f>
+        <v>0.41543631303279949</v>
+      </c>
+      <c r="F38" s="15">
         <f>minTXRate</f>
         <v>200</v>
       </c>
-      <c r="G28" s="23">
-        <f>F28+$I$4</f>
-        <v>210</v>
-      </c>
-      <c r="H28" s="23">
-        <f t="shared" ref="H28:P28" si="2">G28+$I$4</f>
-        <v>220</v>
-      </c>
-      <c r="I28" s="23">
-        <f t="shared" si="2"/>
-        <v>230</v>
-      </c>
-      <c r="J28" s="23">
-        <f t="shared" si="2"/>
-        <v>240</v>
-      </c>
-      <c r="K28" s="23">
-        <f t="shared" si="2"/>
-        <v>250</v>
-      </c>
-      <c r="L28" s="23">
-        <f t="shared" si="2"/>
-        <v>260</v>
-      </c>
-      <c r="M28" s="23">
-        <f t="shared" si="2"/>
-        <v>270</v>
-      </c>
-      <c r="N28" s="23">
-        <f t="shared" si="2"/>
-        <v>280</v>
-      </c>
-      <c r="O28" s="23">
-        <f t="shared" si="2"/>
-        <v>290</v>
-      </c>
-      <c r="P28" s="24">
-        <f t="shared" si="2"/>
-        <v>300</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D29" s="8" t="s">
+      <c r="G38" s="15">
+        <f>F38+$I$4</f>
+        <v>223</v>
+      </c>
+      <c r="H38" s="15">
+        <f t="shared" ref="H38:P38" si="4">G38+$I$4</f>
+        <v>246</v>
+      </c>
+      <c r="I38" s="15">
+        <f t="shared" si="4"/>
+        <v>269</v>
+      </c>
+      <c r="J38" s="15">
+        <f t="shared" si="4"/>
+        <v>292</v>
+      </c>
+      <c r="K38" s="15">
+        <f t="shared" si="4"/>
+        <v>315</v>
+      </c>
+      <c r="L38" s="15">
+        <f t="shared" si="4"/>
+        <v>338</v>
+      </c>
+      <c r="M38" s="15">
+        <f t="shared" si="4"/>
+        <v>361</v>
+      </c>
+      <c r="N38" s="15">
+        <f t="shared" si="4"/>
+        <v>384</v>
+      </c>
+      <c r="O38" s="15">
+        <f t="shared" si="4"/>
+        <v>407</v>
+      </c>
+      <c r="P38" s="16">
+        <f t="shared" si="4"/>
+        <v>430</v>
+      </c>
+    </row>
+    <row r="39" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="D39" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="E29" s="25">
+      <c r="E39" s="17">
         <f>minPoolsize</f>
         <v>20</v>
       </c>
-      <c r="F29" s="41">
-        <f t="dataTable" ref="F29:P38" dt2D="1" dtr="1" r1="B4" r2="B6" ca="1"/>
-        <v>2.4784605216725295E-2</v>
-      </c>
-      <c r="G29" s="41">
-        <v>5.9984882398527548E-2</v>
-      </c>
-      <c r="H29" s="41">
-        <v>0.42654004973950682</v>
-      </c>
-      <c r="I29" s="41" t="str">
+      <c r="F39" s="31" t="str">
+        <f t="dataTable" ref="F39:P48" dt2D="1" dtr="1" r1="B4" r2="B6" ca="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="J29" s="41" t="str">
+      <c r="G39" s="31" t="str">
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K29" s="41" t="str">
+      <c r="H39" s="31" t="str">
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L29" s="41" t="str">
+      <c r="I39" s="31" t="str">
         <v xml:space="preserve"> </v>
       </c>
-      <c r="M29" s="41" t="str">
+      <c r="J39" s="31" t="str">
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N29" s="41" t="str">
+      <c r="K39" s="31" t="str">
         <v xml:space="preserve"> </v>
       </c>
-      <c r="O29" s="41" t="str">
+      <c r="L39" s="31" t="str">
         <v xml:space="preserve"> </v>
       </c>
-      <c r="P29" s="41" t="str">
+      <c r="M39" s="31" t="str">
         <v xml:space="preserve"> </v>
       </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D30" s="8"/>
-      <c r="E30" s="25">
-        <f>E29+$I$6</f>
-        <v>24</v>
-      </c>
-      <c r="F30" s="41">
-        <v>1.913047643751788E-3</v>
-      </c>
-      <c r="G30" s="41">
-        <v>3.3833688449193666E-3</v>
-      </c>
-      <c r="H30" s="41">
-        <v>5.9198926713764114E-3</v>
-      </c>
-      <c r="I30" s="41">
-        <v>1.046328243943046E-2</v>
-      </c>
-      <c r="J30" s="41">
-        <v>1.9347023344807899E-2</v>
-      </c>
-      <c r="K30" s="41">
-        <v>4.0473505951723041E-2</v>
-      </c>
-      <c r="L30" s="41">
-        <v>0.12908197915999481</v>
-      </c>
-      <c r="M30" s="41" t="str">
+      <c r="N39" s="31" t="str">
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N30" s="41" t="str">
+      <c r="O39" s="31" t="str">
         <v xml:space="preserve"> </v>
       </c>
-      <c r="O30" s="41" t="str">
+      <c r="P39" s="31" t="str">
         <v xml:space="preserve"> </v>
       </c>
-      <c r="P30" s="41" t="str">
+    </row>
+    <row r="40" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="D40" s="41"/>
+      <c r="E40" s="17">
+        <f>E39+$I$6</f>
+        <v>25</v>
+      </c>
+      <c r="F40" s="31">
+        <v>0.12682727536476882</v>
+      </c>
+      <c r="G40" s="31">
+        <v>0.36433391119870551</v>
+      </c>
+      <c r="H40" s="31">
+        <v>0.87184240210506947</v>
+      </c>
+      <c r="I40" s="31" t="str">
         <v xml:space="preserve"> </v>
       </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D31" s="8"/>
-      <c r="E31" s="25">
-        <f t="shared" ref="E31:E38" si="3">E30+$I$6</f>
-        <v>28</v>
-      </c>
-      <c r="F31" s="41">
-        <v>1.7643215655812185E-4</v>
-      </c>
-      <c r="G31" s="41">
-        <v>3.3872338174835491E-4</v>
-      </c>
-      <c r="H31" s="41">
-        <v>6.2101280727948187E-4</v>
-      </c>
-      <c r="I31" s="41">
-        <v>1.0967791557436328E-3</v>
-      </c>
-      <c r="J31" s="41">
-        <v>1.8825483870981519E-3</v>
-      </c>
-      <c r="K31" s="41">
-        <v>3.1708654189546315E-3</v>
-      </c>
-      <c r="L31" s="41">
-        <v>5.3021428130832276E-3</v>
-      </c>
-      <c r="M31" s="41">
-        <v>8.9419514515272688E-3</v>
-      </c>
-      <c r="N31" s="41">
-        <v>1.5601260343545018E-2</v>
-      </c>
-      <c r="O31" s="41">
-        <v>2.9636840749376652E-2</v>
-      </c>
-      <c r="P31" s="41">
-        <v>7.1056548637928318E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D32" s="8"/>
-      <c r="E32" s="25">
-        <f t="shared" si="3"/>
-        <v>32</v>
-      </c>
-      <c r="F32" s="41">
-        <v>1.2540774327765727E-5</v>
-      </c>
-      <c r="G32" s="41">
-        <v>2.7742574091120769E-5</v>
-      </c>
-      <c r="H32" s="41">
-        <v>5.7601611852006763E-5</v>
-      </c>
-      <c r="I32" s="41">
-        <v>1.1311977846333641E-4</v>
-      </c>
-      <c r="J32" s="41">
-        <v>2.1161535407892063E-4</v>
-      </c>
-      <c r="K32" s="41">
-        <v>3.7963793745794558E-4</v>
-      </c>
-      <c r="L32" s="41">
-        <v>6.5738369355227214E-4</v>
-      </c>
-      <c r="M32" s="41">
-        <v>1.1058847626360723E-3</v>
-      </c>
-      <c r="N32" s="41">
-        <v>1.8196624467456928E-3</v>
-      </c>
-      <c r="O32" s="41">
-        <v>2.9508554625538911E-3</v>
-      </c>
-      <c r="P32" s="41">
-        <v>4.7594872361603592E-3</v>
-      </c>
-    </row>
-    <row r="33" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D33" s="8"/>
-      <c r="E33" s="25">
-        <f t="shared" si="3"/>
-        <v>36</v>
-      </c>
-      <c r="F33" s="41">
-        <v>6.3382857336346095E-7</v>
-      </c>
-      <c r="G33" s="41">
-        <v>1.6537493499322213E-6</v>
-      </c>
-      <c r="H33" s="41">
-        <v>3.9983162439994532E-6</v>
-      </c>
-      <c r="I33" s="41">
-        <v>9.0285477270681303E-6</v>
-      </c>
-      <c r="J33" s="41">
-        <v>1.9175847267745582E-5</v>
-      </c>
-      <c r="K33" s="41">
-        <v>3.855330108866862E-5</v>
-      </c>
-      <c r="L33" s="41">
-        <v>7.3805128282090383E-5</v>
-      </c>
-      <c r="M33" s="41">
-        <v>1.3527070528489895E-4</v>
-      </c>
-      <c r="N33" s="41">
-        <v>2.3859617051396885E-4</v>
-      </c>
-      <c r="O33" s="41">
-        <v>4.0704391451917772E-4</v>
-      </c>
-      <c r="P33" s="41">
-        <v>6.7498349466263267E-4</v>
-      </c>
-    </row>
-    <row r="34" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D34" s="8"/>
-      <c r="E34" s="25">
-        <f t="shared" si="3"/>
-        <v>40</v>
-      </c>
-      <c r="F34" s="41">
-        <v>2.2563762669916508E-8</v>
-      </c>
-      <c r="G34" s="41">
-        <v>7.0209959022026683E-8</v>
-      </c>
-      <c r="H34" s="41">
-        <v>2.0023074285818684E-7</v>
-      </c>
-      <c r="I34" s="41">
-        <v>5.2778686384965435E-7</v>
-      </c>
-      <c r="J34" s="41">
-        <v>1.2954033303010469E-6</v>
-      </c>
-      <c r="K34" s="41">
-        <v>2.9801723144381443E-6</v>
-      </c>
-      <c r="L34" s="41">
-        <v>6.4647271912099576E-6</v>
-      </c>
-      <c r="M34" s="41">
-        <v>1.3294664271238535E-5</v>
-      </c>
-      <c r="N34" s="41">
-        <v>2.604811122452743E-5</v>
-      </c>
-      <c r="O34" s="41">
-        <v>4.8847874736110689E-5</v>
-      </c>
-      <c r="P34" s="41">
-        <v>8.8057011229760327E-5</v>
-      </c>
-    </row>
-    <row r="35" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D35" s="8"/>
-      <c r="E35" s="25">
-        <f t="shared" si="3"/>
-        <v>44</v>
-      </c>
-      <c r="F35" s="41">
-        <v>5.7258331845828941E-10</v>
-      </c>
-      <c r="G35" s="41">
-        <v>2.1374800223704031E-9</v>
-      </c>
-      <c r="H35" s="41">
-        <v>7.23940229661381E-9</v>
-      </c>
-      <c r="I35" s="41">
-        <v>2.2448293776543505E-8</v>
-      </c>
-      <c r="J35" s="41">
-        <v>6.4239741658529032E-8</v>
-      </c>
-      <c r="K35" s="41">
-        <v>1.7085320854681434E-7</v>
-      </c>
-      <c r="L35" s="41">
-        <v>4.2497785097076383E-7</v>
-      </c>
-      <c r="M35" s="41">
-        <v>9.9421117479072032E-7</v>
-      </c>
-      <c r="N35" s="41">
-        <v>2.1987279447079861E-6</v>
-      </c>
-      <c r="O35" s="41">
-        <v>4.6180689305798047E-6</v>
-      </c>
-      <c r="P35" s="41">
-        <v>9.2511948250539134E-6</v>
-      </c>
-    </row>
-    <row r="36" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D36" s="8"/>
-      <c r="E36" s="25">
-        <f t="shared" si="3"/>
-        <v>48</v>
-      </c>
-      <c r="F36" s="41">
-        <v>1.0546588952215487E-11</v>
-      </c>
-      <c r="G36" s="41">
-        <v>4.7401258568758334E-11</v>
-      </c>
-      <c r="H36" s="41">
-        <v>1.9141463180964483E-10</v>
-      </c>
-      <c r="I36" s="41">
-        <v>7.0134300344973018E-10</v>
-      </c>
-      <c r="J36" s="41">
-        <v>2.3517239542210107E-9</v>
-      </c>
-      <c r="K36" s="41">
-        <v>7.2715935717014473E-9</v>
-      </c>
-      <c r="L36" s="41">
-        <v>2.087252260113704E-8</v>
-      </c>
-      <c r="M36" s="41">
-        <v>5.5952983682835408E-8</v>
-      </c>
-      <c r="N36" s="41">
-        <v>1.408346886216268E-7</v>
-      </c>
-      <c r="O36" s="41">
-        <v>3.3445946177535437E-7</v>
-      </c>
-      <c r="P36" s="41">
-        <v>7.5273510678295383E-7</v>
-      </c>
-    </row>
-    <row r="37" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D37" s="8"/>
-      <c r="E37" s="25">
-        <f t="shared" si="3"/>
-        <v>52</v>
-      </c>
-      <c r="F37" s="41">
-        <v>1.4371735570331612E-13</v>
-      </c>
-      <c r="G37" s="41">
-        <v>7.7945237081237476E-13</v>
-      </c>
-      <c r="H37" s="41">
-        <v>3.7622259043544717E-12</v>
-      </c>
-      <c r="I37" s="41">
-        <v>1.6333188493950711E-11</v>
-      </c>
-      <c r="J37" s="41">
-        <v>6.4370153414087607E-11</v>
-      </c>
-      <c r="K37" s="41">
-        <v>2.3217664277979485E-10</v>
-      </c>
-      <c r="L37" s="41">
-        <v>7.7196764902317233E-10</v>
-      </c>
-      <c r="M37" s="41">
-        <v>2.3812677519603483E-9</v>
-      </c>
-      <c r="N37" s="41">
-        <v>6.8538567323682395E-9</v>
-      </c>
-      <c r="O37" s="41">
-        <v>1.8501982164594334E-8</v>
-      </c>
-      <c r="P37" s="41">
-        <v>4.7063254524467916E-8</v>
-      </c>
-    </row>
-    <row r="38" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D38" s="8"/>
-      <c r="E38" s="26">
-        <f t="shared" si="3"/>
-        <v>56</v>
-      </c>
-      <c r="F38" s="41">
-        <v>1.4755509722680523E-15</v>
-      </c>
-      <c r="G38" s="41">
-        <v>9.6718444848261585E-15</v>
-      </c>
-      <c r="H38" s="41">
-        <v>5.5893920156621419E-14</v>
-      </c>
-      <c r="I38" s="41">
-        <v>2.8804209283836815E-13</v>
-      </c>
-      <c r="J38" s="41">
-        <v>1.3368853633264925E-12</v>
-      </c>
-      <c r="K38" s="41">
-        <v>5.6372507834748084E-12</v>
-      </c>
-      <c r="L38" s="41">
-        <v>2.1763249278693733E-11</v>
-      </c>
-      <c r="M38" s="41">
-        <v>7.7453078623048963E-11</v>
-      </c>
-      <c r="N38" s="41">
-        <v>2.5566407346877555E-10</v>
-      </c>
-      <c r="O38" s="41">
-        <v>7.8704914589838867E-10</v>
-      </c>
-      <c r="P38" s="41">
-        <v>2.2708349771604949E-9</v>
-      </c>
-    </row>
-    <row r="41" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D41" s="10" t="str">
-        <f>CONCATENATE("probability of waiting more than ",B17," ",C17)</f>
-        <v>probability of waiting more than 10 milliseconds</v>
-      </c>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="10"/>
-      <c r="K41" s="10"/>
-      <c r="L41" s="10"/>
-      <c r="M41" s="10"/>
-      <c r="N41" s="10"/>
-      <c r="O41" s="10"/>
-      <c r="P41" s="10"/>
-    </row>
-    <row r="42" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="E42" s="9">
-        <f>B18</f>
-        <v>0.4782881597506391</v>
-      </c>
-      <c r="F42" s="23">
-        <f>minTXRate</f>
-        <v>200</v>
-      </c>
-      <c r="G42" s="23">
-        <f>F42+$I$4</f>
-        <v>210</v>
-      </c>
-      <c r="H42" s="23">
-        <f t="shared" ref="H42:P42" si="4">G42+$I$4</f>
-        <v>220</v>
-      </c>
-      <c r="I42" s="23">
-        <f t="shared" si="4"/>
-        <v>230</v>
-      </c>
-      <c r="J42" s="23">
-        <f t="shared" si="4"/>
-        <v>240</v>
-      </c>
-      <c r="K42" s="23">
-        <f t="shared" si="4"/>
-        <v>250</v>
-      </c>
-      <c r="L42" s="23">
-        <f t="shared" si="4"/>
-        <v>260</v>
-      </c>
-      <c r="M42" s="23">
-        <f t="shared" si="4"/>
-        <v>270</v>
-      </c>
-      <c r="N42" s="23">
-        <f t="shared" si="4"/>
-        <v>280</v>
-      </c>
-      <c r="O42" s="23">
-        <f t="shared" si="4"/>
-        <v>290</v>
-      </c>
-      <c r="P42" s="24">
-        <f t="shared" si="4"/>
-        <v>300</v>
-      </c>
-    </row>
-    <row r="43" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D43" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E43" s="25">
-        <f>minPoolsize</f>
-        <v>20</v>
-      </c>
-      <c r="F43" s="36">
-        <f t="dataTable" ref="F43:P52" dt2D="1" dtr="1" r1="B4" r2="B6" ca="1"/>
-        <v>0.44102134252353292</v>
-      </c>
-      <c r="G43" s="36">
-        <v>0.64880106006420335</v>
-      </c>
-      <c r="H43" s="36">
-        <v>0.92703538816879394</v>
-      </c>
-      <c r="I43" s="36" t="str">
+      <c r="J40" s="31" t="str">
         <v xml:space="preserve"> </v>
       </c>
-      <c r="J43" s="36" t="str">
+      <c r="K40" s="31" t="str">
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K43" s="36" t="str">
+      <c r="L40" s="31" t="str">
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L43" s="36" t="str">
+      <c r="M40" s="31" t="str">
         <v xml:space="preserve"> </v>
       </c>
-      <c r="M43" s="36" t="str">
+      <c r="N40" s="31" t="str">
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N43" s="36" t="str">
+      <c r="O40" s="31" t="str">
         <v xml:space="preserve"> </v>
       </c>
-      <c r="O43" s="36" t="str">
+      <c r="P40" s="31" t="str">
         <v xml:space="preserve"> </v>
       </c>
-      <c r="P43" s="36" t="str">
+    </row>
+    <row r="41" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="D41" s="41"/>
+      <c r="E41" s="17">
+        <f t="shared" ref="E41:E48" si="5">E40+$I$6</f>
+        <v>30</v>
+      </c>
+      <c r="F41" s="31">
+        <v>9.1787605844810983E-3</v>
+      </c>
+      <c r="G41" s="31">
+        <v>3.8881678773557131E-2</v>
+      </c>
+      <c r="H41" s="31">
+        <v>0.12623398898476573</v>
+      </c>
+      <c r="I41" s="31">
+        <v>0.33591410998257692</v>
+      </c>
+      <c r="J41" s="31">
+        <v>0.77032964582247476</v>
+      </c>
+      <c r="K41" s="31" t="str">
         <v xml:space="preserve"> </v>
       </c>
-    </row>
-    <row r="44" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D44" s="8"/>
-      <c r="E44" s="25">
-        <f>E43+$I$6</f>
-        <v>24</v>
-      </c>
-      <c r="F44" s="36">
-        <v>6.5479427321808753E-2</v>
-      </c>
-      <c r="G44" s="36">
-        <v>0.10878695132072012</v>
-      </c>
-      <c r="H44" s="36">
-        <v>0.17324067040971139</v>
-      </c>
-      <c r="I44" s="36">
-        <v>0.26588759083195701</v>
-      </c>
-      <c r="J44" s="36">
-        <v>0.39515822514108784</v>
-      </c>
-      <c r="K44" s="36">
-        <v>0.57100138550641766</v>
-      </c>
-      <c r="L44" s="36">
-        <v>0.8050472876392063</v>
-      </c>
-      <c r="M44" s="36" t="str">
+      <c r="L41" s="31" t="str">
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N44" s="36" t="str">
+      <c r="M41" s="31" t="str">
         <v xml:space="preserve"> </v>
       </c>
-      <c r="O44" s="36" t="str">
+      <c r="N41" s="31" t="str">
         <v xml:space="preserve"> </v>
       </c>
-      <c r="P44" s="36" t="str">
+      <c r="O41" s="31" t="str">
         <v xml:space="preserve"> </v>
       </c>
-    </row>
-    <row r="45" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D45" s="8"/>
-      <c r="E45" s="25">
-        <f t="shared" ref="E45:E52" si="5">E44+$I$6</f>
-        <v>28</v>
-      </c>
-      <c r="F45" s="36">
-        <v>6.4533587514178101E-3</v>
-      </c>
-      <c r="G45" s="36">
-        <v>1.2460173319356803E-2</v>
-      </c>
-      <c r="H45" s="36">
-        <v>2.2749998470998564E-2</v>
-      </c>
-      <c r="I45" s="36">
-        <v>3.9531059926635997E-2</v>
-      </c>
-      <c r="J45" s="36">
-        <v>6.5743372789762861E-2</v>
-      </c>
-      <c r="K45" s="36">
-        <v>0.10517095228739985</v>
-      </c>
-      <c r="L45" s="36">
-        <v>0.16255263292337405</v>
-      </c>
-      <c r="M45" s="36">
-        <v>0.24369590711565475</v>
-      </c>
-      <c r="N45" s="36">
-        <v>0.35559968469925973</v>
-      </c>
-      <c r="O45" s="36">
-        <v>0.50659232683598288</v>
-      </c>
-      <c r="P45" s="36">
-        <v>0.70649103820389758</v>
-      </c>
-    </row>
-    <row r="46" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D46" s="8"/>
-      <c r="E46" s="25">
+      <c r="P41" s="31" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="42" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="D42" s="41"/>
+      <c r="E42" s="17">
         <f t="shared" si="5"/>
-        <v>32</v>
-      </c>
-      <c r="F46" s="36">
-        <v>4.1175670975886501E-4</v>
-      </c>
-      <c r="G46" s="36">
-        <v>9.4196723101643595E-4</v>
-      </c>
-      <c r="H46" s="36">
-        <v>2.012990196810159E-3</v>
-      </c>
-      <c r="I46" s="36">
-        <v>4.0466312447048876E-3</v>
-      </c>
-      <c r="J46" s="36">
-        <v>7.6999269316831397E-3</v>
-      </c>
-      <c r="K46" s="36">
-        <v>1.3945328464392165E-2</v>
-      </c>
-      <c r="L46" s="36">
-        <v>2.4159189705936925E-2</v>
-      </c>
-      <c r="M46" s="36">
-        <v>4.0215644505097715E-2</v>
-      </c>
-      <c r="N46" s="36">
-        <v>6.4583804843712372E-2</v>
-      </c>
-      <c r="O46" s="36">
-        <v>0.10042764516733192</v>
-      </c>
-      <c r="P46" s="36">
-        <v>0.15170956015017531</v>
-      </c>
-    </row>
-    <row r="47" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D47" s="8"/>
-      <c r="E47" s="25">
-        <f t="shared" si="5"/>
-        <v>36</v>
-      </c>
-      <c r="F47" s="36">
-        <v>1.7155873899920426E-5</v>
-      </c>
-      <c r="G47" s="36">
-        <v>4.6996311293841617E-5</v>
-      </c>
-      <c r="H47" s="36">
-        <v>1.1896510138045547E-4</v>
-      </c>
-      <c r="I47" s="36">
-        <v>2.8039237569604933E-4</v>
-      </c>
-      <c r="J47" s="36">
-        <v>6.1944588687282544E-4</v>
-      </c>
-      <c r="K47" s="36">
-        <v>1.2903606369247895E-3</v>
-      </c>
-      <c r="L47" s="36">
-        <v>2.5480168780758002E-3</v>
-      </c>
-      <c r="M47" s="36">
-        <v>4.7925238213149691E-3</v>
-      </c>
-      <c r="N47" s="36">
-        <v>8.6236542651869121E-3</v>
-      </c>
-      <c r="O47" s="36">
-        <v>1.4904246383257779E-2</v>
-      </c>
-      <c r="P47" s="36">
-        <v>2.4831255081643654E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D48" s="8"/>
-      <c r="E48" s="25">
+        <v>35</v>
+      </c>
+      <c r="F42" s="31">
+        <v>3.5679173036794502E-4</v>
+      </c>
+      <c r="G42" s="31">
+        <v>2.3989288016426839E-3</v>
+      </c>
+      <c r="H42" s="31">
+        <v>1.1434910093853763E-2</v>
+      </c>
+      <c r="I42" s="31">
+        <v>4.167455562402584E-2</v>
+      </c>
+      <c r="J42" s="31">
+        <v>0.12322631432328655</v>
+      </c>
+      <c r="K42" s="31">
+        <v>0.30980423942813601</v>
+      </c>
+      <c r="L42" s="31">
+        <v>0.68700180950891732</v>
+      </c>
+      <c r="M42" s="31" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N42" s="31" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="O42" s="31" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="P42" s="31" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="43" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="D43" s="41"/>
+      <c r="E43" s="17">
         <f t="shared" si="5"/>
         <v>40</v>
       </c>
-      <c r="F48" s="36">
-        <v>4.7861131415554852E-7</v>
-      </c>
-      <c r="G48" s="36">
-        <v>1.5785537710530295E-6</v>
-      </c>
-      <c r="H48" s="36">
-        <v>4.7631008987260519E-6</v>
-      </c>
-      <c r="I48" s="36">
-        <v>1.3257235997631122E-5</v>
-      </c>
-      <c r="J48" s="36">
-        <v>3.4283833874402542E-5</v>
-      </c>
-      <c r="K48" s="36">
-        <v>8.2903988040065199E-5</v>
-      </c>
-      <c r="L48" s="36">
-        <v>1.8853141919939585E-4</v>
-      </c>
-      <c r="M48" s="36">
-        <v>4.0525830287327196E-4</v>
-      </c>
-      <c r="N48" s="36">
-        <v>8.2722241826565135E-4</v>
-      </c>
-      <c r="O48" s="36">
-        <v>1.610179392964187E-3</v>
-      </c>
-      <c r="P48" s="36">
-        <v>3.0002022476565953E-3</v>
-      </c>
-    </row>
-    <row r="49" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D49" s="8"/>
-      <c r="E49" s="25">
+      <c r="F43" s="31">
+        <v>7.5180486521320437E-6</v>
+      </c>
+      <c r="G43" s="31">
+        <v>8.3398029859107744E-5</v>
+      </c>
+      <c r="H43" s="31">
+        <v>6.1339933573972567E-4</v>
+      </c>
+      <c r="I43" s="31">
+        <v>3.2450569294670555E-3</v>
+      </c>
+      <c r="J43" s="31">
+        <v>1.3161777220404222E-2</v>
+      </c>
+      <c r="K43" s="31">
+        <v>4.3097319050219289E-2</v>
+      </c>
+      <c r="L43" s="31">
+        <v>0.11886461301017119</v>
+      </c>
+      <c r="M43" s="31">
+        <v>0.28591082296282683</v>
+      </c>
+      <c r="N43" s="31">
+        <v>0.61691357925991563</v>
+      </c>
+      <c r="O43" s="31" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="P43" s="31" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="44" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="D44" s="41"/>
+      <c r="E44" s="17">
         <f t="shared" si="5"/>
-        <v>44</v>
-      </c>
-      <c r="F49" s="36">
-        <v>9.2032459093766617E-9</v>
-      </c>
-      <c r="G49" s="36">
-        <v>3.6655084187497724E-8</v>
-      </c>
-      <c r="H49" s="36">
-        <v>1.3228358643527721E-7</v>
-      </c>
-      <c r="I49" s="36">
-        <v>4.3647220251804237E-7</v>
-      </c>
-      <c r="J49" s="36">
-        <v>1.3270845225295152E-6</v>
-      </c>
-      <c r="K49" s="36">
-        <v>3.744017131045689E-6</v>
-      </c>
-      <c r="L49" s="36">
-        <v>9.8614140270132208E-6</v>
-      </c>
-      <c r="M49" s="36">
-        <v>2.4382598706430595E-5</v>
-      </c>
-      <c r="N49" s="36">
-        <v>5.6871399841990848E-5</v>
-      </c>
-      <c r="O49" s="36">
-        <v>1.256919497177054E-4</v>
-      </c>
-      <c r="P49" s="36">
-        <v>2.6428360219165448E-4</v>
-      </c>
-    </row>
-    <row r="50" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D50" s="8"/>
-      <c r="E50" s="25">
+        <v>45</v>
+      </c>
+      <c r="F44" s="31">
+        <v>8.9574541241171385E-8</v>
+      </c>
+      <c r="G44" s="31">
+        <v>1.6690830643371939E-6</v>
+      </c>
+      <c r="H44" s="31">
+        <v>1.9419682384827889E-5</v>
+      </c>
+      <c r="I44" s="31">
+        <v>1.5415355529275861E-4</v>
+      </c>
+      <c r="J44" s="31">
+        <v>8.9376767679524068E-4</v>
+      </c>
+      <c r="K44" s="31">
+        <v>3.9965629082129575E-3</v>
+      </c>
+      <c r="L44" s="31">
+        <v>1.4414568264347576E-2</v>
+      </c>
+      <c r="M44" s="31">
+        <v>4.3545963141131024E-2</v>
+      </c>
+      <c r="N44" s="31">
+        <v>0.11376650879212975</v>
+      </c>
+      <c r="O44" s="31">
+        <v>0.26406714384462782</v>
+      </c>
+      <c r="P44" s="31">
+        <v>0.55691671160914713</v>
+      </c>
+    </row>
+    <row r="45" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="D45" s="41"/>
+      <c r="E45" s="17">
         <f t="shared" si="5"/>
-        <v>48</v>
-      </c>
-      <c r="F50" s="36">
-        <v>1.2541298137251362E-10</v>
-      </c>
-      <c r="G50" s="36">
-        <v>6.0425677388859211E-10</v>
-      </c>
-      <c r="H50" s="36">
-        <v>2.6133185704450263E-9</v>
-      </c>
-      <c r="I50" s="36">
-        <v>1.0244497906079862E-8</v>
-      </c>
-      <c r="J50" s="36">
-        <v>3.6712780693534902E-8</v>
-      </c>
-      <c r="K50" s="36">
-        <v>1.2117868517982186E-7</v>
-      </c>
-      <c r="L50" s="36">
-        <v>3.7084801075799872E-7</v>
-      </c>
-      <c r="M50" s="36">
-        <v>1.0584904670706105E-6</v>
-      </c>
-      <c r="N50" s="36">
-        <v>2.8326263317745046E-6</v>
-      </c>
-      <c r="O50" s="36">
-        <v>7.1410463617279383E-6</v>
-      </c>
-      <c r="P50" s="36">
-        <v>1.7031981069918758E-5</v>
-      </c>
-    </row>
-    <row r="51" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D51" s="8"/>
-      <c r="E51" s="25">
+        <v>50</v>
+      </c>
+      <c r="F45" s="31">
+        <v>6.3314120210401714E-10</v>
+      </c>
+      <c r="G45" s="31">
+        <v>1.9993823330937046E-8</v>
+      </c>
+      <c r="H45" s="31">
+        <v>3.7244698513196291E-7</v>
+      </c>
+      <c r="I45" s="31">
+        <v>4.5097710136021271E-6</v>
+      </c>
+      <c r="J45" s="31">
+        <v>3.8215157027455735E-5</v>
+      </c>
+      <c r="K45" s="31">
+        <v>2.4015005566740914E-4</v>
+      </c>
+      <c r="L45" s="31">
+        <v>1.172907570571733E-3</v>
+      </c>
+      <c r="M45" s="31">
+        <v>4.6295676708075374E-3</v>
+      </c>
+      <c r="N45" s="31">
+        <v>1.5268060508620972E-2</v>
+      </c>
+      <c r="O45" s="31">
+        <v>4.3303895834023783E-2</v>
+      </c>
+      <c r="P45" s="31">
+        <v>0.10830684455162123</v>
+      </c>
+    </row>
+    <row r="46" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="D46" s="41"/>
+      <c r="E46" s="17">
         <f t="shared" si="5"/>
-        <v>52</v>
-      </c>
-      <c r="F51" s="36">
-        <v>1.2418741372859848E-12</v>
-      </c>
-      <c r="G51" s="36">
-        <v>7.2466364166204353E-12</v>
-      </c>
-      <c r="H51" s="36">
-        <v>3.7605302391536006E-11</v>
-      </c>
-      <c r="I51" s="36">
-        <v>1.7538526529440842E-10</v>
-      </c>
-      <c r="J51" s="36">
-        <v>7.419341619199787E-10</v>
-      </c>
-      <c r="K51" s="36">
-        <v>2.8699691726730995E-9</v>
-      </c>
-      <c r="L51" s="36">
-        <v>1.0224245540680919E-8</v>
-      </c>
-      <c r="M51" s="36">
-        <v>3.3758534479697775E-8</v>
-      </c>
-      <c r="N51" s="36">
-        <v>1.0389504832118872E-7</v>
-      </c>
-      <c r="O51" s="36">
-        <v>2.9955219314135023E-7</v>
-      </c>
-      <c r="P51" s="36">
-        <v>8.1284154874987596E-7</v>
-      </c>
-    </row>
-    <row r="52" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D52" s="8"/>
-      <c r="E52" s="26">
+        <v>55</v>
+      </c>
+      <c r="F46" s="31">
+        <v>2.775513670936505E-12</v>
+      </c>
+      <c r="G46" s="31">
+        <v>1.4927661933739957E-10</v>
+      </c>
+      <c r="H46" s="31">
+        <v>4.4806374519794035E-9</v>
+      </c>
+      <c r="I46" s="31">
+        <v>8.3456848929887125E-8</v>
+      </c>
+      <c r="J46" s="31">
+        <v>1.0452982901456856E-6</v>
+      </c>
+      <c r="K46" s="31">
+        <v>9.3718282737262733E-6</v>
+      </c>
+      <c r="L46" s="31">
+        <v>6.3225603946776167E-5</v>
+      </c>
+      <c r="M46" s="31">
+        <v>3.343448201551945E-4</v>
+      </c>
+      <c r="N46" s="31">
+        <v>1.4342601227179323E-3</v>
+      </c>
+      <c r="O46" s="31">
+        <v>5.1404362421518818E-3</v>
+      </c>
+      <c r="P46" s="31">
+        <v>1.5795402480335966E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="D47" s="41"/>
+      <c r="E47" s="17">
         <f t="shared" si="5"/>
-        <v>56</v>
-      </c>
-      <c r="F52" s="36">
-        <v>9.1370813443608368E-15</v>
-      </c>
-      <c r="G52" s="36">
-        <v>6.4622289522275123E-14</v>
-      </c>
-      <c r="H52" s="36">
-        <v>4.0271862482195118E-13</v>
-      </c>
-      <c r="I52" s="36">
-        <v>2.2366018808020939E-12</v>
-      </c>
-      <c r="J52" s="36">
-        <v>1.1179955680448238E-11</v>
-      </c>
-      <c r="K52" s="36">
-        <v>5.0737502030761758E-11</v>
-      </c>
-      <c r="L52" s="36">
-        <v>2.1066272800218145E-10</v>
-      </c>
-      <c r="M52" s="36">
-        <v>8.0570073996813008E-10</v>
-      </c>
-      <c r="N52" s="36">
-        <v>2.8557861584694119E-9</v>
-      </c>
-      <c r="O52" s="36">
-        <v>9.4320860034029572E-9</v>
-      </c>
-      <c r="P52" s="36">
-        <v>2.9170759239192757E-8</v>
+        <v>60</v>
+      </c>
+      <c r="F47" s="31">
+        <v>7.8460050590973482E-15</v>
+      </c>
+      <c r="G47" s="31">
+        <v>7.2089114420204777E-13</v>
+      </c>
+      <c r="H47" s="31">
+        <v>3.4997163334406716E-11</v>
+      </c>
+      <c r="I47" s="31">
+        <v>1.0075089407217362E-9</v>
+      </c>
+      <c r="J47" s="31">
+        <v>1.8765964510774455E-8</v>
+      </c>
+      <c r="K47" s="31">
+        <v>2.4196316307522025E-7</v>
+      </c>
+      <c r="L47" s="31">
+        <v>2.2786179976582103E-6</v>
+      </c>
+      <c r="M47" s="31">
+        <v>1.6368615483483102E-5</v>
+      </c>
+      <c r="N47" s="31">
+        <v>9.2979887114696879E-5</v>
+      </c>
+      <c r="O47" s="31">
+        <v>4.3053023648322188E-4</v>
+      </c>
+      <c r="P47" s="31">
+        <v>1.6682280090546094E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="D48" s="41"/>
+      <c r="E48" s="18">
+        <f t="shared" si="5"/>
+        <v>65</v>
+      </c>
+      <c r="F48" s="31">
+        <v>1.4794677422783935E-17</v>
+      </c>
+      <c r="G48" s="31">
+        <v>2.3268422533851498E-15</v>
+      </c>
+      <c r="H48" s="31">
+        <v>1.8314275272720084E-13</v>
+      </c>
+      <c r="I48" s="31">
+        <v>8.1728360685984903E-12</v>
+      </c>
+      <c r="J48" s="31">
+        <v>2.2720208018204817E-10</v>
+      </c>
+      <c r="K48" s="31">
+        <v>4.2321553041909405E-9</v>
+      </c>
+      <c r="L48" s="31">
+        <v>5.595794252502056E-8</v>
+      </c>
+      <c r="M48" s="31">
+        <v>5.5018832824226154E-7</v>
+      </c>
+      <c r="N48" s="31">
+        <v>4.1792507750367441E-6</v>
+      </c>
+      <c r="O48" s="31">
+        <v>2.5321263627637268E-5</v>
+      </c>
+      <c r="P48" s="31">
+        <v>1.2573756540066317E-4</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="8">
-    <mergeCell ref="D43:D52"/>
-    <mergeCell ref="D14:D23"/>
+    <mergeCell ref="D39:D48"/>
+    <mergeCell ref="D11:D20"/>
     <mergeCell ref="F4:F6"/>
     <mergeCell ref="F3:I3"/>
-    <mergeCell ref="D29:D38"/>
-    <mergeCell ref="D11:P11"/>
-    <mergeCell ref="D41:P41"/>
-    <mergeCell ref="D26:P26"/>
+    <mergeCell ref="D25:D34"/>
+    <mergeCell ref="D8:P8"/>
+    <mergeCell ref="D36:P36"/>
+    <mergeCell ref="D22:P22"/>
   </mergeCells>
-  <conditionalFormatting sqref="F14:P23">
+  <conditionalFormatting sqref="F11:P20">
     <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -2653,12 +2692,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F29:P38">
+  <conditionalFormatting sqref="F25:P34">
     <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="FF0432FF"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B0F0"/>
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
@@ -2667,7 +2706,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F43:P52">
+  <conditionalFormatting sqref="F39:P48">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -2682,6 +2721,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
@@ -2698,7 +2738,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F14:P23</xm:sqref>
+          <xm:sqref>F11:P20</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{5EB6F6CF-9FA3-704F-A96D-372C0628959F}">
@@ -2706,14 +2746,12 @@
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
               </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
+              <x14:cfvo type="max"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F29:P38</xm:sqref>
+          <xm:sqref>F25:P34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{3979268D-9C70-0A41-B8D7-7A4F1E927046}">
@@ -2728,7 +2766,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F43:P52</xm:sqref>
+          <xm:sqref>F39:P48</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -2767,7 +2805,7 @@
       </c>
       <c r="G3" s="2">
         <f>trafficIntensity^nAgents/FACT(nAgents)</f>
-        <v>87996626546.365616</v>
+        <v>1.8209242226698977E+18</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -2776,7 +2814,7 @@
       </c>
       <c r="B4" s="3">
         <f t="shared" si="0"/>
-        <v>27.9</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -2785,7 +2823,7 @@
       </c>
       <c r="B5" s="3">
         <f t="shared" si="0"/>
-        <v>389.20499999999998</v>
+        <v>1012.5</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -2794,7 +2832,7 @@
       </c>
       <c r="B6" s="3">
         <f t="shared" si="0"/>
-        <v>3619.6064999999999</v>
+        <v>15187.5</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -2803,7 +2841,7 @@
       </c>
       <c r="B7" s="3">
         <f t="shared" si="0"/>
-        <v>25246.755337499999</v>
+        <v>170859.375</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -2812,7 +2850,7 @@
       </c>
       <c r="B8" s="3">
         <f t="shared" si="0"/>
-        <v>140876.89478325</v>
+        <v>1537734.375</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -2821,7 +2859,7 @@
       </c>
       <c r="B9" s="3">
         <f t="shared" si="0"/>
-        <v>655077.56074211246</v>
+        <v>11533007.8125</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -2830,7 +2868,7 @@
       </c>
       <c r="B10" s="3">
         <f t="shared" si="0"/>
-        <v>2610951.9921007054</v>
+        <v>74140764.508928567</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -2839,7 +2877,7 @@
       </c>
       <c r="B11" s="3">
         <f t="shared" si="0"/>
-        <v>9105695.0724512096</v>
+        <v>417041800.36272323</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -2848,7 +2886,7 @@
       </c>
       <c r="B12" s="3">
         <f t="shared" si="0"/>
-        <v>28227654.72459875</v>
+        <v>2085209001.813616</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -2857,13 +2895,13 @@
       </c>
       <c r="B13" s="3">
         <f t="shared" si="0"/>
-        <v>78755156.681630522</v>
+        <v>9383440508.161272</v>
       </c>
       <c r="F13" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" s="46" t="s">
-        <v>23</v>
+        <v>20</v>
+      </c>
+      <c r="G13" s="27" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -2872,7 +2910,7 @@
       </c>
       <c r="B14" s="3">
         <f t="shared" si="0"/>
-        <v>199751715.5834083</v>
+        <v>38386802078.841568</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -2881,7 +2919,7 @@
       </c>
       <c r="B15" s="3">
         <f t="shared" si="0"/>
-        <v>464422738.73142427</v>
+        <v>143950507795.65588</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -2890,7 +2928,7 @@
       </c>
       <c r="B16" s="3">
         <f t="shared" si="0"/>
-        <v>996722646.96974909</v>
+        <v>498290219292.65503</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -2899,7 +2937,7 @@
       </c>
       <c r="B17" s="3">
         <f t="shared" si="0"/>
-        <v>1986325846.4611425</v>
+        <v>1601647133440.6768</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -2908,7 +2946,7 @@
       </c>
       <c r="B18" s="3">
         <f t="shared" si="0"/>
-        <v>3694566074.4177256</v>
+        <v>4804941400322.0303</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -2917,7 +2955,7 @@
       </c>
       <c r="B19" s="3">
         <f t="shared" si="0"/>
-        <v>6442399592.2659092</v>
+        <v>13513897688405.711</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -2926,7 +2964,7 @@
       </c>
       <c r="B20" s="3">
         <f t="shared" si="0"/>
-        <v>10573114624.95405</v>
+        <v>35772082116368.055</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -2935,7 +2973,7 @@
       </c>
       <c r="B21" s="3">
         <f t="shared" si="0"/>
-        <v>16388327668.678778</v>
+        <v>89430205290920.141</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -2944,7 +2982,7 @@
       </c>
       <c r="B22" s="3">
         <f t="shared" si="0"/>
-        <v>24064965366.112522</v>
+        <v>211808380952179.28</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -2953,7 +2991,7 @@
       </c>
       <c r="B23" s="3">
         <f t="shared" si="0"/>
-        <v>33570626685.726971</v>
+        <v>476568857142403.38</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -2962,7 +3000,7 @@
       </c>
       <c r="B24" s="3">
         <f t="shared" si="0"/>
-        <v>44600975453.894402</v>
+        <v>1021218979590864.4</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -2971,7 +3009,7 @@
       </c>
       <c r="B25" s="3">
         <f t="shared" si="0"/>
-        <v>56562146143.802437</v>
+        <v>2088857003708586.2</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -2980,7 +3018,7 @@
       </c>
       <c r="B26" s="3">
         <f t="shared" si="0"/>
-        <v>68612342496.177734</v>
+        <v>4086894137690712.5</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -2989,7 +3027,7 @@
       </c>
       <c r="B27" s="3">
         <f t="shared" si="0"/>
-        <v>79761848151.806625</v>
+        <v>7662926508170086</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -2998,7 +3036,7 @@
       </c>
       <c r="B28" s="3">
         <f t="shared" si="0"/>
-        <v>89014222537.416214</v>
+        <v>1.3793267714706156E+16</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -3007,7 +3045,7 @@
       </c>
       <c r="B29" s="3">
         <f t="shared" si="0"/>
-        <v>95519108030.535049</v>
+        <v>2.3872963352376032E+16</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -3016,7 +3054,7 @@
       </c>
       <c r="B30" s="3">
         <f t="shared" si="0"/>
-        <v>98703078298.219559</v>
+        <v>3.9788272253960064E+16</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -3025,7 +3063,7 @@
       </c>
       <c r="B31" s="3">
         <f t="shared" si="0"/>
-        <v>98350567304.297363</v>
+        <v>6.3945437551007248E+16</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -3034,7 +3072,7 @@
       </c>
       <c r="B32" s="3">
         <f t="shared" si="0"/>
-        <v>94620028544.479187</v>
+        <v>9.922567895845952E+16</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -3043,7 +3081,7 @@
       </c>
       <c r="B33" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.4883851843768922E+17</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -3052,7 +3090,7 @@
       </c>
       <c r="B34" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.1605591386116182E+17</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -3061,7 +3099,7 @@
       </c>
       <c r="B35" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.0382862886725882E+17</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -3070,7 +3108,7 @@
       </c>
       <c r="B36" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.1431176663717101E+17</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
@@ -3079,7 +3117,7 @@
       </c>
       <c r="B37" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5.4835380878449133E+17</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
@@ -3088,7 +3126,7 @@
       </c>
       <c r="B38" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7.0502632558006016E+17</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
@@ -3097,7 +3135,7 @@
       </c>
       <c r="B39" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8.8128290697507482E+17</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
@@ -3106,7 +3144,7 @@
       </c>
       <c r="B40" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.0718305625372535E+18</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
@@ -3115,7 +3153,7 @@
       </c>
       <c r="B41" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.2692730345835899E+18</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
@@ -3124,7 +3162,7 @@
       </c>
       <c r="B42" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.464545809134911E+18</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
@@ -3133,7 +3171,7 @@
       </c>
       <c r="B43" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.6476140352767747E+18</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
@@ -3142,7 +3180,7 @@
       </c>
       <c r="B44" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.8083568679867052E+18</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
@@ -3151,7 +3189,7 @@
       </c>
       <c r="B45" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.9375252157000402E+18</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
@@ -3160,7 +3198,7 @@
       </c>
       <c r="B46" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.0276426675930652E+18</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
@@ -3169,7 +3207,7 @@
       </c>
       <c r="B47" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.0737254554929075E+18</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
@@ -3178,7 +3216,7 @@
       </c>
       <c r="B48" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.0737254554929078E+18</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
@@ -3187,7 +3225,7 @@
       </c>
       <c r="B49" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.0286444673300186E+18</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
@@ -3196,7 +3234,7 @@
       </c>
       <c r="B50" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.9423191708478899E+18</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
@@ -16020,7 +16058,7 @@
         <v>1472</v>
       </c>
       <c r="B1475" s="3">
-        <f t="shared" ref="B1475:B1538" si="23">IF(A1475&gt;nAgents-1,0,trafficIntensity^A1475/FACT(A1475))</f>
+        <f t="shared" ref="B1475:B1503" si="23">IF(A1475&gt;nAgents-1,0,trafficIntensity^A1475/FACT(A1475))</f>
         <v>0</v>
       </c>
     </row>

--- a/poolSizing.xlsx
+++ b/poolSizing.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <workbookProtection lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="12600" yWindow="460" windowWidth="40240" windowHeight="27200" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19400" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="calculations" sheetId="1" r:id="rId1"/>
@@ -186,41 +186,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">MUST BE &lt; 1.0
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 1 results in blocking)</t>
-    </r>
-  </si>
-  <si>
     <t>average wait-time</t>
   </si>
   <si>
@@ -251,14 +216,48 @@
   <si>
     <t>data-ranges for tables below (not used elsewhere):</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">MUST BE &lt; 100%
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 100 results in blocking)</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="20" x14ac:knownFonts="1">
     <font>
@@ -438,7 +437,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -566,62 +565,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="hair">
         <color auto="1"/>
       </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right/>
       <top style="hair">
         <color auto="1"/>
       </top>
@@ -643,12 +590,381 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="dotted">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="dotted">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="dotted">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="dotted">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="dotted">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="dotted">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="dotted">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="dotted">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right/>
+      <top style="dotted">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="dotted">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="dotted">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="dotted">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="dotted">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="dotted">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right/>
+      <top style="dotted">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="dotted">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right style="dotted">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="dotted">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top style="dotted">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="dotted">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right style="dotted">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top style="dotted">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="dotted">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right/>
+      <top style="dotted">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="dotted">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="dotted">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top style="dotted">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right style="dotted">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top style="dotted">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right/>
+      <top style="dotted">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -681,19 +997,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -711,31 +1015,29 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="9" fontId="0" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
@@ -757,15 +1059,100 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="6" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="6" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="6" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="6" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="6" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="6" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="6" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="6" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="6" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1053,7 +1440,7 @@
   <dimension ref="A1:P48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1068,58 +1455,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="24" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="32" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
-        <v>23</v>
+      <c r="A2" s="33" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F3" s="45" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="47"/>
+      <c r="F3" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="41"/>
     </row>
     <row r="4" spans="1:16" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="32">
-        <v>450</v>
+      <c r="B4" s="28">
+        <f>2000/8</f>
+        <v>250</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="42" t="s">
+      <c r="F4" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="36">
+      <c r="G4" s="31">
         <v>200</v>
       </c>
-      <c r="H4" s="36">
-        <v>400</v>
-      </c>
-      <c r="I4" s="25">
+      <c r="H4" s="31">
+        <v>300</v>
+      </c>
+      <c r="I4" s="21">
         <f>ROUNDUP((maxTXRate-minTXRate)/9,0)</f>
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="33">
-        <v>100</v>
+      <c r="B5" s="29">
+        <v>120</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="43"/>
+      <c r="F5" s="37"/>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
       <c r="I5" s="13"/>
@@ -1128,22 +1516,22 @@
       <c r="A6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="34">
-        <v>48</v>
+      <c r="B6" s="30">
+        <v>45</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="44"/>
-      <c r="G6" s="37">
-        <v>20</v>
-      </c>
-      <c r="H6" s="37">
-        <v>60</v>
-      </c>
-      <c r="I6" s="26">
+      <c r="F6" s="38"/>
+      <c r="G6" s="32">
+        <v>30</v>
+      </c>
+      <c r="H6" s="32">
+        <v>50</v>
+      </c>
+      <c r="I6" s="22">
         <f>ROUNDUP((maxPoolsize-minPoolsize)/9,0)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="17" thickTop="1" x14ac:dyDescent="0.2">
@@ -1152,35 +1540,35 @@
       </c>
       <c r="B7" s="4">
         <f>lambda*(Ts/1000)</f>
-        <v>45</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="44" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="73">
         <f>trafficIntensity/nAgents</f>
-        <v>0.9375</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="49" t="s">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="49"/>
-      <c r="K8" s="49"/>
-      <c r="L8" s="49"/>
-      <c r="M8" s="49"/>
-      <c r="N8" s="49"/>
-      <c r="O8" s="49"/>
-      <c r="P8" s="49"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="42"/>
+      <c r="L8" s="42"/>
+      <c r="M8" s="42"/>
+      <c r="N8" s="42"/>
+      <c r="O8" s="42"/>
+      <c r="P8" s="42"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D9" s="5"/>
@@ -1202,7 +1590,7 @@
       <c r="D10" s="5"/>
       <c r="E10" s="14">
         <f>B12</f>
-        <v>0.56078036613422588</v>
+        <v>6.9285584512171917E-3</v>
       </c>
       <c r="F10" s="15">
         <f>minTXRate</f>
@@ -1210,85 +1598,85 @@
       </c>
       <c r="G10" s="15">
         <f>F10+$I$4</f>
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="H10" s="15">
         <f t="shared" ref="H10:P10" si="0">G10+$I$4</f>
-        <v>246</v>
+        <v>224</v>
       </c>
       <c r="I10" s="15">
         <f t="shared" si="0"/>
-        <v>269</v>
+        <v>236</v>
       </c>
       <c r="J10" s="15">
         <f t="shared" si="0"/>
-        <v>292</v>
+        <v>248</v>
       </c>
       <c r="K10" s="15">
         <f t="shared" si="0"/>
-        <v>315</v>
+        <v>260</v>
       </c>
       <c r="L10" s="15">
         <f t="shared" si="0"/>
-        <v>338</v>
+        <v>272</v>
       </c>
       <c r="M10" s="15">
         <f t="shared" si="0"/>
-        <v>361</v>
+        <v>284</v>
       </c>
       <c r="N10" s="15">
         <f t="shared" si="0"/>
-        <v>384</v>
+        <v>296</v>
       </c>
       <c r="O10" s="15">
         <f t="shared" si="0"/>
-        <v>407</v>
+        <v>308</v>
       </c>
       <c r="P10" s="16">
         <f t="shared" si="0"/>
-        <v>430</v>
+        <v>320</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D11" s="41" t="s">
+      <c r="D11" s="35" t="s">
         <v>13</v>
       </c>
       <c r="E11" s="17">
         <f>minPoolsize</f>
-        <v>20</v>
-      </c>
-      <c r="F11" s="19" t="str">
-        <f t="dataTable" ref="F11:P20" dt2D="1" dtr="1" r1="B4" r2="B6"/>
+        <v>30</v>
+      </c>
+      <c r="F11" s="46">
+        <f t="dataTable" ref="F11:P20" dt2D="1" dtr="1" r1="B4" r2="B6" ca="1"/>
+        <v>0.17286205549683795</v>
+      </c>
+      <c r="G11" s="47">
+        <v>0.29051942971942213</v>
+      </c>
+      <c r="H11" s="47">
+        <v>0.45534176422178113</v>
+      </c>
+      <c r="I11" s="47">
+        <v>0.6733251615894198</v>
+      </c>
+      <c r="J11" s="47">
+        <v>0.94842894612011164</v>
+      </c>
+      <c r="K11" s="47" t="str">
         <v xml:space="preserve"> </v>
       </c>
-      <c r="G11" s="19" t="str">
+      <c r="L11" s="47" t="str">
         <v xml:space="preserve"> </v>
       </c>
-      <c r="H11" s="19" t="str">
+      <c r="M11" s="47" t="str">
         <v xml:space="preserve"> </v>
       </c>
-      <c r="I11" s="19" t="str">
+      <c r="N11" s="47" t="str">
         <v xml:space="preserve"> </v>
       </c>
-      <c r="J11" s="19" t="str">
+      <c r="O11" s="47" t="str">
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K11" s="19" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="L11" s="19" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="M11" s="19" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="N11" s="19" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="O11" s="19" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="P11" s="20" t="str">
+      <c r="P11" s="48" t="str">
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -1298,416 +1686,416 @@
       </c>
       <c r="B12" s="11">
         <f>IF(agentOccupancy&lt;1,workingData!G3/(workingData!G3+(1-agentOccupancy)*SUM(workingData!B3:B1503)),blankOutput)</f>
-        <v>0.56078036613422588</v>
-      </c>
-      <c r="D12" s="41"/>
+        <v>6.9285584512171917E-3</v>
+      </c>
+      <c r="D12" s="35"/>
       <c r="E12" s="17">
         <f>E11+$I$6</f>
-        <v>25</v>
-      </c>
-      <c r="F12" s="19">
-        <v>0.20910282659883672</v>
-      </c>
-      <c r="G12" s="19">
-        <v>0.4772644718669079</v>
-      </c>
-      <c r="H12" s="19">
-        <v>0.90742296550872859</v>
-      </c>
-      <c r="I12" s="19" t="str">
+        <v>33</v>
+      </c>
+      <c r="F12" s="49">
+        <v>5.564128877741388E-2</v>
+      </c>
+      <c r="G12" s="50">
+        <v>0.10587999050897405</v>
+      </c>
+      <c r="H12" s="50">
+        <v>0.18496048747155661</v>
+      </c>
+      <c r="I12" s="50">
+        <v>0.30055067820926251</v>
+      </c>
+      <c r="J12" s="50">
+        <v>0.45940749026595712</v>
+      </c>
+      <c r="K12" s="50">
+        <v>0.66686414337554567</v>
+      </c>
+      <c r="L12" s="50">
+        <v>0.92661416147363374</v>
+      </c>
+      <c r="M12" s="50" t="str">
         <v xml:space="preserve"> </v>
       </c>
-      <c r="J12" s="19" t="str">
+      <c r="N12" s="50" t="str">
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K12" s="19" t="str">
+      <c r="O12" s="50" t="str">
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L12" s="19" t="str">
+      <c r="P12" s="51" t="str">
         <v xml:space="preserve"> </v>
       </c>
-      <c r="M12" s="19" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="N12" s="19" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="O12" s="19" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="P12" s="20" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D13" s="41"/>
+      <c r="D13" s="35"/>
       <c r="E13" s="17">
         <f t="shared" ref="E13:E20" si="1">E12+$I$6</f>
-        <v>30</v>
-      </c>
-      <c r="F13" s="19">
-        <v>2.4950458104571093E-2</v>
-      </c>
-      <c r="G13" s="19">
-        <v>8.3975337705633937E-2</v>
-      </c>
-      <c r="H13" s="19">
-        <v>0.21661839133882579</v>
-      </c>
-      <c r="I13" s="19">
-        <v>0.45799373374160374</v>
-      </c>
-      <c r="J13" s="19">
-        <v>0.83448814316611775</v>
-      </c>
-      <c r="K13" s="19" t="str">
+        <v>36</v>
+      </c>
+      <c r="F13" s="49">
+        <v>1.4804600354918847E-2</v>
+      </c>
+      <c r="G13" s="50">
+        <v>3.2379695931010873E-2</v>
+      </c>
+      <c r="H13" s="50">
+        <v>6.4031315488557602E-2</v>
+      </c>
+      <c r="I13" s="50">
+        <v>0.11612221011927081</v>
+      </c>
+      <c r="J13" s="50">
+        <v>0.19552034467647747</v>
+      </c>
+      <c r="K13" s="50">
+        <v>0.30893136455744447</v>
+      </c>
+      <c r="L13" s="50">
+        <v>0.46230655028812795</v>
+      </c>
+      <c r="M13" s="50">
+        <v>0.66043829274974886</v>
+      </c>
+      <c r="N13" s="50">
+        <v>0.90677482147485333</v>
+      </c>
+      <c r="O13" s="50" t="str">
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L13" s="19" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="M13" s="19" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="N13" s="19" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="O13" s="19" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="P13" s="20" t="str">
+      <c r="P13" s="51" t="str">
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B14" s="4">
         <f>IF(ISNUMBER(B12),B12,"")</f>
-        <v>0.56078036613422588</v>
-      </c>
-      <c r="D14" s="41"/>
+        <v>6.9285584512171917E-3</v>
+      </c>
+      <c r="D14" s="35"/>
       <c r="E14" s="17">
         <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-      <c r="F14" s="19">
-        <v>1.5990295983770251E-3</v>
-      </c>
-      <c r="G14" s="19">
-        <v>8.5422317702378084E-3</v>
-      </c>
-      <c r="H14" s="19">
-        <v>3.2351842195111447E-2</v>
-      </c>
-      <c r="I14" s="19">
-        <v>9.3680566428440512E-2</v>
-      </c>
-      <c r="J14" s="19">
-        <v>0.22008693306107796</v>
-      </c>
-      <c r="K14" s="19">
-        <v>0.43963314258908348</v>
-      </c>
-      <c r="L14" s="19">
-        <v>0.7745923772506379</v>
-      </c>
-      <c r="M14" s="19" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="N14" s="19" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="O14" s="19" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="P14" s="20" t="str">
-        <v xml:space="preserve"> </v>
+        <v>39</v>
+      </c>
+      <c r="F14" s="49">
+        <v>3.2392643877217075E-3</v>
+      </c>
+      <c r="G14" s="50">
+        <v>8.2334867743378386E-3</v>
+      </c>
+      <c r="H14" s="50">
+        <v>1.8659473219364668E-2</v>
+      </c>
+      <c r="I14" s="50">
+        <v>3.8266574922394818E-2</v>
+      </c>
+      <c r="J14" s="50">
+        <v>7.1941395200616376E-2</v>
+      </c>
+      <c r="K14" s="50">
+        <v>0.125412610733833</v>
+      </c>
+      <c r="L14" s="50">
+        <v>0.2047772772912326</v>
+      </c>
+      <c r="M14" s="50">
+        <v>0.31596904047244811</v>
+      </c>
+      <c r="N14" s="50">
+        <v>0.46428947474723986</v>
+      </c>
+      <c r="O14" s="50">
+        <v>0.65408167736165279</v>
+      </c>
+      <c r="P14" s="51">
+        <v>0.88857002059684231</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D15" s="41"/>
+      <c r="D15" s="35"/>
       <c r="E15" s="17">
         <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="F15" s="19">
-        <v>5.555128324509363E-5</v>
-      </c>
-      <c r="G15" s="19">
-        <v>4.8961760393102923E-4</v>
-      </c>
-      <c r="H15" s="19">
-        <v>2.8612565737221036E-3</v>
-      </c>
-      <c r="I15" s="19">
-        <v>1.2026744686616341E-2</v>
-      </c>
-      <c r="J15" s="19">
-        <v>3.875721623660433E-2</v>
-      </c>
-      <c r="K15" s="19">
-        <v>0.1008325068422956</v>
-      </c>
-      <c r="L15" s="19">
-        <v>0.22096076230782069</v>
-      </c>
-      <c r="M15" s="19">
-        <v>0.42228479427927557</v>
-      </c>
-      <c r="N15" s="19">
-        <v>0.72395479172397836</v>
-      </c>
-      <c r="O15" s="19" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="P15" s="20" t="str">
-        <v xml:space="preserve"> </v>
+        <v>42</v>
+      </c>
+      <c r="F15" s="49">
+        <v>5.8356345764607506E-4</v>
+      </c>
+      <c r="G15" s="50">
+        <v>1.7366949680388401E-3</v>
+      </c>
+      <c r="H15" s="50">
+        <v>4.5503129394369353E-3</v>
+      </c>
+      <c r="I15" s="50">
+        <v>1.0658434665809352E-2</v>
+      </c>
+      <c r="J15" s="50">
+        <v>2.2620460251931537E-2</v>
+      </c>
+      <c r="K15" s="50">
+        <v>4.4016358545191044E-2</v>
+      </c>
+      <c r="L15" s="50">
+        <v>7.9362707425727513E-2</v>
+      </c>
+      <c r="M15" s="50">
+        <v>0.13384505274231781</v>
+      </c>
+      <c r="N15" s="50">
+        <v>0.21292303111811373</v>
+      </c>
+      <c r="O15" s="50">
+        <v>0.32189951978588094</v>
+      </c>
+      <c r="P15" s="51">
+        <v>0.46554222377202115</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="26">
+        <f>IF(agentOccupancy&lt;1,B12*Ts/(nAgents*(1-agentOccupancy)),blankOutput)</f>
+        <v>5.5428467609737526E-2</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="30">
-        <f>IF(agentOccupancy&lt;1,B12*Ts/(nAgents*(1-agentOccupancy)),blankOutput)</f>
-        <v>18.692678871140863</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="41"/>
+      <c r="D16" s="35"/>
       <c r="E16" s="17">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="F16" s="19">
-        <v>1.0912413077033546E-6</v>
-      </c>
-      <c r="G16" s="19">
-        <v>1.6155723971700627E-5</v>
-      </c>
-      <c r="H16" s="19">
-        <v>1.493491879880658E-4</v>
-      </c>
-      <c r="I16" s="19">
-        <v>9.4194719610785581E-4</v>
-      </c>
-      <c r="J16" s="19">
-        <v>4.339202576353232E-3</v>
-      </c>
-      <c r="K16" s="19">
-        <v>1.541644379717721E-2</v>
-      </c>
-      <c r="L16" s="19">
-        <v>4.4178550133639569E-2</v>
-      </c>
-      <c r="M16" s="19">
-        <v>0.10604006603894411</v>
-      </c>
-      <c r="N16" s="19">
-        <v>0.22011456912269386</v>
-      </c>
-      <c r="O16" s="19">
-        <v>0.40593920359706021</v>
-      </c>
-      <c r="P16" s="20">
-        <v>0.68021960762490419</v>
+      <c r="F16" s="49">
+        <v>8.7019772322866808E-5</v>
+      </c>
+      <c r="G16" s="50">
+        <v>3.046792007614522E-4</v>
+      </c>
+      <c r="H16" s="50">
+        <v>9.2831971637529246E-4</v>
+      </c>
+      <c r="I16" s="50">
+        <v>2.5009037615568884E-3</v>
+      </c>
+      <c r="J16" s="50">
+        <v>6.0401781664116711E-3</v>
+      </c>
+      <c r="K16" s="50">
+        <v>1.3238708467015543E-2</v>
+      </c>
+      <c r="L16" s="50">
+        <v>2.6619097894256219E-2</v>
+      </c>
+      <c r="M16" s="50">
+        <v>4.9581438323375256E-2</v>
+      </c>
+      <c r="N16" s="50">
+        <v>8.6304603677583469E-2</v>
+      </c>
+      <c r="O16" s="50">
+        <v>0.14150696846343258</v>
+      </c>
+      <c r="P16" s="51">
+        <v>0.22011456912269334</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="35">
-        <v>10</v>
+      <c r="A17" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="45">
+        <v>15</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="41"/>
+        <v>16</v>
+      </c>
+      <c r="D17" s="35"/>
       <c r="E17" s="17">
         <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-      <c r="F17" s="19">
-        <v>1.2716980992451662E-8</v>
-      </c>
-      <c r="G17" s="19">
-        <v>3.190741089949053E-7</v>
-      </c>
-      <c r="H17" s="19">
-        <v>4.7225052255523467E-6</v>
-      </c>
-      <c r="I17" s="19">
-        <v>4.5433348287898864E-5</v>
-      </c>
-      <c r="J17" s="19">
-        <v>3.0589203648122314E-4</v>
-      </c>
-      <c r="K17" s="19">
-        <v>1.5273110123875055E-3</v>
-      </c>
-      <c r="L17" s="19">
-        <v>5.9268078870804717E-3</v>
-      </c>
-      <c r="M17" s="19">
-        <v>1.8587020008481885E-2</v>
-      </c>
-      <c r="N17" s="19">
-        <v>4.8704094278205406E-2</v>
-      </c>
-      <c r="O17" s="19">
-        <v>0.10975412141794083</v>
-      </c>
-      <c r="P17" s="20">
-        <v>0.21810320145341128</v>
+        <v>48</v>
+      </c>
+      <c r="F17" s="49">
+        <v>1.0819148313994533E-5</v>
+      </c>
+      <c r="G17" s="50">
+        <v>4.4705612027718171E-5</v>
+      </c>
+      <c r="H17" s="50">
+        <v>1.5900255389502511E-4</v>
+      </c>
+      <c r="I17" s="50">
+        <v>4.9493811709904812E-4</v>
+      </c>
+      <c r="J17" s="50">
+        <v>1.3678638286196711E-3</v>
+      </c>
+      <c r="K17" s="50">
+        <v>3.3988620327987311E-3</v>
+      </c>
+      <c r="L17" s="50">
+        <v>7.677982542518497E-3</v>
+      </c>
+      <c r="M17" s="50">
+        <v>1.5925701072582277E-2</v>
+      </c>
+      <c r="N17" s="50">
+        <v>3.0604307351953318E-2</v>
+      </c>
+      <c r="O17" s="50">
+        <v>5.4933434730819838E-2</v>
+      </c>
+      <c r="P17" s="51">
+        <v>9.2786383995466071E-2</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="31">
+      <c r="A18" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="27">
         <f>IF(agentOccupancy&lt;1,B12*EXP(-(nAgents-trafficIntensity)*B17/Ts),blankOutput)</f>
-        <v>0.41543631303279949</v>
-      </c>
-      <c r="D18" s="41"/>
+        <v>1.0625288515695615E-3</v>
+      </c>
+      <c r="D18" s="35"/>
       <c r="E18" s="17">
         <f t="shared" si="1"/>
-        <v>55</v>
-      </c>
-      <c r="F18" s="19">
-        <v>9.1912389630591574E-11</v>
-      </c>
-      <c r="G18" s="19">
-        <v>3.9276677874018478E-9</v>
-      </c>
-      <c r="H18" s="19">
-        <v>9.3668815781895671E-8</v>
-      </c>
-      <c r="I18" s="19">
-        <v>1.3862114355230615E-6</v>
-      </c>
-      <c r="J18" s="19">
-        <v>1.379494595310726E-5</v>
-      </c>
-      <c r="K18" s="19">
-        <v>9.8268958812330111E-5</v>
-      </c>
-      <c r="L18" s="19">
-        <v>5.2674119922268149E-4</v>
-      </c>
-      <c r="M18" s="19">
-        <v>2.2131516312042746E-3</v>
-      </c>
-      <c r="N18" s="19">
-        <v>7.5432198171681572E-3</v>
-      </c>
-      <c r="O18" s="19">
-        <v>2.148033677121303E-2</v>
-      </c>
-      <c r="P18" s="20">
-        <v>5.2442583076398271E-2</v>
+        <v>51</v>
+      </c>
+      <c r="F18" s="49">
+        <v>1.1304910037100153E-6</v>
+      </c>
+      <c r="G18" s="50">
+        <v>5.5243989313859375E-6</v>
+      </c>
+      <c r="H18" s="50">
+        <v>2.2993455246466096E-5</v>
+      </c>
+      <c r="I18" s="50">
+        <v>8.2949998515341979E-5</v>
+      </c>
+      <c r="J18" s="50">
+        <v>2.6329336631468925E-4</v>
+      </c>
+      <c r="K18" s="50">
+        <v>7.449650155346171E-4</v>
+      </c>
+      <c r="L18" s="50">
+        <v>1.900538499541982E-3</v>
+      </c>
+      <c r="M18" s="50">
+        <v>4.4165072905999704E-3</v>
+      </c>
+      <c r="N18" s="50">
+        <v>9.4342574061415142E-3</v>
+      </c>
+      <c r="O18" s="50">
+        <v>1.8679113890142263E-2</v>
+      </c>
+      <c r="P18" s="51">
+        <v>3.4538646376627839E-2</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D19" s="41"/>
+      <c r="D19" s="35"/>
       <c r="E19" s="17">
         <f t="shared" si="1"/>
-        <v>60</v>
-      </c>
-      <c r="F19" s="19">
-        <v>4.2837736137740578E-13</v>
-      </c>
-      <c r="G19" s="19">
-        <v>3.127230457507609E-11</v>
-      </c>
-      <c r="H19" s="19">
-        <v>1.2062444005562334E-9</v>
-      </c>
-      <c r="I19" s="19">
-        <v>2.7590758755729037E-8</v>
-      </c>
-      <c r="J19" s="19">
-        <v>4.0831740717818424E-7</v>
-      </c>
-      <c r="K19" s="19">
-        <v>4.1830063766980998E-6</v>
-      </c>
-      <c r="L19" s="19">
-        <v>3.1298466971816891E-5</v>
-      </c>
-      <c r="M19" s="19">
-        <v>1.7863878593497593E-4</v>
-      </c>
-      <c r="N19" s="19">
-        <v>8.0624140063992843E-4</v>
-      </c>
-      <c r="O19" s="19">
-        <v>2.9661424735615725E-3</v>
-      </c>
-      <c r="P19" s="20">
-        <v>9.1317923589707382E-3</v>
+        <v>54</v>
+      </c>
+      <c r="F19" s="49">
+        <v>1.0006771181849222E-7</v>
+      </c>
+      <c r="G19" s="50">
+        <v>5.7914816573626095E-7</v>
+      </c>
+      <c r="H19" s="50">
+        <v>2.8257297017272671E-6</v>
+      </c>
+      <c r="I19" s="50">
+        <v>1.1838488238808247E-5</v>
+      </c>
+      <c r="J19" s="50">
+        <v>4.3262995198726955E-5</v>
+      </c>
+      <c r="K19" s="50">
+        <v>1.3979708018670273E-4</v>
+      </c>
+      <c r="L19" s="50">
+        <v>4.0420391475118165E-4</v>
+      </c>
+      <c r="M19" s="50">
+        <v>1.0567616928411144E-3</v>
+      </c>
+      <c r="N19" s="50">
+        <v>2.5216617474844234E-3</v>
+      </c>
+      <c r="O19" s="50">
+        <v>5.5384056237171124E-3</v>
+      </c>
+      <c r="P19" s="51">
+        <v>1.1282175235846077E-2</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" s="41"/>
+        <v>21</v>
+      </c>
+      <c r="D20" s="35"/>
       <c r="E20" s="18">
         <f t="shared" si="1"/>
-        <v>65</v>
-      </c>
-      <c r="F20" s="21">
-        <v>1.3317744201156071E-15</v>
-      </c>
-      <c r="G20" s="21">
-        <v>1.6641956379001557E-13</v>
-      </c>
-      <c r="H20" s="21">
-        <v>1.0407332848813162E-11</v>
-      </c>
-      <c r="I20" s="21">
-        <v>3.6900713527970059E-10</v>
-      </c>
-      <c r="J20" s="21">
-        <v>8.1505431039483345E-9</v>
-      </c>
-      <c r="K20" s="21">
-        <v>1.2062799537441127E-7</v>
-      </c>
-      <c r="L20" s="21">
-        <v>1.2672448104726033E-6</v>
-      </c>
-      <c r="M20" s="21">
-        <v>9.899708929222402E-6</v>
-      </c>
-      <c r="N20" s="21">
-        <v>5.9747777295797676E-5</v>
-      </c>
-      <c r="O20" s="21">
-        <v>2.8762124766296154E-4</v>
-      </c>
-      <c r="P20" s="22">
-        <v>1.1347832251269658E-3</v>
+        <v>57</v>
+      </c>
+      <c r="F20" s="52">
+        <v>7.5611966597917005E-9</v>
+      </c>
+      <c r="G20" s="53">
+        <v>5.1882123702252786E-8</v>
+      </c>
+      <c r="H20" s="53">
+        <v>2.9710412877355811E-7</v>
+      </c>
+      <c r="I20" s="53">
+        <v>1.4475966260369098E-6</v>
+      </c>
+      <c r="J20" s="53">
+        <v>6.1009450894562525E-6</v>
+      </c>
+      <c r="K20" s="53">
+        <v>2.2559796885017631E-5</v>
+      </c>
+      <c r="L20" s="53">
+        <v>7.4103573562921067E-5</v>
+      </c>
+      <c r="M20" s="53">
+        <v>2.1859087966976743E-4</v>
+      </c>
+      <c r="N20" s="53">
+        <v>5.8465524007639692E-4</v>
+      </c>
+      <c r="O20" s="53">
+        <v>1.4301672561636755E-3</v>
+      </c>
+      <c r="P20" s="54">
+        <v>3.2245801577561748E-3</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D22" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22" s="50"/>
-      <c r="F22" s="50"/>
-      <c r="G22" s="50"/>
-      <c r="H22" s="50"/>
-      <c r="I22" s="50"/>
-      <c r="J22" s="50"/>
-      <c r="K22" s="50"/>
-      <c r="L22" s="50"/>
-      <c r="M22" s="50"/>
-      <c r="N22" s="50"/>
-      <c r="O22" s="50"/>
-      <c r="P22" s="50"/>
+      <c r="D22" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="44"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="44"/>
+      <c r="J22" s="44"/>
+      <c r="K22" s="44"/>
+      <c r="L22" s="44"/>
+      <c r="M22" s="44"/>
+      <c r="N22" s="44"/>
+      <c r="O22" s="44"/>
+      <c r="P22" s="44"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="F23" s="7" t="s">
@@ -1728,7 +2116,7 @@
       <c r="D24" s="5"/>
       <c r="E24" s="14">
         <f>B16</f>
-        <v>18.692678871140863</v>
+        <v>5.5428467609737526E-2</v>
       </c>
       <c r="F24" s="15">
         <f>minTXRate</f>
@@ -1736,469 +2124,469 @@
       </c>
       <c r="G24" s="15">
         <f>F24+$I$4</f>
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="H24" s="15">
         <f t="shared" ref="H24:P24" si="2">G24+$I$4</f>
-        <v>246</v>
+        <v>224</v>
       </c>
       <c r="I24" s="15">
         <f t="shared" si="2"/>
-        <v>269</v>
+        <v>236</v>
       </c>
       <c r="J24" s="15">
         <f t="shared" si="2"/>
-        <v>292</v>
+        <v>248</v>
       </c>
       <c r="K24" s="15">
         <f t="shared" si="2"/>
-        <v>315</v>
+        <v>260</v>
       </c>
       <c r="L24" s="15">
         <f t="shared" si="2"/>
-        <v>338</v>
+        <v>272</v>
       </c>
       <c r="M24" s="15">
         <f t="shared" si="2"/>
-        <v>361</v>
+        <v>284</v>
       </c>
       <c r="N24" s="15">
         <f t="shared" si="2"/>
-        <v>384</v>
+        <v>296</v>
       </c>
       <c r="O24" s="15">
         <f t="shared" si="2"/>
-        <v>407</v>
+        <v>308</v>
       </c>
       <c r="P24" s="16">
         <f t="shared" si="2"/>
-        <v>430</v>
+        <v>320</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B25" s="24"/>
-      <c r="D25" s="41" t="s">
+      <c r="B25" s="20"/>
+      <c r="D25" s="35" t="s">
         <v>13</v>
       </c>
       <c r="E25" s="17">
         <f>minPoolsize</f>
-        <v>20</v>
-      </c>
-      <c r="F25" s="40" t="str">
-        <f t="dataTable" ref="F25:P34" dt2D="1" dtr="1" r1="B4" r2="B6" ca="1"/>
+        <v>30</v>
+      </c>
+      <c r="F25" s="64">
+        <f t="dataTable" ref="F25:P34" dt2D="1" dtr="1" r1="B4" r2="B6"/>
+        <v>3.4572411099367599</v>
+      </c>
+      <c r="G25" s="65">
+        <v>7.6452481505111072</v>
+      </c>
+      <c r="H25" s="65">
+        <v>17.513144777760818</v>
+      </c>
+      <c r="I25" s="65">
+        <v>48.094654399244327</v>
+      </c>
+      <c r="J25" s="65">
+        <v>474.21447306004882</v>
+      </c>
+      <c r="K25" s="65" t="str">
         <v xml:space="preserve"> </v>
       </c>
-      <c r="G25" s="40" t="str">
+      <c r="L25" s="65" t="str">
         <v xml:space="preserve"> </v>
       </c>
-      <c r="H25" s="40" t="str">
+      <c r="M25" s="65" t="str">
         <v xml:space="preserve"> </v>
       </c>
-      <c r="I25" s="40" t="str">
+      <c r="N25" s="65" t="str">
         <v xml:space="preserve"> </v>
       </c>
-      <c r="J25" s="40" t="str">
+      <c r="O25" s="65" t="str">
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K25" s="40" t="str">
+      <c r="P25" s="66" t="str">
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L25" s="40" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="M25" s="40" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="N25" s="40" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="O25" s="40" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="P25" s="40" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D26" s="41"/>
+      <c r="D26" s="35"/>
       <c r="E26" s="17">
         <f>E25+$I$6</f>
-        <v>25</v>
-      </c>
-      <c r="F26" s="40">
-        <v>4.1820565319767358</v>
-      </c>
-      <c r="G26" s="40">
-        <v>17.676461920996591</v>
-      </c>
-      <c r="H26" s="40">
-        <v>226.85574137718353</v>
-      </c>
-      <c r="I26" s="40" t="str">
+        <v>33</v>
+      </c>
+      <c r="F26" s="67">
+        <v>0.7418838503655184</v>
+      </c>
+      <c r="G26" s="68">
+        <v>1.6806347699837147</v>
+      </c>
+      <c r="H26" s="68">
+        <v>3.6266762249324809</v>
+      </c>
+      <c r="I26" s="68">
+        <v>7.7064276463913455</v>
+      </c>
+      <c r="J26" s="68">
+        <v>17.015092232072472</v>
+      </c>
+      <c r="K26" s="68">
+        <v>44.45760955836969</v>
+      </c>
+      <c r="L26" s="68">
+        <v>308.8713871578791</v>
+      </c>
+      <c r="M26" s="68" t="str">
         <v xml:space="preserve"> </v>
       </c>
-      <c r="J26" s="40" t="str">
+      <c r="N26" s="68" t="str">
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K26" s="40" t="str">
+      <c r="O26" s="68" t="str">
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L26" s="40" t="str">
+      <c r="P26" s="69" t="str">
         <v xml:space="preserve"> </v>
       </c>
-      <c r="M26" s="40" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="N26" s="40" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="O26" s="40" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="P26" s="40" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D27" s="41"/>
+      <c r="D27" s="35"/>
       <c r="E27" s="17">
         <f t="shared" ref="E27:E34" si="3">E26+$I$6</f>
-        <v>30</v>
-      </c>
-      <c r="F27" s="40">
-        <v>0.24950458104571088</v>
-      </c>
-      <c r="G27" s="40">
-        <v>1.0905888013718696</v>
-      </c>
-      <c r="H27" s="40">
-        <v>4.0114516914597385</v>
-      </c>
-      <c r="I27" s="40">
-        <v>14.773991411019484</v>
-      </c>
-      <c r="J27" s="40">
-        <v>104.31101789576492</v>
-      </c>
-      <c r="K27" s="40" t="str">
+        <v>36</v>
+      </c>
+      <c r="F27" s="67">
+        <v>0.14804600354918845</v>
+      </c>
+      <c r="G27" s="68">
+        <v>0.36795109012512339</v>
+      </c>
+      <c r="H27" s="68">
+        <v>0.84251730905996824</v>
+      </c>
+      <c r="I27" s="68">
+        <v>1.8144095331136061</v>
+      </c>
+      <c r="J27" s="68">
+        <v>3.7600066283937976</v>
+      </c>
+      <c r="K27" s="68">
+        <v>7.7232841139361144</v>
+      </c>
+      <c r="L27" s="68">
+        <v>16.510948224576008</v>
+      </c>
+      <c r="M27" s="68">
+        <v>41.277393296859294</v>
+      </c>
+      <c r="N27" s="68">
+        <v>226.69370536871187</v>
+      </c>
+      <c r="O27" s="68" t="str">
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L27" s="40" t="str">
+      <c r="P27" s="69" t="str">
         <v xml:space="preserve"> </v>
       </c>
-      <c r="M27" s="40" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="N27" s="40" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="O27" s="40" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="P27" s="40" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D28" s="41"/>
+      <c r="D28" s="35"/>
       <c r="E28" s="17">
         <f t="shared" si="3"/>
-        <v>35</v>
-      </c>
-      <c r="F28" s="40">
-        <v>1.0660197322513498E-2</v>
-      </c>
-      <c r="G28" s="40">
-        <v>6.7261667482187454E-2</v>
-      </c>
-      <c r="H28" s="40">
-        <v>0.31107540572222542</v>
-      </c>
-      <c r="I28" s="40">
-        <v>1.1565502028202537</v>
-      </c>
-      <c r="J28" s="40">
-        <v>3.7946022941565194</v>
-      </c>
-      <c r="K28" s="40">
-        <v>12.560946931116675</v>
-      </c>
-      <c r="L28" s="40">
-        <v>64.549364770886768</v>
-      </c>
-      <c r="M28" s="40" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="N28" s="40" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="O28" s="40" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="P28" s="40" t="str">
-        <v xml:space="preserve"> </v>
+        <v>39</v>
+      </c>
+      <c r="F28" s="67">
+        <v>2.5914115101773664E-2</v>
+      </c>
+      <c r="G28" s="68">
+        <v>7.2862714817148996E-2</v>
+      </c>
+      <c r="H28" s="68">
+        <v>0.18474725959766997</v>
+      </c>
+      <c r="I28" s="68">
+        <v>0.42996151598196425</v>
+      </c>
+      <c r="J28" s="68">
+        <v>0.9343038337742382</v>
+      </c>
+      <c r="K28" s="68">
+        <v>1.9294247805205071</v>
+      </c>
+      <c r="L28" s="68">
+        <v>3.8637222130421258</v>
+      </c>
+      <c r="M28" s="68">
+        <v>7.7065619627426347</v>
+      </c>
+      <c r="N28" s="68">
+        <v>16.009981887835838</v>
+      </c>
+      <c r="O28" s="68">
+        <v>38.475392785979601</v>
+      </c>
+      <c r="P28" s="69">
+        <v>177.71400411936781</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D29" s="41"/>
+      <c r="D29" s="35"/>
       <c r="E29" s="17">
         <f t="shared" si="3"/>
-        <v>40</v>
-      </c>
-      <c r="F29" s="40">
-        <v>2.7775641622546814E-4</v>
-      </c>
-      <c r="G29" s="40">
-        <v>2.7662011521527078E-3</v>
-      </c>
-      <c r="H29" s="40">
-        <v>1.8579588141052619E-2</v>
-      </c>
-      <c r="I29" s="40">
-        <v>9.1807211348216372E-2</v>
-      </c>
-      <c r="J29" s="40">
-        <v>0.35886311330189202</v>
-      </c>
-      <c r="K29" s="40">
-        <v>1.1862647863799483</v>
-      </c>
-      <c r="L29" s="40">
-        <v>3.5638832630293678</v>
-      </c>
-      <c r="M29" s="40">
-        <v>10.827815237930151</v>
-      </c>
-      <c r="N29" s="40">
-        <v>45.247174482748861</v>
-      </c>
-      <c r="O29" s="40" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="P29" s="40" t="str">
-        <v xml:space="preserve"> </v>
+        <v>42</v>
+      </c>
+      <c r="F29" s="67">
+        <v>3.8904230509738342E-3</v>
+      </c>
+      <c r="G29" s="68">
+        <v>1.2584746145208985E-2</v>
+      </c>
+      <c r="H29" s="68">
+        <v>3.6113594757435995E-2</v>
+      </c>
+      <c r="I29" s="68">
+        <v>9.3495040928152195E-2</v>
+      </c>
+      <c r="J29" s="68">
+        <v>0.22176921815619149</v>
+      </c>
+      <c r="K29" s="68">
+        <v>0.48907065050212278</v>
+      </c>
+      <c r="L29" s="68">
+        <v>1.0174706080221476</v>
+      </c>
+      <c r="M29" s="68">
+        <v>2.0279553445805725</v>
+      </c>
+      <c r="N29" s="68">
+        <v>3.9430190947798818</v>
+      </c>
+      <c r="O29" s="68">
+        <v>7.6642742806162127</v>
+      </c>
+      <c r="P29" s="69">
+        <v>15.518074125734032</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D30" s="41"/>
+      <c r="D30" s="35"/>
       <c r="E30" s="17">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="F30" s="40">
-        <v>4.3649652308134184E-6</v>
-      </c>
-      <c r="G30" s="40">
-        <v>7.117059018370319E-5</v>
-      </c>
-      <c r="H30" s="40">
-        <v>7.3210386268659719E-4</v>
-      </c>
-      <c r="I30" s="40">
-        <v>5.204128155292022E-3</v>
-      </c>
-      <c r="J30" s="40">
-        <v>2.7463307445273626E-2</v>
-      </c>
-      <c r="K30" s="40">
-        <v>0.11419587997909043</v>
-      </c>
-      <c r="L30" s="40">
-        <v>0.39445134047892477</v>
-      </c>
-      <c r="M30" s="40">
-        <v>1.1914614161679118</v>
-      </c>
-      <c r="N30" s="40">
-        <v>3.3350692291317294</v>
-      </c>
-      <c r="O30" s="40">
-        <v>9.4404465952804735</v>
-      </c>
-      <c r="P30" s="40">
-        <v>34.010980381245247</v>
+      <c r="F30" s="67">
+        <v>4.9725584184495317E-4</v>
+      </c>
+      <c r="G30" s="68">
+        <v>1.8691975506837555E-3</v>
+      </c>
+      <c r="H30" s="68">
+        <v>6.1478126912271006E-3</v>
+      </c>
+      <c r="I30" s="68">
+        <v>1.7992113392495603E-2</v>
+      </c>
+      <c r="J30" s="68">
+        <v>4.7560458003241504E-2</v>
+      </c>
+      <c r="K30" s="68">
+        <v>0.11511920406100472</v>
+      </c>
+      <c r="L30" s="68">
+        <v>0.2584378436335556</v>
+      </c>
+      <c r="M30" s="68">
+        <v>0.54485097058654119</v>
+      </c>
+      <c r="N30" s="68">
+        <v>1.0924633376909294</v>
+      </c>
+      <c r="O30" s="68">
+        <v>2.1120443054243672</v>
+      </c>
+      <c r="P30" s="69">
+        <v>4.0020830749580592</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D31" s="41"/>
+      <c r="D31" s="35"/>
       <c r="E31" s="17">
         <f t="shared" si="3"/>
-        <v>50</v>
-      </c>
-      <c r="F31" s="40">
-        <v>4.2389936641505542E-8</v>
-      </c>
-      <c r="G31" s="40">
-        <v>1.151892090234315E-6</v>
-      </c>
-      <c r="H31" s="40">
-        <v>1.8592540258080105E-5</v>
-      </c>
-      <c r="I31" s="40">
-        <v>1.9668116141947561E-4</v>
-      </c>
-      <c r="J31" s="40">
-        <v>1.4706347907751116E-3</v>
-      </c>
-      <c r="K31" s="40">
-        <v>8.2557352020946242E-3</v>
-      </c>
-      <c r="L31" s="40">
-        <v>3.6585233870867109E-2</v>
-      </c>
-      <c r="M31" s="40">
-        <v>0.13371956840634447</v>
-      </c>
-      <c r="N31" s="40">
-        <v>0.41986288170866748</v>
-      </c>
-      <c r="O31" s="40">
-        <v>1.1801518432036651</v>
-      </c>
-      <c r="P31" s="40">
-        <v>3.1157600207630178</v>
+        <v>48</v>
+      </c>
+      <c r="F31" s="67">
+        <v>5.4095741569972661E-5</v>
+      </c>
+      <c r="G31" s="68">
+        <v>2.3779580865807538E-4</v>
+      </c>
+      <c r="H31" s="68">
+        <v>9.0342360167627888E-4</v>
+      </c>
+      <c r="I31" s="68">
+        <v>3.0179153481649278E-3</v>
+      </c>
+      <c r="J31" s="68">
+        <v>8.9991041356557305E-3</v>
+      </c>
+      <c r="K31" s="68">
+        <v>2.4277585948562368E-2</v>
+      </c>
+      <c r="L31" s="68">
+        <v>5.9984238613425764E-2</v>
+      </c>
+      <c r="M31" s="68">
+        <v>0.13729052648777823</v>
+      </c>
+      <c r="N31" s="68">
+        <v>0.2942721860764741</v>
+      </c>
+      <c r="O31" s="68">
+        <v>0.5971025514219549</v>
+      </c>
+      <c r="P31" s="69">
+        <v>1.1598297999433254</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D32" s="41"/>
+      <c r="D32" s="35"/>
       <c r="E32" s="17">
         <f t="shared" si="3"/>
-        <v>55</v>
-      </c>
-      <c r="F32" s="40">
-        <v>2.6260682751597593E-10</v>
-      </c>
-      <c r="G32" s="40">
-        <v>1.201121647523501E-8</v>
-      </c>
-      <c r="H32" s="40">
-        <v>3.0812110454570946E-7</v>
-      </c>
-      <c r="I32" s="40">
-        <v>4.9331367812208602E-6</v>
-      </c>
-      <c r="J32" s="40">
-        <v>5.3468782763981641E-5</v>
-      </c>
-      <c r="K32" s="40">
-        <v>4.1816578218012809E-4</v>
-      </c>
-      <c r="L32" s="40">
-        <v>2.4846282982201964E-3</v>
-      </c>
-      <c r="M32" s="40">
-        <v>1.1709796990498808E-2</v>
-      </c>
-      <c r="N32" s="40">
-        <v>4.5441083235952764E-2</v>
-      </c>
-      <c r="O32" s="40">
-        <v>0.15021214525323803</v>
-      </c>
-      <c r="P32" s="40">
-        <v>0.43702152563665231</v>
+        <v>51</v>
+      </c>
+      <c r="F32" s="67">
+        <v>5.0244044609334017E-6</v>
+      </c>
+      <c r="G32" s="68">
+        <v>2.593614521777435E-5</v>
+      </c>
+      <c r="H32" s="68">
+        <v>1.1439529973366216E-4</v>
+      </c>
+      <c r="I32" s="68">
+        <v>4.3888888103355548E-4</v>
+      </c>
+      <c r="J32" s="68">
+        <v>1.4875331430208431E-3</v>
+      </c>
+      <c r="K32" s="68">
+        <v>4.5149394880885877E-3</v>
+      </c>
+      <c r="L32" s="68">
+        <v>1.2421820258444329E-2</v>
+      </c>
+      <c r="M32" s="68">
+        <v>3.1322746741843759E-2</v>
+      </c>
+      <c r="N32" s="68">
+        <v>7.3133778342182279E-2</v>
+      </c>
+      <c r="O32" s="68">
+        <v>0.159650546069592</v>
+      </c>
+      <c r="P32" s="69">
+        <v>0.32893948930121747</v>
       </c>
     </row>
     <row r="33" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="D33" s="41"/>
+      <c r="D33" s="35"/>
       <c r="E33" s="17">
         <f t="shared" si="3"/>
-        <v>60</v>
-      </c>
-      <c r="F33" s="40">
-        <v>1.0709434034435143E-12</v>
-      </c>
-      <c r="G33" s="40">
-        <v>8.2950410013464445E-11</v>
-      </c>
-      <c r="H33" s="40">
-        <v>3.4074700580684562E-9</v>
-      </c>
-      <c r="I33" s="40">
-        <v>8.335576663362246E-8</v>
-      </c>
-      <c r="J33" s="40">
-        <v>1.3257058674616373E-6</v>
-      </c>
-      <c r="K33" s="40">
-        <v>1.4677215356835438E-5</v>
-      </c>
-      <c r="L33" s="40">
-        <v>1.1945979760235455E-4</v>
-      </c>
-      <c r="M33" s="40">
-        <v>7.4744261897479478E-4</v>
-      </c>
-      <c r="N33" s="40">
-        <v>3.7325990770367069E-3</v>
-      </c>
-      <c r="O33" s="40">
-        <v>1.5368613852650636E-2</v>
-      </c>
-      <c r="P33" s="40">
-        <v>5.3716425641004345E-2</v>
+        <v>54</v>
+      </c>
+      <c r="F33" s="67">
+        <v>4.0027084727396886E-7</v>
+      </c>
+      <c r="G33" s="68">
+        <v>2.4333956543540373E-6</v>
+      </c>
+      <c r="H33" s="68">
+        <v>1.2503228768704721E-5</v>
+      </c>
+      <c r="I33" s="68">
+        <v>5.5320038499103969E-5</v>
+      </c>
+      <c r="J33" s="68">
+        <v>2.1417324355805422E-4</v>
+      </c>
+      <c r="K33" s="68">
+        <v>7.3577410624580362E-4</v>
+      </c>
+      <c r="L33" s="68">
+        <v>2.2708085098380993E-3</v>
+      </c>
+      <c r="M33" s="68">
+        <v>6.36603429422358E-3</v>
+      </c>
+      <c r="N33" s="68">
+        <v>1.6374426931717031E-2</v>
+      </c>
+      <c r="O33" s="68">
+        <v>3.9002856505050081E-2</v>
+      </c>
+      <c r="P33" s="69">
+        <v>8.6785963352662143E-2</v>
       </c>
     </row>
     <row r="34" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="D34" s="41"/>
+      <c r="D34" s="35"/>
       <c r="E34" s="18">
         <f t="shared" si="3"/>
-        <v>65</v>
-      </c>
-      <c r="F34" s="40">
-        <v>2.9594987113680157E-15</v>
-      </c>
-      <c r="G34" s="40">
-        <v>3.8974136718973198E-13</v>
-      </c>
-      <c r="H34" s="40">
-        <v>2.5760724873299901E-11</v>
-      </c>
-      <c r="I34" s="40">
-        <v>9.6852266477611701E-10</v>
-      </c>
-      <c r="J34" s="40">
-        <v>2.2766880178626635E-8</v>
-      </c>
-      <c r="K34" s="40">
-        <v>3.600835682818247E-7</v>
-      </c>
-      <c r="L34" s="40">
-        <v>4.0616820848480877E-6</v>
-      </c>
-      <c r="M34" s="40">
-        <v>3.4255048198001386E-5</v>
-      </c>
-      <c r="N34" s="40">
-        <v>2.2461570411954016E-4</v>
-      </c>
-      <c r="O34" s="40">
-        <v>1.1836265335924345E-3</v>
-      </c>
-      <c r="P34" s="40">
-        <v>5.1581055687589354E-3</v>
+        <v>57</v>
+      </c>
+      <c r="F34" s="70">
+        <v>2.749526058106073E-8</v>
+      </c>
+      <c r="G34" s="71">
+        <v>1.9727043232795736E-7</v>
+      </c>
+      <c r="H34" s="71">
+        <v>1.1836817879424627E-6</v>
+      </c>
+      <c r="I34" s="71">
+        <v>6.0568896486899999E-6</v>
+      </c>
+      <c r="J34" s="71">
+        <v>2.6876410085710366E-5</v>
+      </c>
+      <c r="K34" s="71">
+        <v>1.0492928783729133E-4</v>
+      </c>
+      <c r="L34" s="71">
+        <v>3.6504223430010378E-4</v>
+      </c>
+      <c r="M34" s="71">
+        <v>1.1444548673809811E-3</v>
+      </c>
+      <c r="N34" s="71">
+        <v>3.2662303914882504E-3</v>
+      </c>
+      <c r="O34" s="71">
+        <v>8.5638757854112329E-3</v>
+      </c>
+      <c r="P34" s="72">
+        <v>2.0803742953265644E-2</v>
       </c>
     </row>
     <row r="36" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="D36" s="48" t="str">
+      <c r="D36" s="43" t="str">
         <f>CONCATENATE("probability of waiting more than ",B17," ",C17)</f>
-        <v>probability of waiting more than 10 milliseconds</v>
-      </c>
-      <c r="E36" s="48"/>
-      <c r="F36" s="48"/>
-      <c r="G36" s="48"/>
-      <c r="H36" s="48"/>
-      <c r="I36" s="48"/>
-      <c r="J36" s="48"/>
-      <c r="K36" s="48"/>
-      <c r="L36" s="48"/>
-      <c r="M36" s="48"/>
-      <c r="N36" s="48"/>
-      <c r="O36" s="48"/>
-      <c r="P36" s="48"/>
+        <v>probability of waiting more than 15 milliseconds</v>
+      </c>
+      <c r="E36" s="43"/>
+      <c r="F36" s="43"/>
+      <c r="G36" s="43"/>
+      <c r="H36" s="43"/>
+      <c r="I36" s="43"/>
+      <c r="J36" s="43"/>
+      <c r="K36" s="43"/>
+      <c r="L36" s="43"/>
+      <c r="M36" s="43"/>
+      <c r="N36" s="43"/>
+      <c r="O36" s="43"/>
+      <c r="P36" s="43"/>
     </row>
     <row r="37" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C37" s="29"/>
+      <c r="C37" s="25"/>
       <c r="F37" s="7" t="s">
         <v>12</v>
       </c>
@@ -2216,7 +2604,7 @@
     <row r="38" spans="3:16" x14ac:dyDescent="0.2">
       <c r="E38" s="8">
         <f>B18</f>
-        <v>0.41543631303279949</v>
+        <v>1.0625288515695615E-3</v>
       </c>
       <c r="F38" s="15">
         <f>minTXRate</f>
@@ -2224,450 +2612,449 @@
       </c>
       <c r="G38" s="15">
         <f>F38+$I$4</f>
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="H38" s="15">
         <f t="shared" ref="H38:P38" si="4">G38+$I$4</f>
-        <v>246</v>
+        <v>224</v>
       </c>
       <c r="I38" s="15">
         <f t="shared" si="4"/>
-        <v>269</v>
+        <v>236</v>
       </c>
       <c r="J38" s="15">
         <f t="shared" si="4"/>
-        <v>292</v>
+        <v>248</v>
       </c>
       <c r="K38" s="15">
         <f t="shared" si="4"/>
-        <v>315</v>
+        <v>260</v>
       </c>
       <c r="L38" s="15">
         <f t="shared" si="4"/>
-        <v>338</v>
+        <v>272</v>
       </c>
       <c r="M38" s="15">
         <f t="shared" si="4"/>
-        <v>361</v>
+        <v>284</v>
       </c>
       <c r="N38" s="15">
         <f t="shared" si="4"/>
-        <v>384</v>
+        <v>296</v>
       </c>
       <c r="O38" s="15">
         <f t="shared" si="4"/>
-        <v>407</v>
+        <v>308</v>
       </c>
       <c r="P38" s="16">
         <f t="shared" si="4"/>
-        <v>430</v>
+        <v>320</v>
       </c>
     </row>
     <row r="39" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="D39" s="41" t="s">
+      <c r="D39" s="35" t="s">
         <v>13</v>
       </c>
       <c r="E39" s="17">
         <f>minPoolsize</f>
-        <v>20</v>
-      </c>
-      <c r="F39" s="31" t="str">
+        <v>30</v>
+      </c>
+      <c r="F39" s="55">
         <f t="dataTable" ref="F39:P48" dt2D="1" dtr="1" r1="B4" r2="B6" ca="1"/>
+        <v>8.1654253254767314E-2</v>
+      </c>
+      <c r="G39" s="56">
+        <v>0.16429612794281551</v>
+      </c>
+      <c r="H39" s="56">
+        <v>0.30829227171247936</v>
+      </c>
+      <c r="I39" s="56">
+        <v>0.54578676839971418</v>
+      </c>
+      <c r="J39" s="56">
+        <v>0.92039863465038085</v>
+      </c>
+      <c r="K39" s="56" t="str">
         <v xml:space="preserve"> </v>
       </c>
-      <c r="G39" s="31" t="str">
+      <c r="L39" s="56" t="str">
         <v xml:space="preserve"> </v>
       </c>
-      <c r="H39" s="31" t="str">
+      <c r="M39" s="56" t="str">
         <v xml:space="preserve"> </v>
       </c>
-      <c r="I39" s="31" t="str">
+      <c r="N39" s="56" t="str">
         <v xml:space="preserve"> </v>
       </c>
-      <c r="J39" s="31" t="str">
+      <c r="O39" s="56" t="str">
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K39" s="31" t="str">
+      <c r="P39" s="57" t="str">
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L39" s="31" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="M39" s="31" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="N39" s="31" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="O39" s="31" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="P39" s="31" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
     </row>
     <row r="40" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="D40" s="41"/>
+      <c r="D40" s="35"/>
       <c r="E40" s="17">
         <f>E39+$I$6</f>
-        <v>25</v>
-      </c>
-      <c r="F40" s="31">
-        <v>0.12682727536476882</v>
-      </c>
-      <c r="G40" s="31">
-        <v>0.36433391119870551</v>
-      </c>
-      <c r="H40" s="31">
-        <v>0.87184240210506947</v>
-      </c>
-      <c r="I40" s="31" t="str">
+        <v>33</v>
+      </c>
+      <c r="F40" s="58">
+        <v>1.8064081688585872E-2</v>
+      </c>
+      <c r="G40" s="59">
+        <v>4.1153389278109707E-2</v>
+      </c>
+      <c r="H40" s="59">
+        <v>8.6068390710064668E-2</v>
+      </c>
+      <c r="I40" s="59">
+        <v>0.16743854460200458</v>
+      </c>
+      <c r="J40" s="59">
+        <v>0.30641414274208362</v>
+      </c>
+      <c r="K40" s="59">
+        <v>0.53250183419445174</v>
+      </c>
+      <c r="L40" s="59">
+        <v>0.88584080499968332</v>
+      </c>
+      <c r="M40" s="59" t="str">
         <v xml:space="preserve"> </v>
       </c>
-      <c r="J40" s="31" t="str">
+      <c r="N40" s="59" t="str">
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K40" s="31" t="str">
+      <c r="O40" s="59" t="str">
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L40" s="31" t="str">
+      <c r="P40" s="60" t="str">
         <v xml:space="preserve"> </v>
       </c>
-      <c r="M40" s="31" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="N40" s="31" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="O40" s="31" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="P40" s="31" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
     </row>
     <row r="41" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="D41" s="41"/>
+      <c r="D41" s="35"/>
       <c r="E41" s="17">
         <f t="shared" ref="E41:E48" si="5">E40+$I$6</f>
-        <v>30</v>
-      </c>
-      <c r="F41" s="31">
-        <v>9.1787605844810983E-3</v>
-      </c>
-      <c r="G41" s="31">
-        <v>3.8881678773557131E-2</v>
-      </c>
-      <c r="H41" s="31">
-        <v>0.12623398898476573</v>
-      </c>
-      <c r="I41" s="31">
-        <v>0.33591410998257692</v>
-      </c>
-      <c r="J41" s="31">
-        <v>0.77032964582247476</v>
-      </c>
-      <c r="K41" s="31" t="str">
+        <v>36</v>
+      </c>
+      <c r="F41" s="58">
+        <v>3.3033528481265432E-3</v>
+      </c>
+      <c r="G41" s="59">
+        <v>8.6497598500930029E-3</v>
+      </c>
+      <c r="H41" s="59">
+        <v>2.0478432685161637E-2</v>
+      </c>
+      <c r="I41" s="59">
+        <v>4.446236815837596E-2</v>
+      </c>
+      <c r="J41" s="59">
+        <v>8.9627701332166521E-2</v>
+      </c>
+      <c r="K41" s="59">
+        <v>0.16954512762353122</v>
+      </c>
+      <c r="L41" s="59">
+        <v>0.30375704864648412</v>
+      </c>
+      <c r="M41" s="59">
+        <v>0.51951916159218103</v>
+      </c>
+      <c r="N41" s="59">
+        <v>0.85396836681220523</v>
+      </c>
+      <c r="O41" s="59" t="str">
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L41" s="31" t="str">
+      <c r="P41" s="60" t="str">
         <v xml:space="preserve"> </v>
       </c>
-      <c r="M41" s="31" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="N41" s="31" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="O41" s="31" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="P41" s="31" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
     </row>
     <row r="42" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="D42" s="41"/>
+      <c r="D42" s="35"/>
       <c r="E42" s="17">
         <f t="shared" si="5"/>
-        <v>35</v>
-      </c>
-      <c r="F42" s="31">
-        <v>3.5679173036794502E-4</v>
-      </c>
-      <c r="G42" s="31">
-        <v>2.3989288016426839E-3</v>
-      </c>
-      <c r="H42" s="31">
-        <v>1.1434910093853763E-2</v>
-      </c>
-      <c r="I42" s="31">
-        <v>4.167455562402584E-2</v>
-      </c>
-      <c r="J42" s="31">
-        <v>0.12322631432328655</v>
-      </c>
-      <c r="K42" s="31">
-        <v>0.30980423942813601</v>
-      </c>
-      <c r="L42" s="31">
-        <v>0.68700180950891732</v>
-      </c>
-      <c r="M42" s="31" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="N42" s="31" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="O42" s="31" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="P42" s="31" t="str">
-        <v xml:space="preserve"> </v>
+        <v>39</v>
+      </c>
+      <c r="F42" s="58">
+        <v>4.9675728278101997E-4</v>
+      </c>
+      <c r="G42" s="59">
+        <v>1.5116618239783385E-3</v>
+      </c>
+      <c r="H42" s="59">
+        <v>4.1015049385639676E-3</v>
+      </c>
+      <c r="I42" s="59">
+        <v>1.0070162037528843E-2</v>
+      </c>
+      <c r="J42" s="59">
+        <v>2.266567877330123E-2</v>
+      </c>
+      <c r="K42" s="59">
+        <v>4.7304677809194499E-2</v>
+      </c>
+      <c r="L42" s="59">
+        <v>9.2473575763260929E-2</v>
+      </c>
+      <c r="M42" s="59">
+        <v>0.17082578493105</v>
+      </c>
+      <c r="N42" s="59">
+        <v>0.30051817230010763</v>
+      </c>
+      <c r="O42" s="59">
+        <v>0.50685868280160162</v>
+      </c>
+      <c r="P42" s="60">
+        <v>0.82436504875554839</v>
       </c>
     </row>
     <row r="43" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="D43" s="41"/>
+      <c r="D43" s="35"/>
       <c r="E43" s="17">
         <f t="shared" si="5"/>
-        <v>40</v>
-      </c>
-      <c r="F43" s="31">
-        <v>7.5180486521320437E-6</v>
-      </c>
-      <c r="G43" s="31">
-        <v>8.3398029859107744E-5</v>
-      </c>
-      <c r="H43" s="31">
-        <v>6.1339933573972567E-4</v>
-      </c>
-      <c r="I43" s="31">
-        <v>3.2450569294670555E-3</v>
-      </c>
-      <c r="J43" s="31">
-        <v>1.3161777220404222E-2</v>
-      </c>
-      <c r="K43" s="31">
-        <v>4.3097319050219289E-2</v>
-      </c>
-      <c r="L43" s="31">
-        <v>0.11886461301017119</v>
-      </c>
-      <c r="M43" s="31">
-        <v>0.28591082296282683</v>
-      </c>
-      <c r="N43" s="31">
-        <v>0.61691357925991563</v>
-      </c>
-      <c r="O43" s="31" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="P43" s="31" t="str">
-        <v xml:space="preserve"> </v>
+        <v>42</v>
+      </c>
+      <c r="F43" s="58">
+        <v>6.1507135918536672E-5</v>
+      </c>
+      <c r="G43" s="59">
+        <v>2.1914621212518827E-4</v>
+      </c>
+      <c r="H43" s="59">
+        <v>6.874240065322814E-4</v>
+      </c>
+      <c r="I43" s="59">
+        <v>1.9277462338894193E-3</v>
+      </c>
+      <c r="J43" s="59">
+        <v>4.8981364556472074E-3</v>
+      </c>
+      <c r="K43" s="59">
+        <v>1.141081226193834E-2</v>
+      </c>
+      <c r="L43" s="59">
+        <v>2.463156075427065E-2</v>
+      </c>
+      <c r="M43" s="59">
+        <v>4.9733701807661623E-2</v>
+      </c>
+      <c r="N43" s="59">
+        <v>9.4720527877531144E-2</v>
+      </c>
+      <c r="O43" s="59">
+        <v>0.17144104498601767</v>
+      </c>
+      <c r="P43" s="60">
+        <v>0.29684282764564379</v>
       </c>
     </row>
     <row r="44" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="D44" s="41"/>
+      <c r="D44" s="35"/>
       <c r="E44" s="17">
         <f t="shared" si="5"/>
         <v>45</v>
       </c>
-      <c r="F44" s="31">
-        <v>8.9574541241171385E-8</v>
-      </c>
-      <c r="G44" s="31">
-        <v>1.6690830643371939E-6</v>
-      </c>
-      <c r="H44" s="31">
-        <v>1.9419682384827889E-5</v>
-      </c>
-      <c r="I44" s="31">
-        <v>1.5415355529275861E-4</v>
-      </c>
-      <c r="J44" s="31">
-        <v>8.9376767679524068E-4</v>
-      </c>
-      <c r="K44" s="31">
-        <v>3.9965629082129575E-3</v>
-      </c>
-      <c r="L44" s="31">
-        <v>1.4414568264347576E-2</v>
-      </c>
-      <c r="M44" s="31">
-        <v>4.3545963141131024E-2</v>
-      </c>
-      <c r="N44" s="31">
-        <v>0.11376650879212975</v>
-      </c>
-      <c r="O44" s="31">
-        <v>0.26406714384462782</v>
-      </c>
-      <c r="P44" s="31">
-        <v>0.55691671160914713</v>
+      <c r="F44" s="58">
+        <v>6.3036911642443512E-6</v>
+      </c>
+      <c r="G44" s="59">
+        <v>2.6423649466989321E-5</v>
+      </c>
+      <c r="H44" s="59">
+        <v>9.6387468216149416E-5</v>
+      </c>
+      <c r="I44" s="59">
+        <v>3.1088014441090178E-4</v>
+      </c>
+      <c r="J44" s="59">
+        <v>8.9891527663393909E-4</v>
+      </c>
+      <c r="K44" s="59">
+        <v>2.3587810890998689E-3</v>
+      </c>
+      <c r="L44" s="59">
+        <v>5.6781695820897577E-3</v>
+      </c>
+      <c r="M44" s="59">
+        <v>1.2662141235484753E-2</v>
+      </c>
+      <c r="N44" s="59">
+        <v>2.6387302847571608E-2</v>
+      </c>
+      <c r="O44" s="59">
+        <v>5.1797866593420505E-2</v>
+      </c>
+      <c r="P44" s="60">
+        <v>9.646190654090904E-2</v>
       </c>
     </row>
     <row r="45" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="D45" s="41"/>
+      <c r="D45" s="35"/>
       <c r="E45" s="17">
         <f t="shared" si="5"/>
-        <v>50</v>
-      </c>
-      <c r="F45" s="31">
-        <v>6.3314120210401714E-10</v>
-      </c>
-      <c r="G45" s="31">
-        <v>1.9993823330937046E-8</v>
-      </c>
-      <c r="H45" s="31">
-        <v>3.7244698513196291E-7</v>
-      </c>
-      <c r="I45" s="31">
-        <v>4.5097710136021271E-6</v>
-      </c>
-      <c r="J45" s="31">
-        <v>3.8215157027455735E-5</v>
-      </c>
-      <c r="K45" s="31">
-        <v>2.4015005566740914E-4</v>
-      </c>
-      <c r="L45" s="31">
-        <v>1.172907570571733E-3</v>
-      </c>
-      <c r="M45" s="31">
-        <v>4.6295676708075374E-3</v>
-      </c>
-      <c r="N45" s="31">
-        <v>1.5268060508620972E-2</v>
-      </c>
-      <c r="O45" s="31">
-        <v>4.3303895834023783E-2</v>
-      </c>
-      <c r="P45" s="31">
-        <v>0.10830684455162123</v>
+        <v>48</v>
+      </c>
+      <c r="F45" s="58">
+        <v>5.386536767909057E-7</v>
+      </c>
+      <c r="G45" s="59">
+        <v>2.6647201492922389E-6</v>
+      </c>
+      <c r="H45" s="59">
+        <v>1.1346624108656688E-5</v>
+      </c>
+      <c r="I45" s="59">
+        <v>4.2285013766215468E-5</v>
+      </c>
+      <c r="J45" s="59">
+        <v>1.3991086660524092E-4</v>
+      </c>
+      <c r="K45" s="59">
+        <v>4.1621250466120205E-4</v>
+      </c>
+      <c r="L45" s="59">
+        <v>1.125645695848499E-3</v>
+      </c>
+      <c r="M45" s="59">
+        <v>2.7952854323661778E-3</v>
+      </c>
+      <c r="N45" s="59">
+        <v>6.4310689087601486E-3</v>
+      </c>
+      <c r="O45" s="59">
+        <v>1.3820074024182231E-2</v>
+      </c>
+      <c r="P45" s="60">
+        <v>2.7946721803697359E-2</v>
       </c>
     </row>
     <row r="46" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="D46" s="41"/>
+      <c r="D46" s="35"/>
       <c r="E46" s="17">
         <f t="shared" si="5"/>
-        <v>55</v>
-      </c>
-      <c r="F46" s="31">
-        <v>2.775513670936505E-12</v>
-      </c>
-      <c r="G46" s="31">
-        <v>1.4927661933739957E-10</v>
-      </c>
-      <c r="H46" s="31">
-        <v>4.4806374519794035E-9</v>
-      </c>
-      <c r="I46" s="31">
-        <v>8.3456848929887125E-8</v>
-      </c>
-      <c r="J46" s="31">
-        <v>1.0452982901456856E-6</v>
-      </c>
-      <c r="K46" s="31">
-        <v>9.3718282737262733E-6</v>
-      </c>
-      <c r="L46" s="31">
-        <v>6.3225603946776167E-5</v>
-      </c>
-      <c r="M46" s="31">
-        <v>3.343448201551945E-4</v>
-      </c>
-      <c r="N46" s="31">
-        <v>1.4342601227179323E-3</v>
-      </c>
-      <c r="O46" s="31">
-        <v>5.1404362421518818E-3</v>
-      </c>
-      <c r="P46" s="31">
-        <v>1.5795402480335966E-2</v>
+        <v>51</v>
+      </c>
+      <c r="F46" s="58">
+        <v>3.8683274915223385E-8</v>
+      </c>
+      <c r="G46" s="59">
+        <v>2.2631542901022741E-7</v>
+      </c>
+      <c r="H46" s="59">
+        <v>1.1277332232962578E-6</v>
+      </c>
+      <c r="I46" s="59">
+        <v>4.8707016307427759E-6</v>
+      </c>
+      <c r="J46" s="59">
+        <v>1.8509217880181231E-5</v>
+      </c>
+      <c r="K46" s="59">
+        <v>6.2698483344477034E-5</v>
+      </c>
+      <c r="L46" s="59">
+        <v>1.9150090717390153E-4</v>
+      </c>
+      <c r="M46" s="59">
+        <v>5.3277780280058069E-4</v>
+      </c>
+      <c r="N46" s="59">
+        <v>1.3625357277750737E-3</v>
+      </c>
+      <c r="O46" s="59">
+        <v>3.2297540711973931E-3</v>
+      </c>
+      <c r="P46" s="60">
+        <v>7.1497606593454877E-3</v>
       </c>
     </row>
     <row r="47" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="D47" s="41"/>
+      <c r="D47" s="35"/>
       <c r="E47" s="17">
         <f t="shared" si="5"/>
-        <v>60</v>
-      </c>
-      <c r="F47" s="31">
-        <v>7.8460050590973482E-15</v>
-      </c>
-      <c r="G47" s="31">
-        <v>7.2089114420204777E-13</v>
-      </c>
-      <c r="H47" s="31">
-        <v>3.4997163334406716E-11</v>
-      </c>
-      <c r="I47" s="31">
-        <v>1.0075089407217362E-9</v>
-      </c>
-      <c r="J47" s="31">
-        <v>1.8765964510774455E-8</v>
-      </c>
-      <c r="K47" s="31">
-        <v>2.4196316307522025E-7</v>
-      </c>
-      <c r="L47" s="31">
-        <v>2.2786179976582103E-6</v>
-      </c>
-      <c r="M47" s="31">
-        <v>1.6368615483483102E-5</v>
-      </c>
-      <c r="N47" s="31">
-        <v>9.2979887114696879E-5</v>
-      </c>
-      <c r="O47" s="31">
-        <v>4.3053023648322188E-4</v>
-      </c>
-      <c r="P47" s="31">
-        <v>1.6682280090546094E-3</v>
+        <v>54</v>
+      </c>
+      <c r="F47" s="58">
+        <v>2.353367014939659E-9</v>
+      </c>
+      <c r="G47" s="59">
+        <v>1.6306411013684353E-8</v>
+      </c>
+      <c r="H47" s="59">
+        <v>9.5251609521049521E-8</v>
+      </c>
+      <c r="I47" s="59">
+        <v>4.7776129157907353E-7</v>
+      </c>
+      <c r="J47" s="59">
+        <v>2.0902792202714988E-6</v>
+      </c>
+      <c r="K47" s="59">
+        <v>8.0864671636851539E-6</v>
+      </c>
+      <c r="L47" s="59">
+        <v>2.7992020575268512E-5</v>
+      </c>
+      <c r="M47" s="59">
+        <v>8.7616076631379677E-5</v>
+      </c>
+      <c r="N47" s="59">
+        <v>2.5030330106538687E-4</v>
+      </c>
+      <c r="O47" s="59">
+        <v>6.5816913657950867E-4</v>
+      </c>
+      <c r="P47" s="60">
+        <v>1.6051610071563551E-3</v>
       </c>
     </row>
     <row r="48" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="D48" s="41"/>
+      <c r="D48" s="35"/>
       <c r="E48" s="18">
         <f t="shared" si="5"/>
-        <v>65</v>
-      </c>
-      <c r="F48" s="31">
-        <v>1.4794677422783935E-17</v>
-      </c>
-      <c r="G48" s="31">
-        <v>2.3268422533851498E-15</v>
-      </c>
-      <c r="H48" s="31">
-        <v>1.8314275272720084E-13</v>
-      </c>
-      <c r="I48" s="31">
-        <v>8.1728360685984903E-12</v>
-      </c>
-      <c r="J48" s="31">
-        <v>2.2720208018204817E-10</v>
-      </c>
-      <c r="K48" s="31">
-        <v>4.2321553041909405E-9</v>
-      </c>
-      <c r="L48" s="31">
-        <v>5.595794252502056E-8</v>
-      </c>
-      <c r="M48" s="31">
-        <v>5.5018832824226154E-7</v>
-      </c>
-      <c r="N48" s="31">
-        <v>4.1792507750367441E-6</v>
-      </c>
-      <c r="O48" s="31">
-        <v>2.5321263627637268E-5</v>
-      </c>
-      <c r="P48" s="31">
-        <v>1.2573756540066317E-4</v>
+        <v>57</v>
+      </c>
+      <c r="F48" s="61">
+        <v>1.2221536129060103E-10</v>
+      </c>
+      <c r="G48" s="62">
+        <v>1.0039822014806719E-9</v>
+      </c>
+      <c r="H48" s="62">
+        <v>6.8831932489339229E-9</v>
+      </c>
+      <c r="I48" s="62">
+        <v>4.0151506478956417E-8</v>
+      </c>
+      <c r="J48" s="62">
+        <v>2.0259298591567855E-7</v>
+      </c>
+      <c r="K48" s="62">
+        <v>8.968823573646787E-7</v>
+      </c>
+      <c r="L48" s="62">
+        <v>3.5270568066916946E-6</v>
+      </c>
+      <c r="M48" s="62">
+        <v>1.245599276048903E-5</v>
+      </c>
+      <c r="N48" s="62">
+        <v>3.9885878554215802E-5</v>
+      </c>
+      <c r="O48" s="62">
+        <v>1.1680976586615458E-4</v>
+      </c>
+      <c r="P48" s="63">
+        <v>3.1531055344504442E-4</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="8">
     <mergeCell ref="D39:D48"/>
     <mergeCell ref="D11:D20"/>
@@ -2779,7 +3166,7 @@
   <dimension ref="A2:G1503"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2805,7 +3192,7 @@
       </c>
       <c r="G3" s="2">
         <f>trafficIntensity^nAgents/FACT(nAgents)</f>
-        <v>1.8209242226698977E+18</v>
+        <v>24697022720.160595</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -2814,7 +3201,7 @@
       </c>
       <c r="B4" s="3">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -2823,7 +3210,7 @@
       </c>
       <c r="B5" s="3">
         <f t="shared" si="0"/>
-        <v>1012.5</v>
+        <v>450</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -2832,7 +3219,7 @@
       </c>
       <c r="B6" s="3">
         <f t="shared" si="0"/>
-        <v>15187.5</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -2841,7 +3228,7 @@
       </c>
       <c r="B7" s="3">
         <f t="shared" si="0"/>
-        <v>170859.375</v>
+        <v>33750</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -2850,7 +3237,7 @@
       </c>
       <c r="B8" s="3">
         <f t="shared" si="0"/>
-        <v>1537734.375</v>
+        <v>202500</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -2859,7 +3246,7 @@
       </c>
       <c r="B9" s="3">
         <f t="shared" si="0"/>
-        <v>11533007.8125</v>
+        <v>1012500</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -2868,7 +3255,7 @@
       </c>
       <c r="B10" s="3">
         <f t="shared" si="0"/>
-        <v>74140764.508928567</v>
+        <v>4339285.7142857146</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -2877,7 +3264,7 @@
       </c>
       <c r="B11" s="3">
         <f t="shared" si="0"/>
-        <v>417041800.36272323</v>
+        <v>16272321.428571429</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -2886,7 +3273,7 @@
       </c>
       <c r="B12" s="3">
         <f t="shared" si="0"/>
-        <v>2085209001.813616</v>
+        <v>54241071.428571425</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -2895,13 +3282,13 @@
       </c>
       <c r="B13" s="3">
         <f t="shared" si="0"/>
-        <v>9383440508.161272</v>
+        <v>162723214.2857143</v>
       </c>
       <c r="F13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="23" t="s">
         <v>20</v>
-      </c>
-      <c r="G13" s="27" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -2910,7 +3297,7 @@
       </c>
       <c r="B14" s="3">
         <f t="shared" si="0"/>
-        <v>38386802078.841568</v>
+        <v>443790584.41558444</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -2919,7 +3306,7 @@
       </c>
       <c r="B15" s="3">
         <f t="shared" si="0"/>
-        <v>143950507795.65588</v>
+        <v>1109476461.0389609</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -2928,7 +3315,7 @@
       </c>
       <c r="B16" s="3">
         <f t="shared" si="0"/>
-        <v>498290219292.65503</v>
+        <v>2560330294.7052946</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -2937,7 +3324,7 @@
       </c>
       <c r="B17" s="3">
         <f t="shared" si="0"/>
-        <v>1601647133440.6768</v>
+        <v>5486422060.0827742</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -2946,7 +3333,7 @@
       </c>
       <c r="B18" s="3">
         <f t="shared" si="0"/>
-        <v>4804941400322.0303</v>
+        <v>10972844120.165548</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -2955,7 +3342,7 @@
       </c>
       <c r="B19" s="3">
         <f t="shared" si="0"/>
-        <v>13513897688405.711</v>
+        <v>20574082725.310406</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -2964,7 +3351,7 @@
       </c>
       <c r="B20" s="3">
         <f t="shared" si="0"/>
-        <v>35772082116368.055</v>
+        <v>36307204809.3713</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -2973,7 +3360,7 @@
       </c>
       <c r="B21" s="3">
         <f t="shared" si="0"/>
-        <v>89430205290920.141</v>
+        <v>60512008015.618843</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -2982,7 +3369,7 @@
       </c>
       <c r="B22" s="3">
         <f t="shared" si="0"/>
-        <v>211808380952179.28</v>
+        <v>95545275814.13501</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -2991,7 +3378,7 @@
       </c>
       <c r="B23" s="3">
         <f t="shared" si="0"/>
-        <v>476568857142403.38</v>
+        <v>143317913721.20251</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -3000,7 +3387,7 @@
       </c>
       <c r="B24" s="3">
         <f t="shared" si="0"/>
-        <v>1021218979590864.4</v>
+        <v>204739876744.57501</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -3009,7 +3396,7 @@
       </c>
       <c r="B25" s="3">
         <f t="shared" si="0"/>
-        <v>2088857003708586.2</v>
+        <v>279190741015.32953</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -3018,7 +3405,7 @@
       </c>
       <c r="B26" s="3">
         <f t="shared" si="0"/>
-        <v>4086894137690712.5</v>
+        <v>364161836106.9516</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -3027,7 +3414,7 @@
       </c>
       <c r="B27" s="3">
         <f t="shared" si="0"/>
-        <v>7662926508170086</v>
+        <v>455202295133.68951</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -3036,7 +3423,7 @@
       </c>
       <c r="B28" s="3">
         <f t="shared" si="0"/>
-        <v>1.3793267714706156E+16</v>
+        <v>546242754160.42749</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -3045,7 +3432,7 @@
       </c>
       <c r="B29" s="3">
         <f t="shared" si="0"/>
-        <v>2.3872963352376032E+16</v>
+        <v>630280100954.33911</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -3054,7 +3441,7 @@
       </c>
       <c r="B30" s="3">
         <f t="shared" si="0"/>
-        <v>3.9788272253960064E+16</v>
+        <v>700311223282.59924</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -3063,7 +3450,7 @@
       </c>
       <c r="B31" s="3">
         <f t="shared" si="0"/>
-        <v>6.3945437551007248E+16</v>
+        <v>750333453517.0708</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -3072,7 +3459,7 @@
       </c>
       <c r="B32" s="3">
         <f t="shared" si="0"/>
-        <v>9.922567895845952E+16</v>
+        <v>776207020879.72827</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -3081,7 +3468,7 @@
       </c>
       <c r="B33" s="3">
         <f t="shared" si="0"/>
-        <v>1.4883851843768922E+17</v>
+        <v>776207020879.72803</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -3090,7 +3477,7 @@
       </c>
       <c r="B34" s="3">
         <f t="shared" si="0"/>
-        <v>2.1605591386116182E+17</v>
+        <v>751168084722.31763</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -3099,7 +3486,7 @@
       </c>
       <c r="B35" s="3">
         <f t="shared" si="0"/>
-        <v>3.0382862886725882E+17</v>
+        <v>704220079427.17273</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -3108,7 +3495,7 @@
       </c>
       <c r="B36" s="3">
         <f t="shared" si="0"/>
-        <v>4.1431176663717101E+17</v>
+        <v>640200072206.52051</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
@@ -3117,7 +3504,7 @@
       </c>
       <c r="B37" s="3">
         <f t="shared" si="0"/>
-        <v>5.4835380878449133E+17</v>
+        <v>564882416652.8125</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
@@ -3126,7 +3513,7 @@
       </c>
       <c r="B38" s="3">
         <f t="shared" si="0"/>
-        <v>7.0502632558006016E+17</v>
+        <v>484184928559.55353</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
@@ -3135,7 +3522,7 @@
       </c>
       <c r="B39" s="3">
         <f t="shared" si="0"/>
-        <v>8.8128290697507482E+17</v>
+        <v>403487440466.29449</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
@@ -3144,7 +3531,7 @@
       </c>
       <c r="B40" s="3">
         <f t="shared" si="0"/>
-        <v>1.0718305625372535E+18</v>
+        <v>327151978756.45508</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
@@ -3153,7 +3540,7 @@
       </c>
       <c r="B41" s="3">
         <f t="shared" si="0"/>
-        <v>1.2692730345835899E+18</v>
+        <v>258277877965.62244</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
@@ -3162,7 +3549,7 @@
       </c>
       <c r="B42" s="3">
         <f t="shared" si="0"/>
-        <v>1.464545809134911E+18</v>
+        <v>198675290742.78647</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
@@ -3171,7 +3558,7 @@
       </c>
       <c r="B43" s="3">
         <f t="shared" si="0"/>
-        <v>1.6476140352767747E+18</v>
+        <v>149006468057.08981</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
@@ -3180,7 +3567,7 @@
       </c>
       <c r="B44" s="3">
         <f t="shared" si="0"/>
-        <v>1.8083568679867052E+18</v>
+        <v>109029122968.60236</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
@@ -3189,7 +3576,7 @@
       </c>
       <c r="B45" s="3">
         <f t="shared" si="0"/>
-        <v>1.9375252157000402E+18</v>
+        <v>77877944977.573074</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
@@ -3198,7 +3585,7 @@
       </c>
       <c r="B46" s="3">
         <f t="shared" si="0"/>
-        <v>2.0276426675930652E+18</v>
+        <v>54333449984.35331</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
@@ -3207,7 +3594,7 @@
       </c>
       <c r="B47" s="3">
         <f t="shared" si="0"/>
-        <v>2.0737254554929075E+18</v>
+        <v>37045534080.240891</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
@@ -3216,7 +3603,7 @@
       </c>
       <c r="B48" s="3">
         <f t="shared" si="0"/>
-        <v>2.0737254554929078E+18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
@@ -3225,7 +3612,7 @@
       </c>
       <c r="B49" s="3">
         <f t="shared" si="0"/>
-        <v>2.0286444673300186E+18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
@@ -3234,7 +3621,7 @@
       </c>
       <c r="B50" s="3">
         <f t="shared" si="0"/>
-        <v>1.9423191708478899E+18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">

--- a/poolSizing.xlsx
+++ b/poolSizing.xlsx
@@ -1038,36 +1038,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -1153,6 +1123,36 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1439,8 +1439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43:XFD43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1465,12 +1465,12 @@
       </c>
     </row>
     <row r="3" spans="1:16" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F3" s="39" t="s">
+      <c r="F3" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="41"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="70"/>
     </row>
     <row r="4" spans="1:16" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
@@ -1483,7 +1483,7 @@
       <c r="C4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="36" t="s">
+      <c r="F4" s="65" t="s">
         <v>14</v>
       </c>
       <c r="G4" s="31">
@@ -1502,12 +1502,12 @@
         <v>2</v>
       </c>
       <c r="B5" s="29">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="37"/>
+      <c r="F5" s="66"/>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
       <c r="I5" s="13"/>
@@ -1517,17 +1517,17 @@
         <v>4</v>
       </c>
       <c r="B6" s="30">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="38"/>
+      <c r="F6" s="67"/>
       <c r="G6" s="32">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H6" s="32">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="I6" s="22">
         <f>ROUNDUP((maxPoolsize-minPoolsize)/9,0)</f>
@@ -1540,35 +1540,35 @@
       </c>
       <c r="B7" s="4">
         <f>lambda*(Ts/1000)</f>
-        <v>30</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="44" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="73">
+      <c r="B8" s="63">
         <f>trafficIntensity/nAgents</f>
-        <v>0.66666666666666663</v>
+        <v>0.625</v>
       </c>
       <c r="C8" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="42" t="s">
+      <c r="D8" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="42"/>
-      <c r="M8" s="42"/>
-      <c r="N8" s="42"/>
-      <c r="O8" s="42"/>
-      <c r="P8" s="42"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="71"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="71"/>
+      <c r="J8" s="71"/>
+      <c r="K8" s="71"/>
+      <c r="L8" s="71"/>
+      <c r="M8" s="71"/>
+      <c r="N8" s="71"/>
+      <c r="O8" s="71"/>
+      <c r="P8" s="71"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D9" s="5"/>
@@ -1590,7 +1590,7 @@
       <c r="D10" s="5"/>
       <c r="E10" s="14">
         <f>B12</f>
-        <v>6.9285584512171917E-3</v>
+        <v>4.5879105265055563E-4</v>
       </c>
       <c r="F10" s="15">
         <f>minTXRate</f>
@@ -1638,46 +1638,46 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D11" s="35" t="s">
+      <c r="D11" s="64" t="s">
         <v>13</v>
       </c>
       <c r="E11" s="17">
         <f>minPoolsize</f>
-        <v>30</v>
-      </c>
-      <c r="F11" s="46">
+        <v>50</v>
+      </c>
+      <c r="F11" s="36">
         <f t="dataTable" ref="F11:P20" dt2D="1" dtr="1" r1="B4" r2="B6" ca="1"/>
-        <v>0.17286205549683795</v>
-      </c>
-      <c r="G11" s="47">
-        <v>0.29051942971942213</v>
-      </c>
-      <c r="H11" s="47">
-        <v>0.45534176422178113</v>
-      </c>
-      <c r="I11" s="47">
-        <v>0.6733251615894198</v>
-      </c>
-      <c r="J11" s="47">
-        <v>0.94842894612011164</v>
-      </c>
-      <c r="K11" s="47" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="L11" s="47" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="M11" s="47" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="N11" s="47" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="O11" s="47" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="P11" s="48" t="str">
-        <v xml:space="preserve"> </v>
+        <v>5.5217781166512394E-4</v>
+      </c>
+      <c r="G11" s="37">
+        <v>1.8473782949318682E-3</v>
+      </c>
+      <c r="H11" s="37">
+        <v>5.3150787001031005E-3</v>
+      </c>
+      <c r="I11" s="37">
+        <v>1.3397384262871986E-2</v>
+      </c>
+      <c r="J11" s="37">
+        <v>3.0075800676525224E-2</v>
+      </c>
+      <c r="K11" s="37">
+        <v>6.1018405067034556E-2</v>
+      </c>
+      <c r="L11" s="37">
+        <v>0.11335755123295396</v>
+      </c>
+      <c r="M11" s="37">
+        <v>0.1951139411039873</v>
+      </c>
+      <c r="N11" s="37">
+        <v>0.31442351077161534</v>
+      </c>
+      <c r="O11" s="37">
+        <v>0.47877904357365314</v>
+      </c>
+      <c r="P11" s="38">
+        <v>0.69445561119683419</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
@@ -1686,169 +1686,169 @@
       </c>
       <c r="B12" s="11">
         <f>IF(agentOccupancy&lt;1,workingData!G3/(workingData!G3+(1-agentOccupancy)*SUM(workingData!B3:B1503)),blankOutput)</f>
-        <v>6.9285584512171917E-3</v>
-      </c>
-      <c r="D12" s="35"/>
+        <v>4.5879105265055563E-4</v>
+      </c>
+      <c r="D12" s="64"/>
       <c r="E12" s="17">
         <f>E11+$I$6</f>
-        <v>33</v>
-      </c>
-      <c r="F12" s="49">
-        <v>5.564128877741388E-2</v>
-      </c>
-      <c r="G12" s="50">
-        <v>0.10587999050897405</v>
-      </c>
-      <c r="H12" s="50">
-        <v>0.18496048747155661</v>
-      </c>
-      <c r="I12" s="50">
-        <v>0.30055067820926251</v>
-      </c>
-      <c r="J12" s="50">
-        <v>0.45940749026595712</v>
-      </c>
-      <c r="K12" s="50">
-        <v>0.66686414337554567</v>
-      </c>
-      <c r="L12" s="50">
-        <v>0.92661416147363374</v>
-      </c>
-      <c r="M12" s="50" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="N12" s="50" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="O12" s="50" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="P12" s="51" t="str">
-        <v xml:space="preserve"> </v>
+        <v>53</v>
+      </c>
+      <c r="F12" s="39">
+        <v>9.7771841901580348E-5</v>
+      </c>
+      <c r="G12" s="40">
+        <v>3.8466172828189324E-4</v>
+      </c>
+      <c r="H12" s="40">
+        <v>1.2858727582072532E-3</v>
+      </c>
+      <c r="I12" s="40">
+        <v>3.722625344191158E-3</v>
+      </c>
+      <c r="J12" s="40">
+        <v>9.4903828721210042E-3</v>
+      </c>
+      <c r="K12" s="40">
+        <v>2.1624395273476763E-2</v>
+      </c>
+      <c r="L12" s="40">
+        <v>4.4629151992242544E-2</v>
+      </c>
+      <c r="M12" s="40">
+        <v>8.4438603571899112E-2</v>
+      </c>
+      <c r="N12" s="40">
+        <v>0.14806281268582147</v>
+      </c>
+      <c r="O12" s="40">
+        <v>0.24299600714472586</v>
+      </c>
+      <c r="P12" s="41">
+        <v>0.37654195365687892</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D13" s="35"/>
+      <c r="D13" s="64"/>
       <c r="E13" s="17">
         <f t="shared" ref="E13:E20" si="1">E12+$I$6</f>
-        <v>36</v>
-      </c>
-      <c r="F13" s="49">
-        <v>1.4804600354918847E-2</v>
-      </c>
-      <c r="G13" s="50">
-        <v>3.2379695931010873E-2</v>
-      </c>
-      <c r="H13" s="50">
-        <v>6.4031315488557602E-2</v>
-      </c>
-      <c r="I13" s="50">
-        <v>0.11612221011927081</v>
-      </c>
-      <c r="J13" s="50">
-        <v>0.19552034467647747</v>
-      </c>
-      <c r="K13" s="50">
-        <v>0.30893136455744447</v>
-      </c>
-      <c r="L13" s="50">
-        <v>0.46230655028812795</v>
-      </c>
-      <c r="M13" s="50">
-        <v>0.66043829274974886</v>
-      </c>
-      <c r="N13" s="50">
-        <v>0.90677482147485333</v>
-      </c>
-      <c r="O13" s="50" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="P13" s="51" t="str">
-        <v xml:space="preserve"> </v>
+        <v>56</v>
+      </c>
+      <c r="F13" s="39">
+        <v>1.4835476540891028E-5</v>
+      </c>
+      <c r="G13" s="40">
+        <v>6.8842518186461896E-5</v>
+      </c>
+      <c r="H13" s="40">
+        <v>2.6839215166245598E-4</v>
+      </c>
+      <c r="I13" s="40">
+        <v>8.9657030651546911E-4</v>
+      </c>
+      <c r="J13" s="40">
+        <v>2.6104822298427975E-3</v>
+      </c>
+      <c r="K13" s="40">
+        <v>6.7254229518419828E-3</v>
+      </c>
+      <c r="L13" s="40">
+        <v>1.5539110546617172E-2</v>
+      </c>
+      <c r="M13" s="40">
+        <v>3.2592957643337701E-2</v>
+      </c>
+      <c r="N13" s="40">
+        <v>6.2751377174559406E-2</v>
+      </c>
+      <c r="O13" s="40">
+        <v>0.11202522017160901</v>
+      </c>
+      <c r="P13" s="41">
+        <v>0.18715423032790263</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B14" s="4">
         <f>IF(ISNUMBER(B12),B12,"")</f>
-        <v>6.9285584512171917E-3</v>
-      </c>
-      <c r="D14" s="35"/>
+        <v>4.5879105265055563E-4</v>
+      </c>
+      <c r="D14" s="64"/>
       <c r="E14" s="17">
         <f t="shared" si="1"/>
-        <v>39</v>
-      </c>
-      <c r="F14" s="49">
-        <v>3.2392643877217075E-3</v>
-      </c>
-      <c r="G14" s="50">
-        <v>8.2334867743378386E-3</v>
-      </c>
-      <c r="H14" s="50">
-        <v>1.8659473219364668E-2</v>
-      </c>
-      <c r="I14" s="50">
-        <v>3.8266574922394818E-2</v>
-      </c>
-      <c r="J14" s="50">
-        <v>7.1941395200616376E-2</v>
-      </c>
-      <c r="K14" s="50">
-        <v>0.125412610733833</v>
-      </c>
-      <c r="L14" s="50">
-        <v>0.2047772772912326</v>
-      </c>
-      <c r="M14" s="50">
-        <v>0.31596904047244811</v>
-      </c>
-      <c r="N14" s="50">
-        <v>0.46428947474723986</v>
-      </c>
-      <c r="O14" s="50">
-        <v>0.65408167736165279</v>
-      </c>
-      <c r="P14" s="51">
-        <v>0.88857002059684231</v>
+        <v>59</v>
+      </c>
+      <c r="F14" s="39">
+        <v>1.9397687547051435E-6</v>
+      </c>
+      <c r="G14" s="40">
+        <v>1.0638855026338336E-5</v>
+      </c>
+      <c r="H14" s="40">
+        <v>4.8497185908230494E-5</v>
+      </c>
+      <c r="I14" s="40">
+        <v>1.8753396200420558E-4</v>
+      </c>
+      <c r="J14" s="40">
+        <v>6.2608541860708548E-4</v>
+      </c>
+      <c r="K14" s="40">
+        <v>1.8325911576809355E-3</v>
+      </c>
+      <c r="L14" s="40">
+        <v>4.7676471772072218E-3</v>
+      </c>
+      <c r="M14" s="40">
+        <v>1.1160227897057833E-2</v>
+      </c>
+      <c r="N14" s="40">
+        <v>2.3768864583435741E-2</v>
+      </c>
+      <c r="O14" s="40">
+        <v>4.6530667983241965E-2</v>
+      </c>
+      <c r="P14" s="41">
+        <v>8.4515805915203079E-2</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D15" s="35"/>
+      <c r="D15" s="64"/>
       <c r="E15" s="17">
         <f t="shared" si="1"/>
-        <v>42</v>
-      </c>
-      <c r="F15" s="49">
-        <v>5.8356345764607506E-4</v>
-      </c>
-      <c r="G15" s="50">
-        <v>1.7366949680388401E-3</v>
-      </c>
-      <c r="H15" s="50">
-        <v>4.5503129394369353E-3</v>
-      </c>
-      <c r="I15" s="50">
-        <v>1.0658434665809352E-2</v>
-      </c>
-      <c r="J15" s="50">
-        <v>2.2620460251931537E-2</v>
-      </c>
-      <c r="K15" s="50">
-        <v>4.4016358545191044E-2</v>
-      </c>
-      <c r="L15" s="50">
-        <v>7.9362707425727513E-2</v>
-      </c>
-      <c r="M15" s="50">
-        <v>0.13384505274231781</v>
-      </c>
-      <c r="N15" s="50">
-        <v>0.21292303111811373</v>
-      </c>
-      <c r="O15" s="50">
-        <v>0.32189951978588094</v>
-      </c>
-      <c r="P15" s="51">
-        <v>0.46554222377202115</v>
+        <v>62</v>
+      </c>
+      <c r="F15" s="39">
+        <v>2.1980049709926461E-7</v>
+      </c>
+      <c r="G15" s="40">
+        <v>1.4269385402842413E-6</v>
+      </c>
+      <c r="H15" s="40">
+        <v>7.6193418954759792E-6</v>
+      </c>
+      <c r="I15" s="40">
+        <v>3.4181461753826056E-5</v>
+      </c>
+      <c r="J15" s="40">
+        <v>1.3120437246437607E-4</v>
+      </c>
+      <c r="K15" s="40">
+        <v>4.37801222751995E-4</v>
+      </c>
+      <c r="L15" s="40">
+        <v>1.2877601920957716E-3</v>
+      </c>
+      <c r="M15" s="40">
+        <v>3.3807978007897783E-3</v>
+      </c>
+      <c r="N15" s="40">
+        <v>8.0111860918025482E-3</v>
+      </c>
+      <c r="O15" s="40">
+        <v>1.7310401828316606E-2</v>
+      </c>
+      <c r="P15" s="41">
+        <v>3.4429841022548376E-2</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1857,97 +1857,97 @@
       </c>
       <c r="B16" s="26">
         <f>IF(agentOccupancy&lt;1,B12*Ts/(nAgents*(1-agentOccupancy)),blankOutput)</f>
-        <v>5.5428467609737526E-2</v>
+        <v>3.0586070176703709E-3</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="35"/>
+      <c r="D16" s="64"/>
       <c r="E16" s="17">
         <f t="shared" si="1"/>
-        <v>45</v>
-      </c>
-      <c r="F16" s="49">
-        <v>8.7019772322866808E-5</v>
-      </c>
-      <c r="G16" s="50">
-        <v>3.046792007614522E-4</v>
-      </c>
-      <c r="H16" s="50">
-        <v>9.2831971637529246E-4</v>
-      </c>
-      <c r="I16" s="50">
-        <v>2.5009037615568884E-3</v>
-      </c>
-      <c r="J16" s="50">
-        <v>6.0401781664116711E-3</v>
-      </c>
-      <c r="K16" s="50">
-        <v>1.3238708467015543E-2</v>
-      </c>
-      <c r="L16" s="50">
-        <v>2.6619097894256219E-2</v>
-      </c>
-      <c r="M16" s="50">
-        <v>4.9581438323375256E-2</v>
-      </c>
-      <c r="N16" s="50">
-        <v>8.6304603677583469E-2</v>
-      </c>
-      <c r="O16" s="50">
-        <v>0.14150696846343258</v>
-      </c>
-      <c r="P16" s="51">
-        <v>0.22011456912269334</v>
+        <v>65</v>
+      </c>
+      <c r="F16" s="39">
+        <v>2.1705118327728025E-8</v>
+      </c>
+      <c r="G16" s="40">
+        <v>1.6697186249063536E-7</v>
+      </c>
+      <c r="H16" s="40">
+        <v>1.0457114882409946E-6</v>
+      </c>
+      <c r="I16" s="40">
+        <v>5.451031356343215E-6</v>
+      </c>
+      <c r="J16" s="40">
+        <v>2.4103174216973753E-5</v>
+      </c>
+      <c r="K16" s="40">
+        <v>9.1901475566301454E-5</v>
+      </c>
+      <c r="L16" s="40">
+        <v>3.0651793750625255E-4</v>
+      </c>
+      <c r="M16" s="40">
+        <v>9.0570684049506595E-4</v>
+      </c>
+      <c r="N16" s="40">
+        <v>2.3980093932175987E-3</v>
+      </c>
+      <c r="O16" s="40">
+        <v>5.7479260938739602E-3</v>
+      </c>
+      <c r="P16" s="41">
+        <v>1.2590860631071872E-2</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="45">
+      <c r="B17" s="35">
         <v>15</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="35"/>
+      <c r="D17" s="64"/>
       <c r="E17" s="17">
         <f t="shared" si="1"/>
-        <v>48</v>
-      </c>
-      <c r="F17" s="49">
-        <v>1.0819148313994533E-5</v>
-      </c>
-      <c r="G17" s="50">
-        <v>4.4705612027718171E-5</v>
-      </c>
-      <c r="H17" s="50">
-        <v>1.5900255389502511E-4</v>
-      </c>
-      <c r="I17" s="50">
-        <v>4.9493811709904812E-4</v>
-      </c>
-      <c r="J17" s="50">
-        <v>1.3678638286196711E-3</v>
-      </c>
-      <c r="K17" s="50">
-        <v>3.3988620327987311E-3</v>
-      </c>
-      <c r="L17" s="50">
-        <v>7.677982542518497E-3</v>
-      </c>
-      <c r="M17" s="50">
-        <v>1.5925701072582277E-2</v>
-      </c>
-      <c r="N17" s="50">
-        <v>3.0604307351953318E-2</v>
-      </c>
-      <c r="O17" s="50">
-        <v>5.4933434730819838E-2</v>
-      </c>
-      <c r="P17" s="51">
-        <v>9.2786383995466071E-2</v>
+        <v>68</v>
+      </c>
+      <c r="F17" s="39">
+        <v>1.8779251359054851E-9</v>
+      </c>
+      <c r="G17" s="40">
+        <v>1.7132552507080434E-8</v>
+      </c>
+      <c r="H17" s="40">
+        <v>1.2597049454941564E-7</v>
+      </c>
+      <c r="I17" s="40">
+        <v>7.6388952768980809E-7</v>
+      </c>
+      <c r="J17" s="40">
+        <v>3.8964168986150134E-6</v>
+      </c>
+      <c r="K17" s="40">
+        <v>1.7004395521233216E-5</v>
+      </c>
+      <c r="L17" s="40">
+        <v>6.4440222045392747E-5</v>
+      </c>
+      <c r="M17" s="40">
+        <v>2.1484241272067551E-4</v>
+      </c>
+      <c r="N17" s="40">
+        <v>6.3751190078400381E-4</v>
+      </c>
+      <c r="O17" s="40">
+        <v>1.7013286495450005E-3</v>
+      </c>
+      <c r="P17" s="41">
+        <v>4.122215040040564E-3</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="17" thickTop="1" x14ac:dyDescent="0.2">
@@ -1956,146 +1956,146 @@
       </c>
       <c r="B18" s="27">
         <f>IF(agentOccupancy&lt;1,B12*EXP(-(nAgents-trafficIntensity)*B17/Ts),blankOutput)</f>
-        <v>1.0625288515695615E-3</v>
-      </c>
-      <c r="D18" s="35"/>
+        <v>4.8356221185290036E-5</v>
+      </c>
+      <c r="D18" s="64"/>
       <c r="E18" s="17">
         <f t="shared" si="1"/>
-        <v>51</v>
-      </c>
-      <c r="F18" s="49">
-        <v>1.1304910037100153E-6</v>
-      </c>
-      <c r="G18" s="50">
-        <v>5.5243989313859375E-6</v>
-      </c>
-      <c r="H18" s="50">
-        <v>2.2993455246466096E-5</v>
-      </c>
-      <c r="I18" s="50">
-        <v>8.2949998515341979E-5</v>
-      </c>
-      <c r="J18" s="50">
-        <v>2.6329336631468925E-4</v>
-      </c>
-      <c r="K18" s="50">
-        <v>7.449650155346171E-4</v>
-      </c>
-      <c r="L18" s="50">
-        <v>1.900538499541982E-3</v>
-      </c>
-      <c r="M18" s="50">
-        <v>4.4165072905999704E-3</v>
-      </c>
-      <c r="N18" s="50">
-        <v>9.4342574061415142E-3</v>
-      </c>
-      <c r="O18" s="50">
-        <v>1.8679113890142263E-2</v>
-      </c>
-      <c r="P18" s="51">
-        <v>3.4538646376627839E-2</v>
+        <v>71</v>
+      </c>
+      <c r="F18" s="39">
+        <v>1.4308224166152454E-10</v>
+      </c>
+      <c r="G18" s="40">
+        <v>1.5490658923359752E-9</v>
+      </c>
+      <c r="H18" s="40">
+        <v>1.3381890280156862E-8</v>
+      </c>
+      <c r="I18" s="40">
+        <v>9.4482616088782814E-8</v>
+      </c>
+      <c r="J18" s="40">
+        <v>5.5650908916075693E-7</v>
+      </c>
+      <c r="K18" s="40">
+        <v>2.7832181642226554E-6</v>
+      </c>
+      <c r="L18" s="40">
+        <v>1.2001748922148532E-5</v>
+      </c>
+      <c r="M18" s="40">
+        <v>4.5228517176745624E-5</v>
+      </c>
+      <c r="N18" s="40">
+        <v>1.5073905733363436E-4</v>
+      </c>
+      <c r="O18" s="40">
+        <v>4.4906233280613082E-4</v>
+      </c>
+      <c r="P18" s="41">
+        <v>1.2073204268616198E-3</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D19" s="35"/>
+      <c r="D19" s="64"/>
       <c r="E19" s="17">
         <f t="shared" si="1"/>
-        <v>54</v>
-      </c>
-      <c r="F19" s="49">
-        <v>1.0006771181849222E-7</v>
-      </c>
-      <c r="G19" s="50">
-        <v>5.7914816573626095E-7</v>
-      </c>
-      <c r="H19" s="50">
-        <v>2.8257297017272671E-6</v>
-      </c>
-      <c r="I19" s="50">
-        <v>1.1838488238808247E-5</v>
-      </c>
-      <c r="J19" s="50">
-        <v>4.3262995198726955E-5</v>
-      </c>
-      <c r="K19" s="50">
-        <v>1.3979708018670273E-4</v>
-      </c>
-      <c r="L19" s="50">
-        <v>4.0420391475118165E-4</v>
-      </c>
-      <c r="M19" s="50">
-        <v>1.0567616928411144E-3</v>
-      </c>
-      <c r="N19" s="50">
-        <v>2.5216617474844234E-3</v>
-      </c>
-      <c r="O19" s="50">
-        <v>5.5384056237171124E-3</v>
-      </c>
-      <c r="P19" s="51">
-        <v>1.1282175235846077E-2</v>
+        <v>74</v>
+      </c>
+      <c r="F19" s="39">
+        <v>9.646437942008221E-12</v>
+      </c>
+      <c r="G19" s="40">
+        <v>1.239969955747363E-10</v>
+      </c>
+      <c r="H19" s="40">
+        <v>1.2592496210246873E-9</v>
+      </c>
+      <c r="I19" s="40">
+        <v>1.0358829497769652E-8</v>
+      </c>
+      <c r="J19" s="40">
+        <v>7.0510900979440327E-8</v>
+      </c>
+      <c r="K19" s="40">
+        <v>4.0449144007548924E-7</v>
+      </c>
+      <c r="L19" s="40">
+        <v>1.9869198755070231E-6</v>
+      </c>
+      <c r="M19" s="40">
+        <v>8.4745545020755668E-6</v>
+      </c>
+      <c r="N19" s="40">
+        <v>3.1772672201676808E-5</v>
+      </c>
+      <c r="O19" s="40">
+        <v>1.0586082869210132E-4</v>
+      </c>
+      <c r="P19" s="41">
+        <v>3.1653108880835395E-4</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="35"/>
+      <c r="D20" s="64"/>
       <c r="E20" s="18">
         <f t="shared" si="1"/>
-        <v>57</v>
-      </c>
-      <c r="F20" s="52">
-        <v>7.5611966597917005E-9</v>
-      </c>
-      <c r="G20" s="53">
-        <v>5.1882123702252786E-8</v>
-      </c>
-      <c r="H20" s="53">
-        <v>2.9710412877355811E-7</v>
-      </c>
-      <c r="I20" s="53">
-        <v>1.4475966260369098E-6</v>
-      </c>
-      <c r="J20" s="53">
-        <v>6.1009450894562525E-6</v>
-      </c>
-      <c r="K20" s="53">
-        <v>2.2559796885017631E-5</v>
-      </c>
-      <c r="L20" s="53">
-        <v>7.4103573562921067E-5</v>
-      </c>
-      <c r="M20" s="53">
-        <v>2.1859087966976743E-4</v>
-      </c>
-      <c r="N20" s="53">
-        <v>5.8465524007639692E-4</v>
-      </c>
-      <c r="O20" s="53">
-        <v>1.4301672561636755E-3</v>
-      </c>
-      <c r="P20" s="54">
-        <v>3.2245801577561748E-3</v>
+        <v>77</v>
+      </c>
+      <c r="F20" s="42">
+        <v>5.7806807073571651E-13</v>
+      </c>
+      <c r="G20" s="43">
+        <v>8.825919522828731E-12</v>
+      </c>
+      <c r="H20" s="43">
+        <v>1.0541798755236392E-10</v>
+      </c>
+      <c r="I20" s="43">
+        <v>1.0108992390269002E-9</v>
+      </c>
+      <c r="J20" s="43">
+        <v>7.9568881935614946E-9</v>
+      </c>
+      <c r="K20" s="43">
+        <v>5.2393936967667755E-8</v>
+      </c>
+      <c r="L20" s="43">
+        <v>2.93416009154113E-7</v>
+      </c>
+      <c r="M20" s="43">
+        <v>1.4177851501548356E-6</v>
+      </c>
+      <c r="N20" s="43">
+        <v>5.9864683528861809E-6</v>
+      </c>
+      <c r="O20" s="43">
+        <v>2.2338325503451618E-5</v>
+      </c>
+      <c r="P20" s="44">
+        <v>7.4407254094332903E-5</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D22" s="44" t="s">
+      <c r="D22" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="44"/>
-      <c r="I22" s="44"/>
-      <c r="J22" s="44"/>
-      <c r="K22" s="44"/>
-      <c r="L22" s="44"/>
-      <c r="M22" s="44"/>
-      <c r="N22" s="44"/>
-      <c r="O22" s="44"/>
-      <c r="P22" s="44"/>
+      <c r="E22" s="73"/>
+      <c r="F22" s="73"/>
+      <c r="G22" s="73"/>
+      <c r="H22" s="73"/>
+      <c r="I22" s="73"/>
+      <c r="J22" s="73"/>
+      <c r="K22" s="73"/>
+      <c r="L22" s="73"/>
+      <c r="M22" s="73"/>
+      <c r="N22" s="73"/>
+      <c r="O22" s="73"/>
+      <c r="P22" s="73"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="F23" s="7" t="s">
@@ -2116,7 +2116,7 @@
       <c r="D24" s="5"/>
       <c r="E24" s="14">
         <f>B16</f>
-        <v>5.5428467609737526E-2</v>
+        <v>3.0586070176703709E-3</v>
       </c>
       <c r="F24" s="15">
         <f>minTXRate</f>
@@ -2165,425 +2165,425 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B25" s="20"/>
-      <c r="D25" s="35" t="s">
+      <c r="D25" s="64" t="s">
         <v>13</v>
       </c>
       <c r="E25" s="17">
         <f>minPoolsize</f>
-        <v>30</v>
-      </c>
-      <c r="F25" s="64">
+        <v>50</v>
+      </c>
+      <c r="F25" s="54">
         <f t="dataTable" ref="F25:P34" dt2D="1" dtr="1" r1="B4" r2="B6"/>
-        <v>3.4572411099367599</v>
-      </c>
-      <c r="G25" s="65">
-        <v>7.6452481505111072</v>
-      </c>
-      <c r="H25" s="65">
-        <v>17.513144777760818</v>
-      </c>
-      <c r="I25" s="65">
-        <v>48.094654399244327</v>
-      </c>
-      <c r="J25" s="65">
-        <v>474.21447306004882</v>
-      </c>
-      <c r="K25" s="65" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="L25" s="65" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="M25" s="65" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="N25" s="65" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="O25" s="65" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="P25" s="66" t="str">
-        <v xml:space="preserve"> </v>
+        <v>4.1413335874884291E-3</v>
+      </c>
+      <c r="G25" s="55">
+        <v>1.5225645287900007E-2</v>
+      </c>
+      <c r="H25" s="55">
+        <v>4.8613524696064947E-2</v>
+      </c>
+      <c r="I25" s="55">
+        <v>0.13764435886512313</v>
+      </c>
+      <c r="J25" s="55">
+        <v>0.35245078917802986</v>
+      </c>
+      <c r="K25" s="55">
+        <v>0.83206916000501685</v>
+      </c>
+      <c r="L25" s="55">
+        <v>1.8482209440155533</v>
+      </c>
+      <c r="M25" s="55">
+        <v>3.9550123196754177</v>
+      </c>
+      <c r="N25" s="55">
+        <v>8.4220583242396962</v>
+      </c>
+      <c r="O25" s="55">
+        <v>18.899172772644185</v>
+      </c>
+      <c r="P25" s="56">
+        <v>52.084170839762514</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D26" s="35"/>
+      <c r="D26" s="64"/>
       <c r="E26" s="17">
         <f>E25+$I$6</f>
-        <v>33</v>
-      </c>
-      <c r="F26" s="67">
-        <v>0.7418838503655184</v>
-      </c>
-      <c r="G26" s="68">
-        <v>1.6806347699837147</v>
-      </c>
-      <c r="H26" s="68">
-        <v>3.6266762249324809</v>
-      </c>
-      <c r="I26" s="68">
-        <v>7.7064276463913455</v>
-      </c>
-      <c r="J26" s="68">
-        <v>17.015092232072472</v>
-      </c>
-      <c r="K26" s="68">
-        <v>44.45760955836969</v>
-      </c>
-      <c r="L26" s="68">
-        <v>308.8713871578791</v>
-      </c>
-      <c r="M26" s="68" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="N26" s="68" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="O26" s="68" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="P26" s="69" t="str">
-        <v xml:space="preserve"> </v>
+        <v>53</v>
+      </c>
+      <c r="F26" s="57">
+        <v>6.3764244718421967E-4</v>
+      </c>
+      <c r="G26" s="58">
+        <v>2.7216631718058482E-3</v>
+      </c>
+      <c r="H26" s="58">
+        <v>9.9423151407777334E-3</v>
+      </c>
+      <c r="I26" s="58">
+        <v>3.1726920547083731E-2</v>
+      </c>
+      <c r="J26" s="58">
+        <v>9.0098571570769018E-2</v>
+      </c>
+      <c r="K26" s="58">
+        <v>0.23168994935867954</v>
+      </c>
+      <c r="L26" s="58">
+        <v>0.54871908187183438</v>
+      </c>
+      <c r="M26" s="58">
+        <v>1.2178644745946989</v>
+      </c>
+      <c r="N26" s="58">
+        <v>2.5824909189387455</v>
+      </c>
+      <c r="O26" s="58">
+        <v>5.360206039957184</v>
+      </c>
+      <c r="P26" s="59">
+        <v>11.296258609706371</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D27" s="35"/>
+      <c r="D27" s="64"/>
       <c r="E27" s="17">
         <f t="shared" ref="E27:E34" si="3">E26+$I$6</f>
-        <v>36</v>
-      </c>
-      <c r="F27" s="67">
-        <v>0.14804600354918845</v>
-      </c>
-      <c r="G27" s="68">
-        <v>0.36795109012512339</v>
-      </c>
-      <c r="H27" s="68">
-        <v>0.84251730905996824</v>
-      </c>
-      <c r="I27" s="68">
-        <v>1.8144095331136061</v>
-      </c>
-      <c r="J27" s="68">
-        <v>3.7600066283937976</v>
-      </c>
-      <c r="K27" s="68">
-        <v>7.7232841139361144</v>
-      </c>
-      <c r="L27" s="68">
-        <v>16.510948224576008</v>
-      </c>
-      <c r="M27" s="68">
-        <v>41.277393296859294</v>
-      </c>
-      <c r="N27" s="68">
-        <v>226.69370536871187</v>
-      </c>
-      <c r="O27" s="68" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="P27" s="69" t="str">
-        <v xml:space="preserve"> </v>
+        <v>56</v>
+      </c>
+      <c r="F27" s="57">
+        <v>8.5589287735909789E-5</v>
+      </c>
+      <c r="G27" s="58">
+        <v>4.2670982346980509E-4</v>
+      </c>
+      <c r="H27" s="58">
+        <v>1.7972688727396601E-3</v>
+      </c>
+      <c r="I27" s="58">
+        <v>6.5284245620058426E-3</v>
+      </c>
+      <c r="J27" s="58">
+        <v>2.0828315663639341E-2</v>
+      </c>
+      <c r="K27" s="58">
+        <v>5.9341967222135139E-2</v>
+      </c>
+      <c r="L27" s="58">
+        <v>0.15334648565740627</v>
+      </c>
+      <c r="M27" s="58">
+        <v>0.3648465407836311</v>
+      </c>
+      <c r="N27" s="58">
+        <v>0.81144022208481981</v>
+      </c>
+      <c r="O27" s="58">
+        <v>1.7146717373205458</v>
+      </c>
+      <c r="P27" s="59">
+        <v>3.5091418186481724</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D28" s="35"/>
+      <c r="D28" s="64"/>
       <c r="E28" s="17">
         <f t="shared" si="3"/>
-        <v>39</v>
-      </c>
-      <c r="F28" s="67">
-        <v>2.5914115101773664E-2</v>
-      </c>
-      <c r="G28" s="68">
-        <v>7.2862714817148996E-2</v>
-      </c>
-      <c r="H28" s="68">
-        <v>0.18474725959766997</v>
-      </c>
-      <c r="I28" s="68">
-        <v>0.42996151598196425</v>
-      </c>
-      <c r="J28" s="68">
-        <v>0.9343038337742382</v>
-      </c>
-      <c r="K28" s="68">
-        <v>1.9294247805205071</v>
-      </c>
-      <c r="L28" s="68">
-        <v>3.8637222130421258</v>
-      </c>
-      <c r="M28" s="68">
-        <v>7.7065619627426347</v>
-      </c>
-      <c r="N28" s="68">
-        <v>16.009981887835838</v>
-      </c>
-      <c r="O28" s="68">
-        <v>38.475392785979601</v>
-      </c>
-      <c r="P28" s="69">
-        <v>177.71400411936781</v>
+        <v>59</v>
+      </c>
+      <c r="F28" s="57">
+        <v>1.0033286662267983E-5</v>
+      </c>
+      <c r="G28" s="58">
+        <v>5.8670156395248171E-5</v>
+      </c>
+      <c r="H28" s="58">
+        <v>2.8640070418246356E-4</v>
+      </c>
+      <c r="I28" s="58">
+        <v>1.1919531483318151E-3</v>
+      </c>
+      <c r="J28" s="58">
+        <v>4.3079271922505874E-3</v>
+      </c>
+      <c r="K28" s="58">
+        <v>1.3744433682607016E-2</v>
+      </c>
+      <c r="L28" s="58">
+        <v>3.9293795416543029E-2</v>
+      </c>
+      <c r="M28" s="58">
+        <v>0.10207525515601676</v>
+      </c>
+      <c r="N28" s="58">
+        <v>0.24420066352844941</v>
+      </c>
+      <c r="O28" s="58">
+        <v>0.54528126542861677</v>
+      </c>
+      <c r="P28" s="59">
+        <v>1.1524882624800423</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D29" s="35"/>
+      <c r="D29" s="64"/>
       <c r="E29" s="17">
         <f t="shared" si="3"/>
-        <v>42</v>
-      </c>
-      <c r="F29" s="67">
-        <v>3.8904230509738342E-3</v>
-      </c>
-      <c r="G29" s="68">
-        <v>1.2584746145208985E-2</v>
-      </c>
-      <c r="H29" s="68">
-        <v>3.6113594757435995E-2</v>
-      </c>
-      <c r="I29" s="68">
-        <v>9.3495040928152195E-2</v>
-      </c>
-      <c r="J29" s="68">
-        <v>0.22176921815619149</v>
-      </c>
-      <c r="K29" s="68">
-        <v>0.48907065050212278</v>
-      </c>
-      <c r="L29" s="68">
-        <v>1.0174706080221476</v>
-      </c>
-      <c r="M29" s="68">
-        <v>2.0279553445805725</v>
-      </c>
-      <c r="N29" s="68">
-        <v>3.9430190947798818</v>
-      </c>
-      <c r="O29" s="68">
-        <v>7.6642742806162127</v>
-      </c>
-      <c r="P29" s="69">
-        <v>15.518074125734032</v>
+        <v>62</v>
+      </c>
+      <c r="F29" s="57">
+        <v>1.030314830152803E-6</v>
+      </c>
+      <c r="G29" s="58">
+        <v>7.0874430808819914E-6</v>
+      </c>
+      <c r="H29" s="58">
+        <v>4.0243002969063276E-5</v>
+      </c>
+      <c r="I29" s="58">
+        <v>1.9275260387495896E-4</v>
+      </c>
+      <c r="J29" s="58">
+        <v>7.9357483345388752E-4</v>
+      </c>
+      <c r="K29" s="58">
+        <v>2.8552253657738802E-3</v>
+      </c>
+      <c r="L29" s="58">
+        <v>9.1115107931304569E-3</v>
+      </c>
+      <c r="M29" s="58">
+        <v>2.6140189181364265E-2</v>
+      </c>
+      <c r="N29" s="58">
+        <v>6.8277154191498962E-2</v>
+      </c>
+      <c r="O29" s="58">
+        <v>0.16433925786376521</v>
+      </c>
+      <c r="P29" s="59">
+        <v>0.36889115381301829</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D30" s="35"/>
+      <c r="D30" s="64"/>
       <c r="E30" s="17">
         <f t="shared" si="3"/>
-        <v>45</v>
-      </c>
-      <c r="F30" s="67">
-        <v>4.9725584184495317E-4</v>
-      </c>
-      <c r="G30" s="68">
-        <v>1.8691975506837555E-3</v>
-      </c>
-      <c r="H30" s="68">
-        <v>6.1478126912271006E-3</v>
-      </c>
-      <c r="I30" s="68">
-        <v>1.7992113392495603E-2</v>
-      </c>
-      <c r="J30" s="68">
-        <v>4.7560458003241504E-2</v>
-      </c>
-      <c r="K30" s="68">
-        <v>0.11511920406100472</v>
-      </c>
-      <c r="L30" s="68">
-        <v>0.2584378436335556</v>
-      </c>
-      <c r="M30" s="68">
-        <v>0.54485097058654119</v>
-      </c>
-      <c r="N30" s="68">
-        <v>1.0924633376909294</v>
-      </c>
-      <c r="O30" s="68">
-        <v>2.1120443054243672</v>
-      </c>
-      <c r="P30" s="69">
-        <v>4.0020830749580592</v>
+        <v>65</v>
+      </c>
+      <c r="F30" s="57">
+        <v>9.3021935690262964E-8</v>
+      </c>
+      <c r="G30" s="58">
+        <v>7.5439094498781036E-7</v>
+      </c>
+      <c r="H30" s="58">
+        <v>4.9954370457372355E-6</v>
+      </c>
+      <c r="I30" s="58">
+        <v>2.7623469711198725E-5</v>
+      </c>
+      <c r="J30" s="58">
+        <v>1.3005309829302385E-4</v>
+      </c>
+      <c r="K30" s="58">
+        <v>5.3020082057481609E-4</v>
+      </c>
+      <c r="L30" s="58">
+        <v>1.8999045713197472E-3</v>
+      </c>
+      <c r="M30" s="58">
+        <v>6.0650011640294606E-3</v>
+      </c>
+      <c r="N30" s="58">
+        <v>1.746123344575921E-2</v>
+      </c>
+      <c r="O30" s="58">
+        <v>4.586111245112201E-2</v>
+      </c>
+      <c r="P30" s="59">
+        <v>0.11109582909769301</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D31" s="35"/>
+      <c r="D31" s="64"/>
       <c r="E31" s="17">
         <f t="shared" si="3"/>
-        <v>48</v>
-      </c>
-      <c r="F31" s="67">
-        <v>5.4095741569972661E-5</v>
-      </c>
-      <c r="G31" s="68">
-        <v>2.3779580865807538E-4</v>
-      </c>
-      <c r="H31" s="68">
-        <v>9.0342360167627888E-4</v>
-      </c>
-      <c r="I31" s="68">
-        <v>3.0179153481649278E-3</v>
-      </c>
-      <c r="J31" s="68">
-        <v>8.9991041356557305E-3</v>
-      </c>
-      <c r="K31" s="68">
-        <v>2.4277585948562368E-2</v>
-      </c>
-      <c r="L31" s="68">
-        <v>5.9984238613425764E-2</v>
-      </c>
-      <c r="M31" s="68">
-        <v>0.13729052648777823</v>
-      </c>
-      <c r="N31" s="68">
-        <v>0.2942721860764741</v>
-      </c>
-      <c r="O31" s="68">
-        <v>0.5971025514219549</v>
-      </c>
-      <c r="P31" s="69">
-        <v>1.1598297999433254</v>
+        <v>68</v>
+      </c>
+      <c r="F31" s="57">
+        <v>7.4128623785742833E-9</v>
+      </c>
+      <c r="G31" s="58">
+        <v>7.0991239670222771E-8</v>
+      </c>
+      <c r="H31" s="58">
+        <v>5.4928994716314959E-7</v>
+      </c>
+      <c r="I31" s="58">
+        <v>3.5148291151371529E-6</v>
+      </c>
+      <c r="J31" s="58">
+        <v>1.8976056324423765E-5</v>
+      </c>
+      <c r="K31" s="58">
+        <v>8.7953769937413172E-5</v>
+      </c>
+      <c r="L31" s="58">
+        <v>3.5536887157385704E-4</v>
+      </c>
+      <c r="M31" s="58">
+        <v>1.2687544058307609E-3</v>
+      </c>
+      <c r="N31" s="58">
+        <v>4.0519824202373128E-3</v>
+      </c>
+      <c r="O31" s="58">
+        <v>1.1706389790447249E-2</v>
+      </c>
+      <c r="P31" s="59">
+        <v>3.0916612800304232E-2</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D32" s="35"/>
+      <c r="D32" s="64"/>
       <c r="E32" s="17">
         <f t="shared" si="3"/>
-        <v>51</v>
-      </c>
-      <c r="F32" s="67">
-        <v>5.0244044609334017E-6</v>
-      </c>
-      <c r="G32" s="68">
-        <v>2.593614521777435E-5</v>
-      </c>
-      <c r="H32" s="68">
-        <v>1.1439529973366216E-4</v>
-      </c>
-      <c r="I32" s="68">
-        <v>4.3888888103355548E-4</v>
-      </c>
-      <c r="J32" s="68">
-        <v>1.4875331430208431E-3</v>
-      </c>
-      <c r="K32" s="68">
-        <v>4.5149394880885877E-3</v>
-      </c>
-      <c r="L32" s="68">
-        <v>1.2421820258444329E-2</v>
-      </c>
-      <c r="M32" s="68">
-        <v>3.1322746741843759E-2</v>
-      </c>
-      <c r="N32" s="68">
-        <v>7.3133778342182279E-2</v>
-      </c>
-      <c r="O32" s="68">
-        <v>0.159650546069592</v>
-      </c>
-      <c r="P32" s="69">
-        <v>0.32893948930121747</v>
+        <v>71</v>
+      </c>
+      <c r="F32" s="57">
+        <v>5.234716158348459E-10</v>
+      </c>
+      <c r="G32" s="58">
+        <v>5.9275480574080675E-9</v>
+      </c>
+      <c r="H32" s="58">
+        <v>5.36706829418056E-8</v>
+      </c>
+      <c r="I32" s="58">
+        <v>3.9810091048644442E-7</v>
+      </c>
+      <c r="J32" s="58">
+        <v>2.4697148927252521E-6</v>
+      </c>
+      <c r="K32" s="58">
+        <v>1.3046335144793699E-5</v>
+      </c>
+      <c r="L32" s="58">
+        <v>5.961133570603576E-5</v>
+      </c>
+      <c r="M32" s="58">
+        <v>2.3888301325745927E-4</v>
+      </c>
+      <c r="N32" s="58">
+        <v>8.5003227819718601E-4</v>
+      </c>
+      <c r="O32" s="58">
+        <v>2.7161028193919191E-3</v>
+      </c>
+      <c r="P32" s="59">
+        <v>7.8738288708366504E-3</v>
       </c>
     </row>
     <row r="33" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="D33" s="35"/>
+      <c r="D33" s="64"/>
       <c r="E33" s="17">
         <f t="shared" si="3"/>
-        <v>54</v>
-      </c>
-      <c r="F33" s="67">
-        <v>4.0027084727396886E-7</v>
-      </c>
-      <c r="G33" s="68">
-        <v>2.4333956543540373E-6</v>
-      </c>
-      <c r="H33" s="68">
-        <v>1.2503228768704721E-5</v>
-      </c>
-      <c r="I33" s="68">
-        <v>5.5320038499103969E-5</v>
-      </c>
-      <c r="J33" s="68">
-        <v>2.1417324355805422E-4</v>
-      </c>
-      <c r="K33" s="68">
-        <v>7.3577410624580362E-4</v>
-      </c>
-      <c r="L33" s="68">
-        <v>2.2708085098380993E-3</v>
-      </c>
-      <c r="M33" s="68">
-        <v>6.36603429422358E-3</v>
-      </c>
-      <c r="N33" s="68">
-        <v>1.6374426931717031E-2</v>
-      </c>
-      <c r="O33" s="68">
-        <v>3.9002856505050081E-2</v>
-      </c>
-      <c r="P33" s="69">
-        <v>8.6785963352662143E-2</v>
+        <v>74</v>
+      </c>
+      <c r="F33" s="57">
+        <v>3.2885583893209851E-11</v>
+      </c>
+      <c r="G33" s="58">
+        <v>4.4074761460214321E-10</v>
+      </c>
+      <c r="H33" s="58">
+        <v>4.6754317612302747E-9</v>
+      </c>
+      <c r="I33" s="58">
+        <v>4.0254518773716267E-8</v>
+      </c>
+      <c r="J33" s="58">
+        <v>2.8740856377489261E-7</v>
+      </c>
+      <c r="K33" s="58">
+        <v>1.7335347431806678E-6</v>
+      </c>
+      <c r="L33" s="58">
+        <v>8.9770476303028142E-6</v>
+      </c>
+      <c r="M33" s="58">
+        <v>4.0483540615010669E-5</v>
+      </c>
+      <c r="N33" s="58">
+        <v>1.6101016318417299E-4</v>
+      </c>
+      <c r="O33" s="58">
+        <v>5.7119152171997102E-4</v>
+      </c>
+      <c r="P33" s="59">
+        <v>1.826140896971273E-3</v>
       </c>
     </row>
     <row r="34" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="D34" s="35"/>
+      <c r="D34" s="64"/>
       <c r="E34" s="18">
         <f t="shared" si="3"/>
-        <v>57</v>
-      </c>
-      <c r="F34" s="70">
-        <v>2.749526058106073E-8</v>
-      </c>
-      <c r="G34" s="71">
-        <v>1.9727043232795736E-7</v>
-      </c>
-      <c r="H34" s="71">
-        <v>1.1836817879424627E-6</v>
-      </c>
-      <c r="I34" s="71">
-        <v>6.0568896486899999E-6</v>
-      </c>
-      <c r="J34" s="71">
-        <v>2.6876410085710366E-5</v>
-      </c>
-      <c r="K34" s="71">
-        <v>1.0492928783729133E-4</v>
-      </c>
-      <c r="L34" s="71">
-        <v>3.6504223430010378E-4</v>
-      </c>
-      <c r="M34" s="71">
-        <v>1.1444548673809811E-3</v>
-      </c>
-      <c r="N34" s="71">
-        <v>3.2662303914882504E-3</v>
-      </c>
-      <c r="O34" s="71">
-        <v>8.5638757854112329E-3</v>
-      </c>
-      <c r="P34" s="72">
-        <v>2.0803742953265644E-2</v>
+        <v>77</v>
+      </c>
+      <c r="F34" s="60">
+        <v>1.8448980980927122E-12</v>
+      </c>
+      <c r="G34" s="61">
+        <v>2.9289555938590924E-11</v>
+      </c>
+      <c r="H34" s="61">
+        <v>3.6434788324549742E-10</v>
+      </c>
+      <c r="I34" s="61">
+        <v>3.6450693714912271E-9</v>
+      </c>
+      <c r="J34" s="61">
+        <v>2.9988272086287039E-8</v>
+      </c>
+      <c r="K34" s="61">
+        <v>2.0681817224079371E-7</v>
+      </c>
+      <c r="L34" s="61">
+        <v>1.2158121926275401E-6</v>
+      </c>
+      <c r="M34" s="61">
+        <v>6.1822026896286448E-6</v>
+      </c>
+      <c r="N34" s="61">
+        <v>2.7545099783218622E-5</v>
+      </c>
+      <c r="O34" s="61">
+        <v>1.0879054628304359E-4</v>
+      </c>
+      <c r="P34" s="62">
+        <v>3.8486510738448056E-4</v>
       </c>
     </row>
     <row r="36" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="D36" s="43" t="str">
+      <c r="D36" s="72" t="str">
         <f>CONCATENATE("probability of waiting more than ",B17," ",C17)</f>
         <v>probability of waiting more than 15 milliseconds</v>
       </c>
-      <c r="E36" s="43"/>
-      <c r="F36" s="43"/>
-      <c r="G36" s="43"/>
-      <c r="H36" s="43"/>
-      <c r="I36" s="43"/>
-      <c r="J36" s="43"/>
-      <c r="K36" s="43"/>
-      <c r="L36" s="43"/>
-      <c r="M36" s="43"/>
-      <c r="N36" s="43"/>
-      <c r="O36" s="43"/>
-      <c r="P36" s="43"/>
+      <c r="E36" s="72"/>
+      <c r="F36" s="72"/>
+      <c r="G36" s="72"/>
+      <c r="H36" s="72"/>
+      <c r="I36" s="72"/>
+      <c r="J36" s="72"/>
+      <c r="K36" s="72"/>
+      <c r="L36" s="72"/>
+      <c r="M36" s="72"/>
+      <c r="N36" s="72"/>
+      <c r="O36" s="72"/>
+      <c r="P36" s="72"/>
     </row>
     <row r="37" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C37" s="25"/>
@@ -2604,7 +2604,7 @@
     <row r="38" spans="3:16" x14ac:dyDescent="0.2">
       <c r="E38" s="8">
         <f>B18</f>
-        <v>1.0625288515695615E-3</v>
+        <v>4.8356221185290036E-5</v>
       </c>
       <c r="F38" s="15">
         <f>minTXRate</f>
@@ -2652,406 +2652,406 @@
       </c>
     </row>
     <row r="39" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="D39" s="35" t="s">
+      <c r="D39" s="64" t="s">
         <v>13</v>
       </c>
       <c r="E39" s="17">
         <f>minPoolsize</f>
-        <v>30</v>
-      </c>
-      <c r="F39" s="55">
+        <v>50</v>
+      </c>
+      <c r="F39" s="45">
         <f t="dataTable" ref="F39:P48" dt2D="1" dtr="1" r1="B4" r2="B6" ca="1"/>
-        <v>8.1654253254767314E-2</v>
-      </c>
-      <c r="G39" s="56">
-        <v>0.16429612794281551</v>
-      </c>
-      <c r="H39" s="56">
-        <v>0.30829227171247936</v>
-      </c>
-      <c r="I39" s="56">
-        <v>0.54578676839971418</v>
-      </c>
-      <c r="J39" s="56">
-        <v>0.92039863465038085</v>
-      </c>
-      <c r="K39" s="56" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="L39" s="56" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="M39" s="56" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="N39" s="56" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="O39" s="56" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="P39" s="57" t="str">
-        <v xml:space="preserve"> </v>
+        <v>7.4729140538672533E-5</v>
+      </c>
+      <c r="G39" s="46">
+        <v>2.9932285549528814E-4</v>
+      </c>
+      <c r="H39" s="46">
+        <v>1.0310191910254183E-3</v>
+      </c>
+      <c r="I39" s="46">
+        <v>3.1113586123324853E-3</v>
+      </c>
+      <c r="J39" s="46">
+        <v>8.3621944290694205E-3</v>
+      </c>
+      <c r="K39" s="46">
+        <v>2.0311262620192182E-2</v>
+      </c>
+      <c r="L39" s="46">
+        <v>4.5175142617045486E-2</v>
+      </c>
+      <c r="M39" s="46">
+        <v>9.3091576412863891E-2</v>
+      </c>
+      <c r="N39" s="46">
+        <v>0.17960155923991211</v>
+      </c>
+      <c r="O39" s="46">
+        <v>0.3274185114396222</v>
+      </c>
+      <c r="P39" s="47">
+        <v>0.56857216553441425</v>
       </c>
     </row>
     <row r="40" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="D40" s="35"/>
+      <c r="D40" s="64"/>
       <c r="E40" s="17">
         <f>E39+$I$6</f>
-        <v>33</v>
-      </c>
-      <c r="F40" s="58">
-        <v>1.8064081688585872E-2</v>
-      </c>
-      <c r="G40" s="59">
-        <v>4.1153389278109707E-2</v>
-      </c>
-      <c r="H40" s="59">
-        <v>8.6068390710064668E-2</v>
-      </c>
-      <c r="I40" s="59">
-        <v>0.16743854460200458</v>
-      </c>
-      <c r="J40" s="59">
-        <v>0.30641414274208362</v>
-      </c>
-      <c r="K40" s="59">
-        <v>0.53250183419445174</v>
-      </c>
-      <c r="L40" s="59">
-        <v>0.88584080499968332</v>
-      </c>
-      <c r="M40" s="59" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="N40" s="59" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="O40" s="59" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="P40" s="60" t="str">
-        <v xml:space="preserve"> </v>
+        <v>53</v>
+      </c>
+      <c r="F40" s="48">
+        <v>9.8024918177012196E-6</v>
+      </c>
+      <c r="G40" s="49">
+        <v>4.6171573671707098E-5</v>
+      </c>
+      <c r="H40" s="49">
+        <v>1.8478499426593145E-4</v>
+      </c>
+      <c r="I40" s="49">
+        <v>6.4045857040560437E-4</v>
+      </c>
+      <c r="J40" s="49">
+        <v>1.9547825440870675E-3</v>
+      </c>
+      <c r="K40" s="49">
+        <v>5.3325102215125951E-3</v>
+      </c>
+      <c r="L40" s="49">
+        <v>1.3175871992346962E-2</v>
+      </c>
+      <c r="M40" s="49">
+        <v>2.9845219770549124E-2</v>
+      </c>
+      <c r="N40" s="49">
+        <v>6.2654568129954999E-2</v>
+      </c>
+      <c r="O40" s="49">
+        <v>0.12310590629650829</v>
+      </c>
+      <c r="P40" s="50">
+        <v>0.2283842395609906</v>
       </c>
     </row>
     <row r="41" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="D41" s="35"/>
+      <c r="D41" s="64"/>
       <c r="E41" s="17">
         <f t="shared" ref="E41:E48" si="5">E40+$I$6</f>
-        <v>36</v>
-      </c>
-      <c r="F41" s="58">
-        <v>3.3033528481265432E-3</v>
-      </c>
-      <c r="G41" s="59">
-        <v>8.6497598500930029E-3</v>
-      </c>
-      <c r="H41" s="59">
-        <v>2.0478432685161637E-2</v>
-      </c>
-      <c r="I41" s="59">
-        <v>4.446236815837596E-2</v>
-      </c>
-      <c r="J41" s="59">
-        <v>8.9627701332166521E-2</v>
-      </c>
-      <c r="K41" s="59">
-        <v>0.16954512762353122</v>
-      </c>
-      <c r="L41" s="59">
-        <v>0.30375704864648412</v>
-      </c>
-      <c r="M41" s="59">
-        <v>0.51951916159218103</v>
-      </c>
-      <c r="N41" s="59">
-        <v>0.85396836681220523</v>
-      </c>
-      <c r="O41" s="59" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="P41" s="60" t="str">
-        <v xml:space="preserve"> </v>
+        <v>56</v>
+      </c>
+      <c r="F41" s="48">
+        <v>1.1018839272067851E-6</v>
+      </c>
+      <c r="G41" s="49">
+        <v>6.1215880671174089E-6</v>
+      </c>
+      <c r="H41" s="49">
+        <v>2.8572627053114653E-5</v>
+      </c>
+      <c r="I41" s="49">
+        <v>1.1427144485521281E-4</v>
+      </c>
+      <c r="J41" s="49">
+        <v>3.9833375952817832E-4</v>
+      </c>
+      <c r="K41" s="49">
+        <v>1.2286239655876386E-3</v>
+      </c>
+      <c r="L41" s="49">
+        <v>3.3985881892097014E-3</v>
+      </c>
+      <c r="M41" s="49">
+        <v>8.534324785130009E-3</v>
+      </c>
+      <c r="N41" s="49">
+        <v>1.9671689575576516E-2</v>
+      </c>
+      <c r="O41" s="49">
+        <v>4.2044308481676534E-2</v>
+      </c>
+      <c r="P41" s="50">
+        <v>8.409381644339238E-2</v>
       </c>
     </row>
     <row r="42" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="D42" s="35"/>
+      <c r="D42" s="64"/>
       <c r="E42" s="17">
         <f t="shared" si="5"/>
-        <v>39</v>
-      </c>
-      <c r="F42" s="58">
-        <v>4.9675728278101997E-4</v>
-      </c>
-      <c r="G42" s="59">
-        <v>1.5116618239783385E-3</v>
-      </c>
-      <c r="H42" s="59">
-        <v>4.1015049385639676E-3</v>
-      </c>
-      <c r="I42" s="59">
-        <v>1.0070162037528843E-2</v>
-      </c>
-      <c r="J42" s="59">
-        <v>2.266567877330123E-2</v>
-      </c>
-      <c r="K42" s="59">
-        <v>4.7304677809194499E-2</v>
-      </c>
-      <c r="L42" s="59">
-        <v>9.2473575763260929E-2</v>
-      </c>
-      <c r="M42" s="59">
-        <v>0.17082578493105</v>
-      </c>
-      <c r="N42" s="59">
-        <v>0.30051817230010763</v>
-      </c>
-      <c r="O42" s="59">
-        <v>0.50685868280160162</v>
-      </c>
-      <c r="P42" s="60">
-        <v>0.82436504875554839</v>
+        <v>59</v>
+      </c>
+      <c r="F42" s="48">
+        <v>1.0673232304868413E-7</v>
+      </c>
+      <c r="G42" s="49">
+        <v>7.0083196223814059E-7</v>
+      </c>
+      <c r="H42" s="49">
+        <v>3.8247984525611933E-6</v>
+      </c>
+      <c r="I42" s="49">
+        <v>1.7706998549323976E-5</v>
+      </c>
+      <c r="J42" s="49">
+        <v>7.0773654031011716E-5</v>
+      </c>
+      <c r="K42" s="49">
+        <v>2.4801424338166136E-4</v>
+      </c>
+      <c r="L42" s="49">
+        <v>7.7248161407479676E-4</v>
+      </c>
+      <c r="M42" s="49">
+        <v>2.1648614794472702E-3</v>
+      </c>
+      <c r="N42" s="49">
+        <v>5.5199925654132159E-3</v>
+      </c>
+      <c r="O42" s="49">
+        <v>1.2937261314344462E-2</v>
+      </c>
+      <c r="P42" s="50">
+        <v>2.8132867904610212E-2</v>
       </c>
     </row>
     <row r="43" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="D43" s="35"/>
+      <c r="D43" s="64"/>
       <c r="E43" s="17">
         <f t="shared" si="5"/>
-        <v>42</v>
-      </c>
-      <c r="F43" s="58">
-        <v>6.1507135918536672E-5</v>
-      </c>
-      <c r="G43" s="59">
-        <v>2.1914621212518827E-4</v>
-      </c>
-      <c r="H43" s="59">
-        <v>6.874240065322814E-4</v>
-      </c>
-      <c r="I43" s="59">
-        <v>1.9277462338894193E-3</v>
-      </c>
-      <c r="J43" s="59">
-        <v>4.8981364556472074E-3</v>
-      </c>
-      <c r="K43" s="59">
-        <v>1.141081226193834E-2</v>
-      </c>
-      <c r="L43" s="59">
-        <v>2.463156075427065E-2</v>
-      </c>
-      <c r="M43" s="59">
-        <v>4.9733701807661623E-2</v>
-      </c>
-      <c r="N43" s="59">
-        <v>9.4720527877531144E-2</v>
-      </c>
-      <c r="O43" s="59">
-        <v>0.17144104498601767</v>
-      </c>
-      <c r="P43" s="60">
-        <v>0.29684282764564379</v>
+        <v>62</v>
+      </c>
+      <c r="F43" s="48">
+        <v>8.9595526973065148E-9</v>
+      </c>
+      <c r="G43" s="49">
+        <v>6.9636339293583262E-8</v>
+      </c>
+      <c r="H43" s="49">
+        <v>4.4516512445440613E-7</v>
+      </c>
+      <c r="I43" s="49">
+        <v>2.3909324663130813E-6</v>
+      </c>
+      <c r="J43" s="49">
+        <v>1.0987477361966745E-5</v>
+      </c>
+      <c r="K43" s="49">
+        <v>4.3893444373544656E-5</v>
+      </c>
+      <c r="L43" s="49">
+        <v>1.5457195298948173E-4</v>
+      </c>
+      <c r="M43" s="49">
+        <v>4.8583399737326283E-4</v>
+      </c>
+      <c r="N43" s="49">
+        <v>1.3782834202252859E-3</v>
+      </c>
+      <c r="O43" s="49">
+        <v>3.5655117165535061E-3</v>
+      </c>
+      <c r="P43" s="50">
+        <v>8.4902942651526054E-3</v>
       </c>
     </row>
     <row r="44" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="D44" s="35"/>
+      <c r="D44" s="64"/>
       <c r="E44" s="17">
         <f t="shared" si="5"/>
-        <v>45</v>
-      </c>
-      <c r="F44" s="58">
-        <v>6.3036911642443512E-6</v>
-      </c>
-      <c r="G44" s="59">
-        <v>2.6423649466989321E-5</v>
-      </c>
-      <c r="H44" s="59">
-        <v>9.6387468216149416E-5</v>
-      </c>
-      <c r="I44" s="59">
-        <v>3.1088014441090178E-4</v>
-      </c>
-      <c r="J44" s="59">
-        <v>8.9891527663393909E-4</v>
-      </c>
-      <c r="K44" s="59">
-        <v>2.3587810890998689E-3</v>
-      </c>
-      <c r="L44" s="59">
-        <v>5.6781695820897577E-3</v>
-      </c>
-      <c r="M44" s="59">
-        <v>1.2662141235484753E-2</v>
-      </c>
-      <c r="N44" s="59">
-        <v>2.6387302847571608E-2</v>
-      </c>
-      <c r="O44" s="59">
-        <v>5.1797866593420505E-2</v>
-      </c>
-      <c r="P44" s="60">
-        <v>9.646190654090904E-2</v>
+        <v>65</v>
+      </c>
+      <c r="F44" s="48">
+        <v>6.5543778036919573E-10</v>
+      </c>
+      <c r="G44" s="49">
+        <v>6.0365056522837135E-9</v>
+      </c>
+      <c r="H44" s="49">
+        <v>4.5261319009298956E-8</v>
+      </c>
+      <c r="I44" s="49">
+        <v>2.824665423602804E-7</v>
+      </c>
+      <c r="J44" s="49">
+        <v>1.4953249514774783E-6</v>
+      </c>
+      <c r="K44" s="49">
+        <v>6.8258514334863846E-6</v>
+      </c>
+      <c r="L44" s="49">
+        <v>2.7256070783371065E-5</v>
+      </c>
+      <c r="M44" s="49">
+        <v>9.6420195645163199E-5</v>
+      </c>
+      <c r="N44" s="49">
+        <v>3.0563581701065321E-4</v>
+      </c>
+      <c r="O44" s="49">
+        <v>8.7707665054697964E-4</v>
+      </c>
+      <c r="P44" s="50">
+        <v>2.3001427909410481E-3</v>
       </c>
     </row>
     <row r="45" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="D45" s="35"/>
+      <c r="D45" s="64"/>
       <c r="E45" s="17">
         <f t="shared" si="5"/>
-        <v>48</v>
-      </c>
-      <c r="F45" s="58">
-        <v>5.386536767909057E-7</v>
-      </c>
-      <c r="G45" s="59">
-        <v>2.6647201492922389E-6</v>
-      </c>
-      <c r="H45" s="59">
-        <v>1.1346624108656688E-5</v>
-      </c>
-      <c r="I45" s="59">
-        <v>4.2285013766215468E-5</v>
-      </c>
-      <c r="J45" s="59">
-        <v>1.3991086660524092E-4</v>
-      </c>
-      <c r="K45" s="59">
-        <v>4.1621250466120205E-4</v>
-      </c>
-      <c r="L45" s="59">
-        <v>1.125645695848499E-3</v>
-      </c>
-      <c r="M45" s="59">
-        <v>2.7952854323661778E-3</v>
-      </c>
-      <c r="N45" s="59">
-        <v>6.4310689087601486E-3</v>
-      </c>
-      <c r="O45" s="59">
-        <v>1.3820074024182231E-2</v>
-      </c>
-      <c r="P45" s="60">
-        <v>2.7946721803697359E-2</v>
+        <v>68</v>
+      </c>
+      <c r="F45" s="48">
+        <v>4.2010634778300387E-11</v>
+      </c>
+      <c r="G45" s="49">
+        <v>4.588556112902724E-10</v>
+      </c>
+      <c r="H45" s="49">
+        <v>4.0392042683220129E-9</v>
+      </c>
+      <c r="I45" s="49">
+        <v>2.9324495230396221E-8</v>
+      </c>
+      <c r="J45" s="49">
+        <v>1.7907642425512017E-7</v>
+      </c>
+      <c r="K45" s="49">
+        <v>9.3563659669100076E-7</v>
+      </c>
+      <c r="L45" s="49">
+        <v>4.2449838024231246E-6</v>
+      </c>
+      <c r="M45" s="49">
+        <v>1.6943847613621984E-5</v>
+      </c>
+      <c r="N45" s="49">
+        <v>6.0194015962324595E-5</v>
+      </c>
+      <c r="O45" s="49">
+        <v>1.9232079466701633E-4</v>
+      </c>
+      <c r="P45" s="50">
+        <v>5.5788114000611454E-4</v>
       </c>
     </row>
     <row r="46" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="D46" s="35"/>
+      <c r="D46" s="64"/>
       <c r="E46" s="17">
         <f t="shared" si="5"/>
-        <v>51</v>
-      </c>
-      <c r="F46" s="58">
-        <v>3.8683274915223385E-8</v>
-      </c>
-      <c r="G46" s="59">
-        <v>2.2631542901022741E-7</v>
-      </c>
-      <c r="H46" s="59">
-        <v>1.1277332232962578E-6</v>
-      </c>
-      <c r="I46" s="59">
-        <v>4.8707016307427759E-6</v>
-      </c>
-      <c r="J46" s="59">
-        <v>1.8509217880181231E-5</v>
-      </c>
-      <c r="K46" s="59">
-        <v>6.2698483344477034E-5</v>
-      </c>
-      <c r="L46" s="59">
-        <v>1.9150090717390153E-4</v>
-      </c>
-      <c r="M46" s="59">
-        <v>5.3277780280058069E-4</v>
-      </c>
-      <c r="N46" s="59">
-        <v>1.3625357277750737E-3</v>
-      </c>
-      <c r="O46" s="59">
-        <v>3.2297540711973931E-3</v>
-      </c>
-      <c r="P46" s="60">
-        <v>7.1497606593454877E-3</v>
+        <v>71</v>
+      </c>
+      <c r="F46" s="48">
+        <v>2.3712555468128073E-12</v>
+      </c>
+      <c r="G46" s="49">
+        <v>3.0735163135110591E-11</v>
+      </c>
+      <c r="H46" s="49">
+        <v>3.1787480180665401E-10</v>
+      </c>
+      <c r="I46" s="49">
+        <v>2.686974557486483E-9</v>
+      </c>
+      <c r="J46" s="49">
+        <v>1.8947718022593973E-8</v>
+      </c>
+      <c r="K46" s="49">
+        <v>1.1345010652633783E-7</v>
+      </c>
+      <c r="L46" s="49">
+        <v>5.8569996987582397E-7</v>
+      </c>
+      <c r="M46" s="49">
+        <v>2.6425062366382278E-6</v>
+      </c>
+      <c r="N46" s="49">
+        <v>1.0543929007953374E-5</v>
+      </c>
+      <c r="O46" s="49">
+        <v>3.7605928241141574E-5</v>
+      </c>
+      <c r="P46" s="50">
+        <v>1.2104455000006786E-4</v>
       </c>
     </row>
     <row r="47" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="D47" s="35"/>
+      <c r="D47" s="64"/>
       <c r="E47" s="17">
         <f t="shared" si="5"/>
-        <v>54</v>
-      </c>
-      <c r="F47" s="58">
-        <v>2.353367014939659E-9</v>
-      </c>
-      <c r="G47" s="59">
-        <v>1.6306411013684353E-8</v>
-      </c>
-      <c r="H47" s="59">
-        <v>9.5251609521049521E-8</v>
-      </c>
-      <c r="I47" s="59">
-        <v>4.7776129157907353E-7</v>
-      </c>
-      <c r="J47" s="59">
-        <v>2.0902792202714988E-6</v>
-      </c>
-      <c r="K47" s="59">
-        <v>8.0864671636851539E-6</v>
-      </c>
-      <c r="L47" s="59">
-        <v>2.7992020575268512E-5</v>
-      </c>
-      <c r="M47" s="59">
-        <v>8.7616076631379677E-5</v>
-      </c>
-      <c r="N47" s="59">
-        <v>2.5030330106538687E-4</v>
-      </c>
-      <c r="O47" s="59">
-        <v>6.5816913657950867E-4</v>
-      </c>
-      <c r="P47" s="60">
-        <v>1.6051610071563551E-3</v>
+        <v>74</v>
+      </c>
+      <c r="F47" s="48">
+        <v>1.1843259746789088E-13</v>
+      </c>
+      <c r="G47" s="49">
+        <v>1.8225877576289286E-12</v>
+      </c>
+      <c r="H47" s="49">
+        <v>2.2159610470366147E-11</v>
+      </c>
+      <c r="I47" s="49">
+        <v>2.1823981491827855E-10</v>
+      </c>
+      <c r="J47" s="49">
+        <v>1.7784946810136202E-9</v>
+      </c>
+      <c r="K47" s="49">
+        <v>1.2214583107005316E-8</v>
+      </c>
+      <c r="L47" s="49">
+        <v>7.1832779967976253E-8</v>
+      </c>
+      <c r="M47" s="49">
+        <v>3.6680242982253199E-7</v>
+      </c>
+      <c r="N47" s="49">
+        <v>1.6464254691748591E-6</v>
+      </c>
+      <c r="O47" s="49">
+        <v>6.5674478017881896E-6</v>
+      </c>
+      <c r="P47" s="50">
+        <v>2.350989658187554E-5</v>
       </c>
     </row>
     <row r="48" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="D48" s="35"/>
+      <c r="D48" s="64"/>
       <c r="E48" s="18">
         <f t="shared" si="5"/>
-        <v>57</v>
-      </c>
-      <c r="F48" s="61">
-        <v>1.2221536129060103E-10</v>
-      </c>
-      <c r="G48" s="62">
-        <v>1.0039822014806719E-9</v>
-      </c>
-      <c r="H48" s="62">
-        <v>6.8831932489339229E-9</v>
-      </c>
-      <c r="I48" s="62">
-        <v>4.0151506478956417E-8</v>
-      </c>
-      <c r="J48" s="62">
-        <v>2.0259298591567855E-7</v>
-      </c>
-      <c r="K48" s="62">
-        <v>8.968823573646787E-7</v>
-      </c>
-      <c r="L48" s="62">
-        <v>3.5270568066916946E-6</v>
-      </c>
-      <c r="M48" s="62">
-        <v>1.245599276048903E-5</v>
-      </c>
-      <c r="N48" s="62">
-        <v>3.9885878554215802E-5</v>
-      </c>
-      <c r="O48" s="62">
-        <v>1.1680976586615458E-4</v>
-      </c>
-      <c r="P48" s="63">
-        <v>3.1531055344504442E-4</v>
+        <v>77</v>
+      </c>
+      <c r="F48" s="51">
+        <v>5.2576892869840394E-15</v>
+      </c>
+      <c r="G48" s="52">
+        <v>9.610564658083886E-14</v>
+      </c>
+      <c r="H48" s="52">
+        <v>1.3742845678760404E-12</v>
+      </c>
+      <c r="I48" s="52">
+        <v>1.5777668424378913E-11</v>
+      </c>
+      <c r="J48" s="52">
+        <v>1.4867954303555398E-10</v>
+      </c>
+      <c r="K48" s="52">
+        <v>1.1720928105500163E-9</v>
+      </c>
+      <c r="L48" s="52">
+        <v>7.8584660509355698E-9</v>
+      </c>
+      <c r="M48" s="52">
+        <v>4.5460834702228634E-8</v>
+      </c>
+      <c r="N48" s="52">
+        <v>2.2981092985007411E-7</v>
+      </c>
+      <c r="O48" s="52">
+        <v>1.026652834923022E-6</v>
+      </c>
+      <c r="P48" s="53">
+        <v>4.0941267158254869E-6</v>
       </c>
     </row>
   </sheetData>
@@ -3192,7 +3192,7 @@
       </c>
       <c r="G3" s="2">
         <f>trafficIntensity^nAgents/FACT(nAgents)</f>
-        <v>24697022720.160595</v>
+        <v>3324307690289.9888</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -3201,7 +3201,7 @@
       </c>
       <c r="B4" s="3">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -3210,7 +3210,7 @@
       </c>
       <c r="B5" s="3">
         <f t="shared" si="0"/>
-        <v>450</v>
+        <v>703.125</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -3219,7 +3219,7 @@
       </c>
       <c r="B6" s="3">
         <f t="shared" si="0"/>
-        <v>4500</v>
+        <v>8789.0625</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -3228,7 +3228,7 @@
       </c>
       <c r="B7" s="3">
         <f t="shared" si="0"/>
-        <v>33750</v>
+        <v>82397.4609375</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -3237,7 +3237,7 @@
       </c>
       <c r="B8" s="3">
         <f t="shared" si="0"/>
-        <v>202500</v>
+        <v>617980.95703125</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -3246,7 +3246,7 @@
       </c>
       <c r="B9" s="3">
         <f t="shared" si="0"/>
-        <v>1012500</v>
+        <v>3862380.9814453125</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -3255,7 +3255,7 @@
       </c>
       <c r="B10" s="3">
         <f t="shared" si="0"/>
-        <v>4339285.7142857146</v>
+        <v>20691326.686314173</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -3264,7 +3264,7 @@
       </c>
       <c r="B11" s="3">
         <f t="shared" si="0"/>
-        <v>16272321.428571429</v>
+        <v>96990593.842097685</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -3273,7 +3273,7 @@
       </c>
       <c r="B12" s="3">
         <f t="shared" si="0"/>
-        <v>54241071.428571425</v>
+        <v>404127474.34207374</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -3282,7 +3282,7 @@
       </c>
       <c r="B13" s="3">
         <f t="shared" si="0"/>
-        <v>162723214.2857143</v>
+        <v>1515478028.7827764</v>
       </c>
       <c r="F13" t="s">
         <v>19</v>
@@ -3297,7 +3297,7 @@
       </c>
       <c r="B14" s="3">
         <f t="shared" si="0"/>
-        <v>443790584.41558444</v>
+        <v>5166402370.8503742</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -3306,7 +3306,7 @@
       </c>
       <c r="B15" s="3">
         <f t="shared" si="0"/>
-        <v>1109476461.0389609</v>
+        <v>16145007408.907419</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -3315,7 +3315,7 @@
       </c>
       <c r="B16" s="3">
         <f t="shared" si="0"/>
-        <v>2560330294.7052946</v>
+        <v>46572136756.463707</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -3324,7 +3324,7 @@
       </c>
       <c r="B17" s="3">
         <f t="shared" si="0"/>
-        <v>5486422060.0827742</v>
+        <v>124746794883.38495</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -3333,7 +3333,7 @@
       </c>
       <c r="B18" s="3">
         <f t="shared" si="0"/>
-        <v>10972844120.165548</v>
+        <v>311866987208.46234</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -3342,7 +3342,7 @@
       </c>
       <c r="B19" s="3">
         <f t="shared" si="0"/>
-        <v>20574082725.310406</v>
+        <v>730938251269.83362</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -3351,7 +3351,7 @@
       </c>
       <c r="B20" s="3">
         <f t="shared" si="0"/>
-        <v>36307204809.3713</v>
+        <v>1612363789565.8096</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -3360,7 +3360,7 @@
       </c>
       <c r="B21" s="3">
         <f t="shared" si="0"/>
-        <v>60512008015.618843</v>
+        <v>3359091228262.103</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -3369,7 +3369,7 @@
       </c>
       <c r="B22" s="3">
         <f t="shared" si="0"/>
-        <v>95545275814.13501</v>
+        <v>6629785318938.3613</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -3378,7 +3378,7 @@
       </c>
       <c r="B23" s="3">
         <f t="shared" si="0"/>
-        <v>143317913721.20251</v>
+        <v>12430847473009.426</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -3387,7 +3387,7 @@
       </c>
       <c r="B24" s="3">
         <f t="shared" si="0"/>
-        <v>204739876744.57501</v>
+        <v>22197941916088.262</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -3396,7 +3396,7 @@
       </c>
       <c r="B25" s="3">
         <f t="shared" si="0"/>
-        <v>279190741015.32953</v>
+        <v>37837400993332.266</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -3405,7 +3405,7 @@
       </c>
       <c r="B26" s="3">
         <f t="shared" si="0"/>
-        <v>364161836106.9516</v>
+        <v>61691414663041.734</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -3414,7 +3414,7 @@
       </c>
       <c r="B27" s="3">
         <f t="shared" si="0"/>
-        <v>455202295133.68951</v>
+        <v>96392835411002.719</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -3423,7 +3423,7 @@
       </c>
       <c r="B28" s="3">
         <f t="shared" si="0"/>
-        <v>546242754160.42749</v>
+        <v>144589253116504.09</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -3432,7 +3432,7 @@
       </c>
       <c r="B29" s="3">
         <f t="shared" si="0"/>
-        <v>630280100954.33911</v>
+        <v>208542191994957.75</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -3441,7 +3441,7 @@
       </c>
       <c r="B30" s="3">
         <f t="shared" si="0"/>
-        <v>700311223282.59924</v>
+        <v>289641933326330.31</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -3450,7 +3450,7 @@
       </c>
       <c r="B31" s="3">
         <f t="shared" si="0"/>
-        <v>750333453517.0708</v>
+        <v>387913303562049.56</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -3459,7 +3459,7 @@
       </c>
       <c r="B32" s="3">
         <f t="shared" si="0"/>
-        <v>776207020879.72827</v>
+        <v>501612030468167.44</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -3468,7 +3468,7 @@
       </c>
       <c r="B33" s="3">
         <f t="shared" si="0"/>
-        <v>776207020879.72803</v>
+        <v>627015038085209.12</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -3477,7 +3477,7 @@
       </c>
       <c r="B34" s="3">
         <f t="shared" si="0"/>
-        <v>751168084722.31763</v>
+        <v>758485933167591.88</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -3486,7 +3486,7 @@
       </c>
       <c r="B35" s="3">
         <f t="shared" si="0"/>
-        <v>704220079427.17273</v>
+        <v>888850702930771.62</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -3495,7 +3495,7 @@
       </c>
       <c r="B36" s="3">
         <f t="shared" si="0"/>
-        <v>640200072206.52051</v>
+        <v>1010057616966785.8</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
@@ -3504,7 +3504,7 @@
       </c>
       <c r="B37" s="3">
         <f t="shared" si="0"/>
-        <v>564882416652.8125</v>
+        <v>1114034136360426</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
@@ -3513,7 +3513,7 @@
       </c>
       <c r="B38" s="3">
         <f t="shared" si="0"/>
-        <v>484184928559.55353</v>
+        <v>1193608003243313.5</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
@@ -3522,7 +3522,7 @@
       </c>
       <c r="B39" s="3">
         <f t="shared" si="0"/>
-        <v>403487440466.29449</v>
+        <v>1243341670045117.8</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
@@ -3531,7 +3531,7 @@
       </c>
       <c r="B40" s="3">
         <f t="shared" si="0"/>
-        <v>327151978756.45508</v>
+        <v>1260143584505187.2</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
@@ -3540,7 +3540,7 @@
       </c>
       <c r="B41" s="3">
         <f t="shared" si="0"/>
-        <v>258277877965.62244</v>
+        <v>1243562747866961.2</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
@@ -3549,7 +3549,7 @@
       </c>
       <c r="B42" s="3">
         <f t="shared" si="0"/>
-        <v>198675290742.78647</v>
+        <v>1195733411410539.2</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
@@ -3558,7 +3558,7 @@
       </c>
       <c r="B43" s="3">
         <f t="shared" si="0"/>
-        <v>149006468057.08981</v>
+        <v>1121000073197380.4</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
@@ -3567,7 +3567,7 @@
       </c>
       <c r="B44" s="3">
         <f t="shared" si="0"/>
-        <v>109029122968.60236</v>
+        <v>1025304944997604.8</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
@@ -3576,7 +3576,7 @@
       </c>
       <c r="B45" s="3">
         <f t="shared" si="0"/>
-        <v>77877944977.573074</v>
+        <v>915450843747860.88</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
@@ -3585,7 +3585,7 @@
       </c>
       <c r="B46" s="3">
         <f t="shared" si="0"/>
-        <v>54333449984.35331</v>
+        <v>798358293966157.75</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
@@ -3594,7 +3594,7 @@
       </c>
       <c r="B47" s="3">
         <f t="shared" si="0"/>
-        <v>37045534080.240891</v>
+        <v>680419000539338.88</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
@@ -3603,7 +3603,7 @@
       </c>
       <c r="B48" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>567015833782782.5</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
@@ -3612,7 +3612,7 @@
       </c>
       <c r="B49" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>462241168844659.69</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
@@ -3621,7 +3621,7 @@
       </c>
       <c r="B50" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>368809443227121.94</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
@@ -3630,7 +3630,7 @@
       </c>
       <c r="B51" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>288132377521189.25</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
@@ -3639,7 +3639,7 @@
       </c>
       <c r="B52" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>220509472592746.69</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
@@ -3648,7 +3648,7 @@
       </c>
       <c r="B53" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>165382104444560.12</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
@@ -3657,7 +3657,7 @@
       </c>
       <c r="B54" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>121604488562176.58</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
@@ -3666,7 +3666,7 @@
       </c>
       <c r="B55" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>87695544636184.969</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
@@ -3675,7 +3675,7 @@
       </c>
       <c r="B56" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>62048734412395.07</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
@@ -3684,7 +3684,7 @@
       </c>
       <c r="B57" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>43089398897496.578</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
@@ -3693,7 +3693,7 @@
       </c>
       <c r="B58" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>29379135611929.504</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
@@ -3702,7 +3702,7 @@
       </c>
       <c r="B59" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>19673528311559.922</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
@@ -3711,7 +3711,7 @@
       </c>
       <c r="B60" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12943110731289.416</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
@@ -3720,7 +3720,7 @@
       </c>
       <c r="B61" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8368390559023.3301</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
@@ -3729,7 +3729,7 @@
       </c>
       <c r="B62" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5318892304463.9834</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
